--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D838D-1D1E-2644-9614-4D92AD4495D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FA337-03D5-0C45-933D-5209336BB9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="27140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,19 +550,26 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -674,6 +681,27 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -888,11 +916,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -924,9 +953,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,7 +968,6 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -983,12 +1008,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,6 +1030,12 @@
     <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,8 +1060,20 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2412,13 +2449,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>281.10000000000002</v>
+    <v>394.8</v>
     <v>108.13</v>
-    <v>1.7707999999999999</v>
-    <v>0.15</v>
-    <v>5.5340000000000001E-4</v>
-    <v>0.26</v>
-    <v>9.5869999999999994E-4</v>
+    <v>1.7505999999999999</v>
+    <v>74.42</v>
+    <v>0.243696</v>
+    <v>-1.91</v>
+    <v>-5.0290000000000005E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2426,25 +2463,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>271.83</v>
+    <v>394.8</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.999898575785</v>
+    <v>45071.999968796095</v>
     <v>0</v>
-    <v>267.22000000000003</v>
-    <v>669839300000</v>
+    <v>366.35</v>
+    <v>939294394200</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>269.52</v>
-    <v>155.6404</v>
-    <v>271.04000000000002</v>
-    <v>271.19</v>
-    <v>271.45</v>
-    <v>2470000000</v>
+    <v>385.23</v>
+    <v>197.38380000000001</v>
+    <v>305.38</v>
+    <v>379.8</v>
+    <v>377.89</v>
+    <v>2473129000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>34510277</v>
-    <v>45753366</v>
+    <v>154391067</v>
+    <v>40319476</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2609,9 +2646,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3031,20 +3068,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB92" sqref="AB92"/>
+      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="26" width="15" customWidth="1"/>
-    <col min="27" max="31" width="19" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" customWidth="1"/>
-    <col min="33" max="35" width="20" customWidth="1"/>
+    <col min="27" max="34" width="21" customWidth="1"/>
+    <col min="35" max="35" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -3126,19 +3162,19 @@
       <c r="Z1" s="8">
         <v>2023</v>
       </c>
-      <c r="AA1" s="21">
+      <c r="AA1" s="20">
         <v>2024</v>
       </c>
-      <c r="AB1" s="21">
+      <c r="AB1" s="20">
         <v>2025</v>
       </c>
-      <c r="AC1" s="21">
+      <c r="AC1" s="20">
         <v>2026</v>
       </c>
-      <c r="AD1" s="21">
+      <c r="AD1" s="20">
         <v>2027</v>
       </c>
-      <c r="AE1" s="21">
+      <c r="AE1" s="20">
         <v>2028</v>
       </c>
     </row>
@@ -3316,31 +3352,31 @@
       <c r="Z3" s="1">
         <v>26974000000</v>
       </c>
-      <c r="AA3" s="22">
-        <v>29627000000</v>
-      </c>
-      <c r="AB3" s="22">
-        <v>36085000000</v>
-      </c>
-      <c r="AC3" s="22">
-        <v>54755000000</v>
-      </c>
-      <c r="AD3" s="22">
-        <v>65013000000</v>
-      </c>
-      <c r="AE3" s="22">
-        <v>73140000000</v>
-      </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AA3" s="21">
+        <v>42423000000</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>50155000000</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>59738000000</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>74307000000</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>90189000000</v>
+      </c>
+      <c r="AF3" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="AG3" s="43" t="s">
+      <c r="AG3" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="43" t="s">
+      <c r="AH3" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AI3" s="41" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3447,37 +3483,37 @@
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="12"/>
-        <v>9.8353970490101528E-2</v>
+        <v>0.57273670942388977</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="12"/>
-        <v>0.21797684544503326</v>
+        <v>0.18225962331753998</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="12"/>
-        <v>0.51738949702092274</v>
+        <v>0.1910676901605024</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="12"/>
-        <v>0.18734362158706963</v>
+        <v>0.24388161639157646</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="12"/>
-        <v>0.12500576807715369</v>
-      </c>
-      <c r="AF4" s="44">
+        <v>0.21373491057370098</v>
+      </c>
+      <c r="AF4" s="42">
         <f>(Z4+Y4+X4)/3</f>
         <v>0.38118556093218037</v>
       </c>
-      <c r="AG4" s="44">
+      <c r="AG4" s="42">
         <f>(Z20+Y20+X20)/3</f>
         <v>0.40909729531125477</v>
       </c>
-      <c r="AH4" s="44">
+      <c r="AH4" s="42">
         <f>(Z29+Y29+X29)/3</f>
         <v>0.41613951529322118</v>
       </c>
-      <c r="AI4" s="44">
+      <c r="AI4" s="42">
         <f>(Z105+Y105+X105)/3</f>
         <v>9.9826876843558135E-2</v>
       </c>
@@ -3644,16 +3680,16 @@
       <c r="Z6" s="10">
         <v>15356000000</v>
       </c>
-      <c r="AF6" s="42" t="s">
+      <c r="AF6" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="AG6" s="43" t="s">
+      <c r="AG6" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="AH6" s="43" t="s">
+      <c r="AH6" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="AI6" s="43" t="s">
+      <c r="AI6" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3736,19 +3772,19 @@
       <c r="Z7" s="2">
         <v>0.56930000000000003</v>
       </c>
-      <c r="AF7" s="44">
+      <c r="AF7" s="42">
         <f>Z7</f>
         <v>0.56930000000000003</v>
       </c>
-      <c r="AG7" s="45">
+      <c r="AG7" s="43">
         <f>Z21</f>
         <v>0.23580000000000001</v>
       </c>
-      <c r="AH7" s="45">
+      <c r="AH7" s="43">
         <f>Z30</f>
         <v>0.16189999999999999</v>
       </c>
-      <c r="AI7" s="45">
+      <c r="AI7" s="43">
         <f>Z106/Z3</f>
         <v>0.14117298138948617</v>
       </c>
@@ -3937,16 +3973,16 @@
         <f t="shared" si="13"/>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AF9" s="42" t="s">
+      <c r="AF9" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AG9" s="43" t="s">
+      <c r="AG9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH9" s="43" t="s">
+      <c r="AH9" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AI9" s="43" t="s">
+      <c r="AI9" s="41" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4029,19 +4065,19 @@
       <c r="Z10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF10" s="44">
+      <c r="AF10" s="42">
         <f>Z9</f>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AG10" s="45">
+      <c r="AG10" s="43">
         <f>Z13</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AH10" s="45">
+      <c r="AH10" s="43">
         <f>Z80</f>
         <v>0.10043004374582931</v>
       </c>
-      <c r="AI10" s="45">
+      <c r="AI10" s="43">
         <f>Z89</f>
         <v>6.7954326388373995E-2</v>
       </c>
@@ -4205,16 +4241,16 @@
       <c r="Z12" s="1">
         <v>2440000000</v>
       </c>
-      <c r="AF12" s="42" t="s">
+      <c r="AF12" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AG12" s="43" t="s">
+      <c r="AG12" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="AH12" s="43" t="s">
+      <c r="AH12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="AI12" s="43" t="s">
+      <c r="AI12" s="41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4322,19 +4358,19 @@
         <f t="shared" si="14"/>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AF13" s="44">
+      <c r="AF13" s="42">
         <f>Z28/Z72</f>
         <v>0.19763811592235644</v>
       </c>
-      <c r="AG13" s="45">
+      <c r="AG13" s="43">
         <f>Z28/Z54</f>
         <v>0.10606575688407557</v>
       </c>
-      <c r="AH13" s="45">
+      <c r="AH13" s="43">
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
-      <c r="AI13" s="19">
+      <c r="AI13" s="72">
         <f>Z67/Z72</f>
         <v>0.8633545993393964</v>
       </c>
@@ -4498,16 +4534,16 @@
       <c r="Z15" s="1">
         <v>11132000000</v>
       </c>
-      <c r="AF15" s="42" t="s">
+      <c r="AF15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="AG15" s="43" t="s">
+      <c r="AG15" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="AH15" s="43" t="s">
+      <c r="AH15" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="AI15" s="43" t="s">
+      <c r="AI15" s="41" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4594,17 +4630,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="46">
+      <c r="AG16" s="73">
         <f>AH101/Z3</f>
-        <v>24.832776006524803</v>
-      </c>
-      <c r="AH16" s="46">
+        <v>34.822213768814414</v>
+      </c>
+      <c r="AH16" s="73">
         <f>AH101/Z28</f>
-        <v>153.3514880952381</v>
-      </c>
-      <c r="AI16" s="47">
+        <v>215.03992541208791</v>
+      </c>
+      <c r="AI16" s="74">
         <f>AH101/Z106</f>
-        <v>175.90317752100842</v>
+        <v>246.663443855042</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4766,8 +4802,17 @@
       <c r="Z18" s="1">
         <v>1544000000</v>
       </c>
-      <c r="AF18" s="42" t="s">
+      <c r="AF18" s="40" t="s">
         <v>159</v>
+      </c>
+      <c r="AG18" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH18" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI18" s="41" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4849,9 +4894,36 @@
       <c r="Z19" s="10">
         <v>6361000000</v>
       </c>
-      <c r="AF19" s="48">
+      <c r="AA19" s="56">
+        <v>19383000000</v>
+      </c>
+      <c r="AB19" s="56">
+        <v>17035000000</v>
+      </c>
+      <c r="AC19" s="56">
+        <v>19737000000</v>
+      </c>
+      <c r="AD19" s="56">
+        <v>33545000000</v>
+      </c>
+      <c r="AE19" s="56">
+        <v>39326000000</v>
+      </c>
+      <c r="AF19" s="44">
         <f>Z40-Z56-Z61</f>
         <v>1441000000</v>
+      </c>
+      <c r="AG19" s="73">
+        <f>AH101/AA3</f>
+        <v>22.141159140089101</v>
+      </c>
+      <c r="AH19" s="73">
+        <f>AB116/AA31</f>
+        <v>49.582245430809401</v>
+      </c>
+      <c r="AI19" s="73">
+        <f>AH101/AA105</f>
+        <v>54.269377987058007</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4954,6 +5026,26 @@
       <c r="Z20" s="15">
         <f t="shared" ref="Z20" si="32">(Z19/Y19)-1</f>
         <v>-0.43960884503567965</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="33">(AA19/Z19)-1</f>
+        <v>2.0471623958497092</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="34">(AB19/AA19)-1</f>
+        <v>-0.12113707888355774</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20" si="35">(AC19/AB19)-1</f>
+        <v>0.15861461696507195</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" ref="AD20" si="36">(AD19/AC19)-1</f>
+        <v>0.69959973653544094</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" ref="AE20" si="37">(AE19/AD19)-1</f>
+        <v>0.17233566850499327</v>
       </c>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
@@ -5037,6 +5129,26 @@
       <c r="Z21" s="2">
         <v>0.23580000000000001</v>
       </c>
+      <c r="AA21" s="57">
+        <f>AA19/AA3</f>
+        <v>0.4568983805954317</v>
+      </c>
+      <c r="AB21" s="57">
+        <f t="shared" ref="AB21:AE21" si="38">AB19/AB3</f>
+        <v>0.3396470940085734</v>
+      </c>
+      <c r="AC21" s="57">
+        <f t="shared" si="38"/>
+        <v>0.33039271485486627</v>
+      </c>
+      <c r="AD21" s="57">
+        <f t="shared" si="38"/>
+        <v>0.45143795335567311</v>
+      </c>
+      <c r="AE21" s="57">
+        <f t="shared" si="38"/>
+        <v>0.43603987182472365</v>
+      </c>
     </row>
     <row r="22" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -5117,6 +5229,11 @@
       <c r="Z22" s="10">
         <v>4224000000</v>
       </c>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -5197,6 +5314,11 @@
       <c r="Z23" s="2">
         <v>0.15659999999999999</v>
       </c>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
     </row>
     <row r="24" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5277,6 +5399,11 @@
       <c r="Z24" s="1">
         <v>-43000000</v>
       </c>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
     </row>
     <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5357,6 +5484,11 @@
       <c r="Z25" s="10">
         <v>4181000000</v>
       </c>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
     </row>
     <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5437,6 +5569,11 @@
       <c r="Z26" s="2">
         <v>0.155</v>
       </c>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
     </row>
     <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5517,6 +5654,11 @@
       <c r="Z27" s="1">
         <v>187000000</v>
       </c>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
     </row>
     <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -5597,6 +5739,21 @@
       <c r="Z28" s="11">
         <v>4368000000</v>
       </c>
+      <c r="AA28" s="71">
+        <v>18946000000</v>
+      </c>
+      <c r="AB28" s="71">
+        <v>24287000000</v>
+      </c>
+      <c r="AC28" s="71">
+        <v>29281000000</v>
+      </c>
+      <c r="AD28" s="71">
+        <v>34861000000</v>
+      </c>
+      <c r="AE28" s="71">
+        <v>46234000000</v>
+      </c>
     </row>
     <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -5616,88 +5773,108 @@
         <v>0.77035532385402794</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:I29" si="33">(F28/E28)-1</f>
+        <f t="shared" ref="F29:I29" si="39">(F28/E28)-1</f>
         <v>-0.48679093848206012</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.18039846253813363</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.34852658595251218</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.0151261509027862</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" ref="J29" si="34">(J28/I28)-1</f>
+        <f t="shared" ref="J29" si="40">(J28/I28)-1</f>
         <v>0.48332705412676069</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29" si="35">(K28/J28)-1</f>
+        <f t="shared" ref="K29" si="41">(K28/J28)-1</f>
         <v>0.77714923557484505</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29" si="36">(L28/K28)-1</f>
+        <f t="shared" ref="L29" si="42">(L28/K28)-1</f>
         <v>-1.0376621178594487</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" ref="M29" si="37">(M28/L28)-1</f>
+        <f t="shared" ref="M29" si="43">(M28/L28)-1</f>
         <v>1.2631403748210777</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" ref="N29" si="38">(N28/M28)-1</f>
+        <f t="shared" ref="N29" si="44">(N28/M28)-1</f>
         <v>-4.7234471295983056</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" ref="O29" si="39">(O28/N28)-1</f>
+        <f t="shared" ref="O29" si="45">(O28/N28)-1</f>
         <v>1.2954737582264779</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="40">(P28/O28)-1</f>
+        <f t="shared" ref="P29" si="46">(P28/O28)-1</f>
         <v>-3.1929649451892139E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="41">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29" si="47">(Q28/P28)-1</f>
         <v>-0.2178456134362956</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="42">(R28/Q28)-1</f>
+        <f t="shared" ref="R29" si="48">(R28/Q28)-1</f>
         <v>0.43318484511011612</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="43">(S28/R28)-1</f>
+        <f t="shared" ref="S29" si="49">(S28/R28)-1</f>
         <v>-2.6304062722510957E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29" si="44">(T28/S28)-1</f>
+        <f t="shared" ref="T29" si="50">(T28/S28)-1</f>
         <v>1.7133550488599347</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="45">(U28/T28)-1</f>
+        <f t="shared" ref="U29" si="51">(U28/T28)-1</f>
         <v>0.82893157262905159</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="46">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="52">(V28/U28)-1</f>
         <v>0.35904168034131922</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="47">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="53">(W28/V28)-1</f>
         <v>-0.3248007727602028</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="48">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="54">(X28/W28)-1</f>
         <v>0.54935622317596566</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="49">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="55">(Y28/X28)-1</f>
         <v>1.2511542012927053</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="50">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="56">(Z28/Y28)-1</f>
         <v>-0.55209187858900743</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="57">(AA28/Z28)-1</f>
+        <v>3.3374542124542126</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="58">(AB28/AA28)-1</f>
+        <v>0.28190647102290711</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="59">(AC28/AB28)-1</f>
+        <v>0.20562440811957017</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" ref="AD29" si="60">(AD28/AC28)-1</f>
+        <v>0.19056726204706131</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" ref="AE29" si="61">(AE28/AD28)-1</f>
+        <v>0.32623849000315541</v>
       </c>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -5781,6 +5958,26 @@
       <c r="Z30" s="2">
         <v>0.16189999999999999</v>
       </c>
+      <c r="AA30" s="57">
+        <f>AA28/AA3</f>
+        <v>0.44659736463710725</v>
+      </c>
+      <c r="AB30" s="57">
+        <f t="shared" ref="AB30:AE30" si="62">AB28/AB3</f>
+        <v>0.48423885953544016</v>
+      </c>
+      <c r="AC30" s="57">
+        <f t="shared" si="62"/>
+        <v>0.49015701898289193</v>
+      </c>
+      <c r="AD30" s="57">
+        <f t="shared" si="62"/>
+        <v>0.46914826328609688</v>
+      </c>
+      <c r="AE30" s="57">
+        <f t="shared" si="62"/>
+        <v>0.51263457849626892</v>
+      </c>
     </row>
     <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -5861,6 +6058,21 @@
       <c r="Z31" s="12">
         <v>1.76</v>
       </c>
+      <c r="AA31" s="58">
+        <v>7.66</v>
+      </c>
+      <c r="AB31" s="58">
+        <v>9.82</v>
+      </c>
+      <c r="AC31" s="58">
+        <v>11.84</v>
+      </c>
+      <c r="AD31" s="58">
+        <v>14.1</v>
+      </c>
+      <c r="AE31" s="58">
+        <v>18.690000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -6107,100 +6319,100 @@
         <v>105</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <f>(C34-B34)/B34</f>
         <v>0.31147483922291586</v>
       </c>
-      <c r="D35" s="20">
-        <f t="shared" ref="D35:I35" si="51">(D34-C34)/C34</f>
+      <c r="D35" s="19">
+        <f t="shared" ref="D35:I35" si="63">(D34-C34)/C34</f>
         <v>0.10795666072548654</v>
       </c>
-      <c r="E35" s="20">
-        <f t="shared" si="51"/>
+      <c r="E35" s="19">
+        <f t="shared" si="63"/>
         <v>7.3951310574355153E-2</v>
       </c>
-      <c r="F35" s="20">
-        <f t="shared" si="51"/>
+      <c r="F35" s="19">
+        <f t="shared" si="63"/>
         <v>-1.567157973310709E-2</v>
       </c>
-      <c r="G35" s="20">
-        <f t="shared" si="51"/>
+      <c r="G35" s="19">
+        <f t="shared" si="63"/>
         <v>2.5618641628257301E-2</v>
       </c>
-      <c r="H35" s="20">
-        <f t="shared" si="51"/>
+      <c r="H35" s="19">
+        <f t="shared" si="63"/>
         <v>2.229787947647504E-2</v>
       </c>
-      <c r="I35" s="20">
-        <f t="shared" si="51"/>
+      <c r="I35" s="19">
+        <f t="shared" si="63"/>
         <v>3.6209065804180866E-2</v>
       </c>
-      <c r="J35" s="20">
-        <f t="shared" ref="J35" si="52">(J34-I34)/I34</f>
+      <c r="J35" s="19">
+        <f t="shared" ref="J35" si="64">(J34-I34)/I34</f>
         <v>6.996955446927651E-2</v>
       </c>
-      <c r="K35" s="20">
-        <f t="shared" ref="K35" si="53">(K34-J34)/J34</f>
+      <c r="K35" s="19">
+        <f t="shared" ref="K35" si="65">(K34-J34)/J34</f>
         <v>3.3680993862574046E-2</v>
       </c>
-      <c r="L35" s="20">
-        <f t="shared" ref="L35" si="54">(L34-K34)/K34</f>
+      <c r="L35" s="19">
+        <f t="shared" ref="L35" si="66">(L34-K34)/K34</f>
         <v>-9.6592894391592993E-2</v>
       </c>
-      <c r="M35" s="20">
-        <f t="shared" ref="M35" si="55">(M34-L34)/L34</f>
+      <c r="M35" s="19">
+        <f t="shared" ref="M35" si="67">(M34-L34)/L34</f>
         <v>2.6417283617270484E-3</v>
       </c>
-      <c r="N35" s="20">
-        <f t="shared" ref="N35" si="56">(N34-M34)/M34</f>
+      <c r="N35" s="19">
+        <f t="shared" ref="N35" si="68">(N34-M34)/M34</f>
         <v>7.1164210825111818E-2</v>
       </c>
-      <c r="O35" s="20">
-        <f t="shared" ref="O35" si="57">(O34-N34)/N34</f>
+      <c r="O35" s="19">
+        <f t="shared" ref="O35" si="69">(O34-N34)/N34</f>
         <v>4.7032023972114069E-2</v>
       </c>
-      <c r="P35" s="20">
-        <f t="shared" ref="P35" si="58">(P34-O34)/O34</f>
+      <c r="P35" s="19">
+        <f t="shared" ref="P35" si="70">(P34-O34)/O34</f>
         <v>1.3929922076152188E-2</v>
       </c>
-      <c r="Q35" s="20">
-        <f t="shared" ref="Q35" si="59">(Q34-P34)/P34</f>
+      <c r="Q35" s="19">
+        <f t="shared" ref="Q35" si="71">(Q34-P34)/P34</f>
         <v>-4.8707351065753322E-2</v>
       </c>
-      <c r="R35" s="20">
-        <f t="shared" ref="R35" si="60">(R34-Q34)/Q34</f>
+      <c r="R35" s="19">
+        <f t="shared" ref="R35" si="72">(R34-Q34)/Q34</f>
         <v>-5.2898403241623031E-2</v>
       </c>
-      <c r="S35" s="20">
-        <f t="shared" ref="S35" si="61">(S34-R34)/R34</f>
+      <c r="S35" s="19">
+        <f t="shared" ref="S35" si="73">(S34-R34)/R34</f>
         <v>1.0535139627895743E-2</v>
       </c>
-      <c r="T35" s="20">
-        <f t="shared" ref="T35" si="62">(T34-S34)/S34</f>
+      <c r="T35" s="19">
+        <f t="shared" ref="T35" si="74">(T34-S34)/S34</f>
         <v>0.14059753954305801</v>
       </c>
-      <c r="U35" s="20">
-        <f t="shared" ref="U35" si="63">(U34-T34)/T34</f>
+      <c r="U35" s="19">
+        <f t="shared" ref="U35" si="75">(U34-T34)/T34</f>
         <v>-2.6194144838212634E-2</v>
       </c>
-      <c r="V35" s="20">
-        <f t="shared" ref="V35" si="64">(V34-U34)/U34</f>
+      <c r="V35" s="19">
+        <f t="shared" ref="V35" si="76">(V34-U34)/U34</f>
         <v>-1.1075949367088608E-2</v>
       </c>
-      <c r="W35" s="20">
-        <f t="shared" ref="W35" si="65">(W34-V34)/V34</f>
+      <c r="W35" s="19">
+        <f t="shared" ref="W35" si="77">(W34-V34)/V34</f>
         <v>-1.12E-2</v>
       </c>
-      <c r="X35" s="20">
-        <f t="shared" ref="X35" si="66">(X34-W34)/W34</f>
+      <c r="X35" s="19">
+        <f t="shared" ref="X35" si="78">(X34-W34)/W34</f>
         <v>1.6181229773462782E-2</v>
       </c>
-      <c r="Y35" s="20">
-        <f t="shared" ref="Y35" si="67">(Y34-X34)/X34</f>
+      <c r="Y35" s="19">
+        <f t="shared" ref="Y35" si="79">(Y34-X34)/X34</f>
         <v>9.1560509554140124E-3</v>
       </c>
-      <c r="Z35" s="20">
-        <f t="shared" ref="Z35" si="68">(Z34-Y34)/Y34</f>
+      <c r="Z35" s="19">
+        <f t="shared" ref="Z35" si="80">(Z34-Y34)/Y34</f>
         <v>-1.1045364891518738E-2</v>
       </c>
     </row>
@@ -6440,8 +6652,8 @@
       <c r="Y38" s="1">
         <v>1990000000</v>
       </c>
-      <c r="Z38" s="1" t="s">
-        <v>92</v>
+      <c r="Z38" s="1">
+        <v>3389000000</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6520,8 +6732,8 @@
       <c r="Y39" s="1">
         <v>19218000000</v>
       </c>
-      <c r="Z39" s="1" t="s">
-        <v>92</v>
+      <c r="Z39" s="1">
+        <v>9907000000</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9729,103 +9941,103 @@
         <v>107</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:Z80" si="69">B79/B3</f>
+        <f t="shared" ref="B80:Z80" si="81">B79/B3</f>
         <v>0</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>7.2998651713766502E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>2.8321831372877724E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>3.4106149932590119E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>3.1929187677373669E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>3.2999916226046339E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>3.3715852608999626E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>4.0718562874251497E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>3.5745296671490595E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>4.0251183858348777E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>4.7541823147832021E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>7.7303535446052396E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>8.3778110944527737E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>7.4459389165490081E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.10043004374582931</v>
       </c>
     </row>
@@ -10068,10 +10280,10 @@
       <c r="Z83" s="1">
         <v>-2554000000</v>
       </c>
-      <c r="AG83" s="62" t="s">
+      <c r="AG83" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="AH83" s="63"/>
+      <c r="AH83" s="65"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10152,10 +10364,10 @@
       <c r="Z84" s="1">
         <v>-551000000</v>
       </c>
-      <c r="AG84" s="64" t="s">
+      <c r="AG84" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="AH84" s="65"/>
+      <c r="AH84" s="67"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10236,10 +10448,10 @@
       <c r="Z85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG85" s="50" t="s">
+      <c r="AG85" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="AH85" s="51">
+      <c r="AH85" s="47">
         <f>Z17</f>
         <v>262000000</v>
       </c>
@@ -10323,10 +10535,10 @@
       <c r="Z86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG86" s="50" t="s">
+      <c r="AG86" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="AH86" s="51">
+      <c r="AH86" s="47">
         <f>Z56</f>
         <v>1250000000</v>
       </c>
@@ -10410,10 +10622,10 @@
       <c r="Z87" s="10">
         <v>5641000000</v>
       </c>
-      <c r="AG87" s="50" t="s">
+      <c r="AG87" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="AH87" s="51">
+      <c r="AH87" s="47">
         <f>Z61</f>
         <v>10605000000</v>
       </c>
@@ -10497,10 +10709,10 @@
       <c r="Z88" s="1">
         <v>-1833000000</v>
       </c>
-      <c r="AG88" s="52" t="s">
+      <c r="AG88" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AH88" s="53">
+      <c r="AH88" s="49">
         <f>AH85/(AH86+AH87)</f>
         <v>2.210037958667229E-2</v>
       </c>
@@ -10510,109 +10722,109 @@
         <v>108</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:Z89" si="70">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Z89" si="82">(-1*B88)/B3</f>
         <v>5.2179656538969617E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>3.0974632843791722E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>4.9409463811637723E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.11761840886006349</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>3.3058262418386053E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>6.999882058975998E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>3.3462634693062251E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>3.3506097394143251E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>4.7333606841305526E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>4.581537680643067E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.11903263754799832</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>2.332850836253117E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>2.7626718414905389E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>3.4701708133959321E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>4.2827614581607831E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>6.1785954158698857E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>2.6141368580672848E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>1.716566866267465E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>2.5470332850940667E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>6.1045913115091617E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>5.1212017753499491E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>4.478842278805642E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>6.7646176911544231E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>3.6263654603552055E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>6.7954326388373995E-2</v>
       </c>
-      <c r="AG89" s="50" t="s">
+      <c r="AG89" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AH89" s="51">
+      <c r="AH89" s="47">
         <f>Z27</f>
         <v>187000000</v>
       </c>
@@ -10696,10 +10908,10 @@
       <c r="Z90" s="1">
         <v>-49000000</v>
       </c>
-      <c r="AG90" s="50" t="s">
+      <c r="AG90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AH90" s="51">
+      <c r="AH90" s="47">
         <f>Z25</f>
         <v>4181000000</v>
       </c>
@@ -10783,10 +10995,10 @@
       <c r="Z91" s="1">
         <v>-11897000000</v>
       </c>
-      <c r="AG91" s="52" t="s">
+      <c r="AG91" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AH91" s="53">
+      <c r="AH91" s="49">
         <f>AH89/AH90</f>
         <v>4.4726142071274816E-2</v>
       </c>
@@ -10870,10 +11082,10 @@
       <c r="Z92" s="1">
         <v>21231000000</v>
       </c>
-      <c r="AG92" s="54" t="s">
+      <c r="AG92" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AH92" s="55">
+      <c r="AH92" s="51">
         <f>AH88*(1-AH91)</f>
         <v>2.1111914869449685E-2</v>
       </c>
@@ -10957,10 +11169,10 @@
       <c r="Z93" s="1">
         <v>-77000000</v>
       </c>
-      <c r="AG93" s="66" t="s">
+      <c r="AG93" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="AH93" s="67"/>
+      <c r="AH93" s="69"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11041,10 +11253,10 @@
       <c r="Z94" s="10">
         <v>7375000000</v>
       </c>
-      <c r="AG94" s="50" t="s">
+      <c r="AG94" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="AH94" s="56">
+      <c r="AH94" s="52">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11127,12 +11339,12 @@
       <c r="Z95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG95" s="50" t="s">
+      <c r="AG95" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AH95" s="57" cm="1">
+      <c r="AH95" s="53" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.7707999999999999</v>
+        <v>1.7505999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11214,10 +11426,10 @@
       <c r="Z96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG96" s="50" t="s">
+      <c r="AG96" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AH96" s="56">
+      <c r="AH96" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11300,12 +11512,12 @@
       <c r="Z97" s="1">
         <v>-10039000000</v>
       </c>
-      <c r="AG97" s="54" t="s">
+      <c r="AG97" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AH97" s="55">
+      <c r="AH97" s="51">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11718294</v>
+        <v>0.11631333000000001</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11387,10 +11599,10 @@
       <c r="Z98" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AG98" s="66" t="s">
+      <c r="AG98" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="AH98" s="67"/>
+      <c r="AH98" s="69"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11471,10 +11683,10 @@
       <c r="Z99" s="1">
         <v>-1180000000</v>
       </c>
-      <c r="AG99" s="50" t="s">
+      <c r="AG99" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AH99" s="51">
+      <c r="AH99" s="47">
         <f>AH86+AH87</f>
         <v>11855000000</v>
       </c>
@@ -11558,12 +11770,12 @@
       <c r="Z100" s="10">
         <v>-11617000000</v>
       </c>
-      <c r="AG100" s="52" t="s">
+      <c r="AG100" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="AH100" s="53">
+      <c r="AH100" s="49">
         <f>AH99/AH103</f>
-        <v>1.739049306998753E-2</v>
+        <v>1.2463867476855298E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11645,12 +11857,12 @@
       <c r="Z101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG101" s="50" t="s">
+      <c r="AG101" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="AH101" s="36" cm="1">
+      <c r="AH101" s="34" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>669839300000</v>
+        <v>939294394200</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11732,12 +11944,12 @@
       <c r="Z102" s="10">
         <v>1399000000</v>
       </c>
-      <c r="AG102" s="52" t="s">
+      <c r="AG102" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AH102" s="53">
+      <c r="AH102" s="49">
         <f>AH101/AH103</f>
-        <v>0.98260950693001248</v>
+        <v>0.98753613252314465</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11819,12 +12031,12 @@
       <c r="Z103" s="1">
         <v>1990000000</v>
       </c>
-      <c r="AG103" s="54" t="s">
+      <c r="AG103" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="AH103" s="58">
+      <c r="AH103" s="54">
         <f>AH99+AH101</f>
-        <v>681694300000</v>
+        <v>951149394200</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11906,10 +12118,10 @@
       <c r="Z104" s="11">
         <v>3389000000</v>
       </c>
-      <c r="AG104" s="64" t="s">
+      <c r="AG104" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="AH104" s="65"/>
+      <c r="AH104" s="67"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11937,93 +12149,103 @@
         <v>-1.3859461440549952</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:I105" si="71">(H106/G106)-1</f>
+        <f t="shared" ref="H105:I105" si="83">(H106/G106)-1</f>
         <v>-1.8333418884582811</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>4.6485009008454083</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" ref="J105" si="72">(J106/I106)-1</f>
+        <f t="shared" ref="J105" si="84">(J106/I106)-1</f>
         <v>0.20459477437787621</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" ref="K105" si="73">(K106/J106)-1</f>
+        <f t="shared" ref="K105" si="85">(K106/J106)-1</f>
         <v>1.449787826323115</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" ref="L105" si="74">(L106/K106)-1</f>
+        <f t="shared" ref="L105" si="86">(L106/K106)-1</f>
         <v>-1.1462514238519803</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" ref="M105" si="75">(M106/L106)-1</f>
+        <f t="shared" ref="M105" si="87">(M106/L106)-1</f>
         <v>-3.5911565914976946</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" ref="N105" si="76">(N106/M106)-1</f>
+        <f t="shared" ref="N105" si="88">(N106/M106)-1</f>
         <v>0.40882142143215838</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" ref="O105" si="77">(O106/N106)-1</f>
+        <f t="shared" ref="O105" si="89">(O106/N106)-1</f>
         <v>0.33312280349606427</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" ref="P105" si="78">(P106/O106)-1</f>
+        <f t="shared" ref="P105" si="90">(P106/O106)-1</f>
         <v>-0.16816519798915142</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="79">(Q106/P106)-1</f>
+        <f t="shared" ref="Q105" si="91">(Q106/P106)-1</f>
         <v>-9.5032791719915188E-2</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" ref="R105" si="80">(R106/Q106)-1</f>
+        <f t="shared" ref="R105" si="92">(R106/Q106)-1</f>
         <v>0.35056728050210362</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" ref="S105" si="81">(S106/R106)-1</f>
+        <f t="shared" ref="S105" si="93">(S106/R106)-1</f>
         <v>0.39031630015001118</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" ref="T105" si="82">(T106/S106)-1</f>
+        <f t="shared" ref="T105" si="94">(T106/S106)-1</f>
         <v>0.3737373737373737</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" ref="U105" si="83">(U106/T106)-1</f>
+        <f t="shared" ref="U105" si="95">(U106/T106)-1</f>
         <v>0.94451871657754016</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" ref="V105" si="84">(V106/U106)-1</f>
+        <f t="shared" ref="V105" si="96">(V106/U106)-1</f>
         <v>8.0440013750429751E-2</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" ref="W105" si="85">(W106/V106)-1</f>
+        <f t="shared" ref="W105" si="97">(W106/V106)-1</f>
         <v>0.35921094495704731</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" ref="X105" si="86">(X106/W106)-1</f>
+        <f t="shared" ref="X105" si="98">(X106/W106)-1</f>
         <v>9.878277153558046E-2</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="87">(Y106/X106)-1</f>
+        <f t="shared" ref="Y105" si="99">(Y106/X106)-1</f>
         <v>0.73242437153813378</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" ref="Z105" si="88">(Z106/Y106)-1</f>
+        <f t="shared" ref="Z105" si="100">(Z106/Y106)-1</f>
         <v>-0.53172651254303982</v>
       </c>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
+      <c r="AA105" s="61">
+        <v>17308000000</v>
+      </c>
+      <c r="AB105" s="59">
+        <v>23974000000</v>
+      </c>
+      <c r="AC105" s="59">
+        <v>29231000000</v>
+      </c>
+      <c r="AD105" s="59">
+        <v>37592000000</v>
+      </c>
+      <c r="AE105" s="59">
+        <v>49629000000</v>
+      </c>
       <c r="AF105" s="15"/>
-      <c r="AG105" s="23" t="s">
+      <c r="AG105" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="AH105" s="24">
+      <c r="AH105" s="23">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11551221750324056</v>
+        <v>0.11512675217820374</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12105,35 +12327,35 @@
       <c r="Z106" s="1">
         <v>3808000000</v>
       </c>
-      <c r="AA106" s="25">
+      <c r="AA106" s="24">
         <f>Z106*(1+$AH$106)</f>
-        <v>4680846685.5156059</v>
-      </c>
-      <c r="AB106" s="25">
-        <f t="shared" ref="AB106:AE106" si="89">AA106*(1+$AH$106)</f>
-        <v>5753761999.291605</v>
-      </c>
-      <c r="AC106" s="25">
-        <f t="shared" si="89"/>
-        <v>7072604459.986805</v>
-      </c>
-      <c r="AD106" s="25">
-        <f t="shared" si="89"/>
-        <v>8693743998.0283947</v>
-      </c>
-      <c r="AE106" s="25">
-        <f t="shared" si="89"/>
-        <v>10686471317.723845</v>
-      </c>
-      <c r="AF106" s="26" t="s">
+        <v>4877043106.7788668</v>
+      </c>
+      <c r="AB106" s="24">
+        <f t="shared" ref="AB106:AE106" si="101">AA106*(1+$AH$106)</f>
+        <v>6246205216.7487564</v>
+      </c>
+      <c r="AC106" s="24">
+        <f t="shared" si="101"/>
+        <v>7999740571.3946228</v>
+      </c>
+      <c r="AD106" s="24">
+        <f t="shared" si="101"/>
+        <v>10245556620.20467</v>
+      </c>
+      <c r="AE106" s="24">
+        <f t="shared" si="101"/>
+        <v>13121854330.273575</v>
+      </c>
+      <c r="AF106" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AG106" s="27" t="s">
+      <c r="AG106" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="AH106" s="28">
+      <c r="AH106" s="27">
         <f>(SUM(AA4:AE4)/5)</f>
-        <v>0.22921394052405616</v>
+        <v>0.28073610997344189</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12163,139 +12385,139 @@
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
-      <c r="AD107" s="26"/>
-      <c r="AE107" s="29">
-        <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>121018282424.41161</v>
-      </c>
-      <c r="AF107" s="30" t="s">
+      <c r="AA107" s="25"/>
+      <c r="AB107" s="25"/>
+      <c r="AC107" s="25"/>
+      <c r="AD107" s="25"/>
+      <c r="AE107" s="60">
+        <f>AE105*(1+AH107)/(AH108-AH107)</f>
+        <v>564424255513.14087</v>
+      </c>
+      <c r="AF107" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AG107" s="31" t="s">
+      <c r="AG107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AH107" s="32">
+      <c r="AH107" s="30">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="29">
-        <f t="shared" ref="AA108:AC108" si="90">AA107+AA106</f>
-        <v>4680846685.5156059</v>
-      </c>
-      <c r="AB108" s="29">
-        <f t="shared" si="90"/>
-        <v>5753761999.291605</v>
-      </c>
-      <c r="AC108" s="29">
-        <f t="shared" si="90"/>
-        <v>7072604459.986805</v>
-      </c>
-      <c r="AD108" s="29">
-        <f>AD107+AD106</f>
-        <v>8693743998.0283947</v>
-      </c>
-      <c r="AE108" s="29">
-        <f>AE107+AE106</f>
-        <v>131704753742.13545</v>
-      </c>
-      <c r="AF108" s="30" t="s">
+      <c r="AA108" s="60">
+        <f>AA107+AA105</f>
+        <v>17308000000</v>
+      </c>
+      <c r="AB108" s="60">
+        <f>AB107+AB105</f>
+        <v>23974000000</v>
+      </c>
+      <c r="AC108" s="60">
+        <f>AC107+AC105</f>
+        <v>29231000000</v>
+      </c>
+      <c r="AD108" s="60">
+        <f>AD107+AD105</f>
+        <v>37592000000</v>
+      </c>
+      <c r="AE108" s="60">
+        <f>AE107+AE105</f>
+        <v>614053255513.14087</v>
+      </c>
+      <c r="AF108" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="AG108" s="33" t="s">
+      <c r="AG108" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AH108" s="34">
+      <c r="AH108" s="32">
         <f>AH105</f>
-        <v>0.11551221750324056</v>
+        <v>0.11512675217820374</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="60" t="s">
+      <c r="AA109" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="AB109" s="61"/>
+      <c r="AB109" s="63"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="35" t="s">
+      <c r="AA110" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="AB110" s="36">
+      <c r="AB110" s="34">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>95777843445.686966</v>
+        <v>436301784726.67999</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="35" t="s">
+      <c r="AA111" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="AB111" s="36">
+      <c r="AB111" s="34">
         <f>Z40</f>
         <v>13296000000</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="35" t="s">
+      <c r="AA112" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AB112" s="36">
+      <c r="AB112" s="34">
         <f>AH99</f>
         <v>11855000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="35" t="s">
+      <c r="AA113" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="AB113" s="36">
+      <c r="AB113" s="34">
         <f>AB110+AB111-AB112</f>
-        <v>97218843445.686966</v>
+        <v>437742784726.67999</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="35" t="s">
+      <c r="AA114" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="AB114" s="49">
+      <c r="AB114" s="45">
         <f>Z34*(1+(5*AF16))</f>
         <v>2486984027.9409657</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="37" t="s">
+      <c r="AA115" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="AB115" s="38">
+      <c r="AB115" s="36">
         <f>AB113/AB114</f>
-        <v>39.091060639491438</v>
+        <v>176.01350865493811</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="35" t="s">
+      <c r="AA116" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AB116" s="59" cm="1">
+      <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>271.19</v>
+        <v>379.8</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="39" t="s">
+      <c r="AA117" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AB117" s="40">
+      <c r="AB117" s="38">
         <f>AB115/AB116-1</f>
-        <v>-0.85585360581329906</v>
+        <v>-0.5365626417721483</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="39" t="s">
+      <c r="AA118" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="AB118" s="41" t="str">
+      <c r="AB118" s="39" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12362,8 +12584,9 @@
     <hyperlink ref="Z36" r:id="rId50" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA1" r:id="rId52" display="https://finbox.com/NASDAQGS:NVDA/explorer/revenue_proj" xr:uid="{1F501A9D-2106-9940-B862-A3E596603C7B}"/>
+    <hyperlink ref="AA105" r:id="rId53" display="https://finbox.com/NASDAQGS:NVDA/explorer/fcf_unlev_proj/" xr:uid="{91DD2FAE-E83F-474B-A648-D30634E7F23A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId53"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FA337-03D5-0C45-933D-5209336BB9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C2F2A5-E393-AE49-BC88-FCD7A80B321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Forward P/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forward P/E</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -921,7 +924,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1036,6 +1039,20 @@
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,17 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2449,13 +2455,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>394.8</v>
+    <v>419.38</v>
     <v>108.13</v>
-    <v>1.7505999999999999</v>
-    <v>74.42</v>
-    <v>0.243696</v>
-    <v>-1.91</v>
-    <v>-5.0290000000000005E-3</v>
+    <v>1.7630999999999999</v>
+    <v>11.65</v>
+    <v>2.9912999999999999E-2</v>
+    <v>-3.11</v>
+    <v>-7.7529999999999995E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2463,25 +2469,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>394.8</v>
+    <v>419.38</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45071.999968796095</v>
+    <v>45076.999987522657</v>
     <v>0</v>
-    <v>366.35</v>
-    <v>939294394200</v>
+    <v>399.49</v>
+    <v>990741700000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>385.23</v>
-    <v>197.38380000000001</v>
-    <v>305.38</v>
-    <v>379.8</v>
-    <v>377.89</v>
-    <v>2473129000</v>
+    <v>405.95</v>
+    <v>202.4042</v>
+    <v>389.46</v>
+    <v>401.11</v>
+    <v>398</v>
+    <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>154391067</v>
-    <v>40319476</v>
+    <v>92340110</v>
+    <v>46261442</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2646,9 +2652,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3068,11 +3074,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Y89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
+      <selection pane="bottomRight" activeCell="Z117" sqref="Z117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4370,7 +4376,7 @@
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
-      <c r="AI13" s="72">
+      <c r="AI13" s="64">
         <f>Z67/Z72</f>
         <v>0.8633545993393964</v>
       </c>
@@ -4630,17 +4636,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="73">
+      <c r="AG16" s="65">
         <f>AH101/Z3</f>
-        <v>34.822213768814414</v>
-      </c>
-      <c r="AH16" s="73">
+        <v>36.729506191147031</v>
+      </c>
+      <c r="AH16" s="65">
         <f>AH101/Z28</f>
-        <v>215.03992541208791</v>
-      </c>
-      <c r="AI16" s="74">
+        <v>226.81815476190476</v>
+      </c>
+      <c r="AI16" s="66">
         <f>AH101/Z106</f>
-        <v>246.663443855042</v>
+        <v>260.17376575630254</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4809,7 +4815,7 @@
         <v>161</v>
       </c>
       <c r="AH18" s="41" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AI18" s="41" t="s">
         <v>160</v>
@@ -4913,17 +4919,17 @@
         <f>Z40-Z56-Z61</f>
         <v>1441000000</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AG19" s="65">
         <f>AH101/AA3</f>
-        <v>22.141159140089101</v>
-      </c>
-      <c r="AH19" s="73">
+        <v>23.353881149376516</v>
+      </c>
+      <c r="AH19" s="65">
         <f>AB116/AA31</f>
-        <v>49.582245430809401</v>
-      </c>
-      <c r="AI19" s="73">
+        <v>52.364229765013057</v>
+      </c>
+      <c r="AI19" s="67">
         <f>AH101/AA105</f>
-        <v>54.269377987058007</v>
+        <v>57.241836145135196</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5229,11 +5235,11 @@
       <c r="Z22" s="10">
         <v>4224000000</v>
       </c>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="70"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -5314,11 +5320,11 @@
       <c r="Z23" s="2">
         <v>0.15659999999999999</v>
       </c>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
     </row>
     <row r="24" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5399,11 +5405,11 @@
       <c r="Z24" s="1">
         <v>-43000000</v>
       </c>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="70"/>
-      <c r="AE24" s="70"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
     </row>
     <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5484,11 +5490,11 @@
       <c r="Z25" s="10">
         <v>4181000000</v>
       </c>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="70"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
     </row>
     <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5569,11 +5575,11 @@
       <c r="Z26" s="2">
         <v>0.155</v>
       </c>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="70"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
     </row>
     <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5654,11 +5660,11 @@
       <c r="Z27" s="1">
         <v>187000000</v>
       </c>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="70"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
     </row>
     <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -5739,19 +5745,19 @@
       <c r="Z28" s="11">
         <v>4368000000</v>
       </c>
-      <c r="AA28" s="71">
+      <c r="AA28" s="63">
         <v>18946000000</v>
       </c>
-      <c r="AB28" s="71">
+      <c r="AB28" s="63">
         <v>24287000000</v>
       </c>
-      <c r="AC28" s="71">
+      <c r="AC28" s="63">
         <v>29281000000</v>
       </c>
-      <c r="AD28" s="71">
+      <c r="AD28" s="63">
         <v>34861000000</v>
       </c>
-      <c r="AE28" s="71">
+      <c r="AE28" s="63">
         <v>46234000000</v>
       </c>
     </row>
@@ -10280,10 +10286,10 @@
       <c r="Z83" s="1">
         <v>-2554000000</v>
       </c>
-      <c r="AG83" s="64" t="s">
+      <c r="AG83" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="AH83" s="65"/>
+      <c r="AH83" s="71"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10364,10 +10370,10 @@
       <c r="Z84" s="1">
         <v>-551000000</v>
       </c>
-      <c r="AG84" s="66" t="s">
+      <c r="AG84" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="AH84" s="67"/>
+      <c r="AH84" s="73"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11169,10 +11175,10 @@
       <c r="Z93" s="1">
         <v>-77000000</v>
       </c>
-      <c r="AG93" s="68" t="s">
+      <c r="AG93" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="AH93" s="69"/>
+      <c r="AH93" s="75"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11344,7 +11350,7 @@
       </c>
       <c r="AH95" s="53" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.7505999999999999</v>
+        <v>1.7630999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11517,7 +11523,7 @@
       </c>
       <c r="AH97" s="51">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11631333000000001</v>
+        <v>0.11685145500000001</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11599,10 +11605,10 @@
       <c r="Z98" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AG98" s="68" t="s">
+      <c r="AG98" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="AH98" s="69"/>
+      <c r="AH98" s="75"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11775,7 +11781,7 @@
       </c>
       <c r="AH100" s="49">
         <f>AH99/AH103</f>
-        <v>1.2463867476855298E-2</v>
+        <v>1.1824295850963801E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11862,7 +11868,7 @@
       </c>
       <c r="AH101" s="34" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>939294394200</v>
+        <v>990741700000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11949,7 +11955,7 @@
       </c>
       <c r="AH102" s="49">
         <f>AH101/AH103</f>
-        <v>0.98753613252314465</v>
+        <v>0.98817570414903622</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12036,7 +12042,7 @@
       </c>
       <c r="AH103" s="54">
         <f>AH99+AH101</f>
-        <v>951149394200</v>
+        <v>1002596700000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12118,10 +12124,10 @@
       <c r="Z104" s="11">
         <v>3389000000</v>
       </c>
-      <c r="AG104" s="66" t="s">
+      <c r="AG104" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="AH104" s="67"/>
+      <c r="AH104" s="73"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12245,7 +12251,7 @@
       </c>
       <c r="AH105" s="23">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11512675217820374</v>
+        <v>0.11571940235286116</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12391,7 +12397,7 @@
       <c r="AD107" s="25"/>
       <c r="AE107" s="60">
         <f>AE105*(1+AH107)/(AH108-AH107)</f>
-        <v>564424255513.14087</v>
+        <v>560736994299.6062</v>
       </c>
       <c r="AF107" s="28" t="s">
         <v>144</v>
@@ -12422,7 +12428,7 @@
       </c>
       <c r="AE108" s="60">
         <f>AE107+AE105</f>
-        <v>614053255513.14087</v>
+        <v>610365994299.6062</v>
       </c>
       <c r="AF108" s="28" t="s">
         <v>139</v>
@@ -12432,14 +12438,14 @@
       </c>
       <c r="AH108" s="32">
         <f>AH105</f>
-        <v>0.11512675217820374</v>
+        <v>0.11571940235286116</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="62" t="s">
+      <c r="AA109" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AB109" s="63"/>
+      <c r="AB109" s="69"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AA110" s="33" t="s">
@@ -12447,7 +12453,7 @@
       </c>
       <c r="AB110" s="34">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>436301784726.67999</v>
+        <v>433110387533.81067</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12474,7 +12480,7 @@
       </c>
       <c r="AB113" s="34">
         <f>AB110+AB111-AB112</f>
-        <v>437742784726.67999</v>
+        <v>434551387533.81067</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12492,7 +12498,7 @@
       </c>
       <c r="AB115" s="36">
         <f>AB113/AB114</f>
-        <v>176.01350865493811</v>
+        <v>174.73026873179651</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12501,7 +12507,7 @@
       </c>
       <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>379.8</v>
+        <v>401.11</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12510,7 +12516,7 @@
       </c>
       <c r="AB117" s="38">
         <f>AB115/AB116-1</f>
-        <v>-0.5365626417721483</v>
+        <v>-0.56438316488794471</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C2F2A5-E393-AE49-BC88-FCD7A80B321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66456BF-9116-0841-86CB-21DFED6D4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -399,9 +399,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -559,6 +553,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Forward P/E</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -572,7 +581,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -686,20 +695,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -919,10 +914,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1038,8 +1032,7 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1052,6 +1045,9 @@
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1078,8 +1074,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1166,10 +1161,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10293357933579336"/>
-          <c:y val="0.14329953305255447"/>
-          <c:w val="0.83433579335793362"/>
-          <c:h val="0.67684512909723493"/>
+          <c:x val="8.8160170740727073E-2"/>
+          <c:y val="0.1331083805607102"/>
+          <c:w val="0.86925468758146107"/>
+          <c:h val="0.69722734339736192"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1455,11 +1450,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1499,7 +1494,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$Z$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$Z$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1686,7 +1681,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1716,8 +1711,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29990627854800306"/>
-          <c:y val="0.90578684989217118"/>
+          <c:x val="0.29050500047111905"/>
+          <c:y val="0.91088239129344506"/>
           <c:w val="0.41872908794449942"/>
           <c:h val="5.9937146014642909E-2"/>
         </c:manualLayout>
@@ -2299,15 +2294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>1481667</xdr:colOff>
+      <xdr:colOff>1449917</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2333,6 +2328,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2455,13 +2510,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>419.38</v>
+    <v>439.9</v>
     <v>108.13</v>
-    <v>1.7630999999999999</v>
-    <v>11.65</v>
-    <v>2.9912999999999999E-2</v>
-    <v>-3.11</v>
-    <v>-7.7529999999999995E-3</v>
+    <v>1.7544999999999999</v>
+    <v>-0.2</v>
+    <v>-4.6460000000000002E-4</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2469,25 +2522,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>419.38</v>
+    <v>434.255</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45076.999987522657</v>
+    <v>45099.999970289064</v>
     <v>0</v>
-    <v>399.49</v>
-    <v>990741700000</v>
+    <v>422.34</v>
+    <v>1063212000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>405.95</v>
-    <v>202.4042</v>
-    <v>389.46</v>
-    <v>401.11</v>
-    <v>398</v>
+    <v>422.53</v>
+    <v>223.60290000000001</v>
+    <v>430.45</v>
+    <v>430.25</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>92340110</v>
-    <v>46261442</v>
+    <v>136653</v>
+    <v>59879528</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2519,8 +2571,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2541,7 +2591,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2558,7 +2607,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2569,16 +2618,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2644,19 +2690,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2701,9 +2741,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2711,9 +2748,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3075,10 +3109,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z117" sqref="Z117"/>
+      <selection pane="bottomRight" activeCell="AB122" sqref="AB122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3189,88 +3223,88 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
@@ -3359,36 +3393,36 @@
         <v>26974000000</v>
       </c>
       <c r="AA3" s="21">
-        <v>42423000000</v>
+        <v>42514000000</v>
       </c>
       <c r="AB3" s="21">
-        <v>50155000000</v>
+        <v>52198000000</v>
       </c>
       <c r="AC3" s="21">
-        <v>59738000000</v>
+        <v>63545000000</v>
       </c>
       <c r="AD3" s="21">
-        <v>74307000000</v>
+        <v>81782000000</v>
       </c>
       <c r="AE3" s="21">
-        <v>90189000000</v>
+        <v>103900000000</v>
       </c>
       <c r="AF3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="AG3" s="41" t="s">
+      <c r="AI3" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="AH3" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI3" s="41" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3489,23 +3523,23 @@
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="12"/>
-        <v>0.57273670942388977</v>
+        <v>0.57611032846444732</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="12"/>
-        <v>0.18225962331753998</v>
+        <v>0.22778378886954886</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="12"/>
-        <v>0.1910676901605024</v>
+        <v>0.21738380780872824</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="12"/>
-        <v>0.24388161639157646</v>
+        <v>0.28699346919505864</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="12"/>
-        <v>0.21373491057370098</v>
+        <v>0.27045071042527691</v>
       </c>
       <c r="AF4" s="42">
         <f>(Z4+Y4+X4)/3</f>
@@ -3520,7 +3554,7 @@
         <v>0.41613951529322118</v>
       </c>
       <c r="AI4" s="42">
-        <f>(Z105+Y105+X105)/3</f>
+        <f>(Z106+Y106+X106)/3</f>
         <v>9.9826876843558135E-2</v>
       </c>
       <c r="AJ4" s="17"/>
@@ -3687,16 +3721,16 @@
         <v>15356000000</v>
       </c>
       <c r="AF6" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG6" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="AG6" s="41" t="s">
+      <c r="AI6" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="AH6" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI6" s="41" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3791,7 +3825,7 @@
         <v>0.16189999999999999</v>
       </c>
       <c r="AI7" s="43">
-        <f>Z106/Z3</f>
+        <f>Z107/Z3</f>
         <v>0.14117298138948617</v>
       </c>
     </row>
@@ -3877,7 +3911,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3980,16 +4014,16 @@
         <v>0.27207681471046191</v>
       </c>
       <c r="AF9" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="AG9" s="41" t="s">
+      <c r="AH9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AH9" s="41" t="s">
+      <c r="AI9" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="AI9" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3997,79 +4031,79 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="42">
         <f>Z9</f>
@@ -4093,79 +4127,79 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -4248,21 +4282,21 @@
         <v>2440000000</v>
       </c>
       <c r="AF12" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="AG12" s="41" t="s">
+      <c r="AI12" s="41" t="s">
         <v>119</v>
-      </c>
-      <c r="AH12" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI12" s="41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4376,7 +4410,7 @@
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
-      <c r="AI13" s="64">
+      <c r="AI13" s="63">
         <f>Z67/Z72</f>
         <v>0.8633545993393964</v>
       </c>
@@ -4398,64 +4432,64 @@
         <v>16371000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>14158000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1">
         <v>-114000000</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1">
         <v>1353000000</v>
@@ -4541,16 +4575,16 @@
         <v>11132000000</v>
       </c>
       <c r="AF15" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AG15" s="41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AH15" s="41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AI15" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4636,17 +4670,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="65">
+      <c r="AG16" s="64">
         <f>AH101/Z3</f>
-        <v>36.729506191147031</v>
-      </c>
-      <c r="AH16" s="65">
+        <v>39.416178542299996</v>
+      </c>
+      <c r="AH16" s="64">
         <f>AH101/Z28</f>
-        <v>226.81815476190476</v>
-      </c>
-      <c r="AI16" s="66">
-        <f>AH101/Z106</f>
-        <v>260.17376575630254</v>
+        <v>243.40934065934067</v>
+      </c>
+      <c r="AI16" s="65">
+        <f>AH101/Z107</f>
+        <v>279.20483193277312</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4654,37 +4688,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1">
         <v>3320000</v>
@@ -4809,16 +4843,16 @@
         <v>1544000000</v>
       </c>
       <c r="AF18" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG18" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH18" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="AG18" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH18" s="41" t="s">
-        <v>162</v>
-      </c>
       <c r="AI18" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4919,22 +4953,22 @@
         <f>Z40-Z56-Z61</f>
         <v>1441000000</v>
       </c>
-      <c r="AG19" s="65">
+      <c r="AG19" s="64">
         <f>AH101/AA3</f>
-        <v>23.353881149376516</v>
-      </c>
-      <c r="AH19" s="65">
+        <v>25.008514842169639</v>
+      </c>
+      <c r="AH19" s="64">
         <f>AB116/AA31</f>
-        <v>52.364229765013057</v>
-      </c>
-      <c r="AI19" s="67">
+        <v>56.168407310704957</v>
+      </c>
+      <c r="AI19" s="66">
         <f>AH101/AA105</f>
-        <v>57.241836145135196</v>
+        <v>275.7841688605692</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5137,23 +5171,23 @@
       </c>
       <c r="AA21" s="57">
         <f>AA19/AA3</f>
-        <v>0.4568983805954317</v>
+        <v>0.4559204026908783</v>
       </c>
       <c r="AB21" s="57">
         <f t="shared" ref="AB21:AE21" si="38">AB19/AB3</f>
-        <v>0.3396470940085734</v>
+        <v>0.32635350013410475</v>
       </c>
       <c r="AC21" s="57">
         <f t="shared" si="38"/>
-        <v>0.33039271485486627</v>
+        <v>0.31059878826028797</v>
       </c>
       <c r="AD21" s="57">
         <f t="shared" si="38"/>
-        <v>0.45143795335567311</v>
+        <v>0.41017583331295393</v>
       </c>
       <c r="AE21" s="57">
         <f t="shared" si="38"/>
-        <v>0.43603987182472365</v>
+        <v>0.37849855630413859</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5235,11 +5269,11 @@
       <c r="Z22" s="10">
         <v>4224000000</v>
       </c>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -5320,11 +5354,11 @@
       <c r="Z23" s="2">
         <v>0.15659999999999999</v>
       </c>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
     </row>
     <row r="24" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5405,11 +5439,11 @@
       <c r="Z24" s="1">
         <v>-43000000</v>
       </c>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
     </row>
     <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5490,11 +5524,11 @@
       <c r="Z25" s="10">
         <v>4181000000</v>
       </c>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
     </row>
     <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5575,11 +5609,11 @@
       <c r="Z26" s="2">
         <v>0.155</v>
       </c>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
     </row>
     <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5660,11 +5694,11 @@
       <c r="Z27" s="1">
         <v>187000000</v>
       </c>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
     </row>
     <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -5745,25 +5779,25 @@
       <c r="Z28" s="11">
         <v>4368000000</v>
       </c>
-      <c r="AA28" s="63">
+      <c r="AA28" s="62">
         <v>18946000000</v>
       </c>
-      <c r="AB28" s="63">
+      <c r="AB28" s="62">
         <v>24287000000</v>
       </c>
-      <c r="AC28" s="63">
+      <c r="AC28" s="62">
         <v>29281000000</v>
       </c>
-      <c r="AD28" s="63">
+      <c r="AD28" s="62">
         <v>34861000000</v>
       </c>
-      <c r="AE28" s="63">
+      <c r="AE28" s="62">
         <v>46234000000</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5966,23 +6000,23 @@
       </c>
       <c r="AA30" s="57">
         <f>AA28/AA3</f>
-        <v>0.44659736463710725</v>
+        <v>0.44564143576233711</v>
       </c>
       <c r="AB30" s="57">
         <f t="shared" ref="AB30:AE30" si="62">AB28/AB3</f>
-        <v>0.48423885953544016</v>
+        <v>0.46528602628453197</v>
       </c>
       <c r="AC30" s="57">
         <f t="shared" si="62"/>
-        <v>0.49015701898289193</v>
+        <v>0.460791565032654</v>
       </c>
       <c r="AD30" s="57">
         <f t="shared" si="62"/>
-        <v>0.46914826328609688</v>
+        <v>0.42626739380303735</v>
       </c>
       <c r="AE30" s="57">
         <f t="shared" si="62"/>
-        <v>0.51263457849626892</v>
+        <v>0.44498556304138592</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -6085,7 +6119,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12">
         <v>0.02</v>
@@ -6322,7 +6356,7 @@
     </row>
     <row r="35" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="19">
@@ -6427,79 +6461,79 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="21" x14ac:dyDescent="0.25">
@@ -6507,79 +6541,79 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6667,13 +6701,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>458000000</v>
@@ -7227,10 +7261,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>24000000</v>
@@ -7239,16 +7273,16 @@
         <v>50000000</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1">
         <v>301425000</v>
@@ -7307,13 +7341,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>31000000</v>
@@ -7387,10 +7421,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>24000000</v>
@@ -7467,37 +7501,37 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1">
         <v>6630000</v>
@@ -7512,25 +7546,25 @@
         <v>10030000</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1">
         <v>144000000</v>
@@ -7539,7 +7573,7 @@
         <v>266000000</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7547,43 +7581,43 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>43317000</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1">
         <v>7380000</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1">
         <v>7459000</v>
@@ -7592,22 +7626,22 @@
         <v>3527000</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1">
         <v>548000000</v>
@@ -7787,79 +7821,79 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8030,13 +8064,13 @@
         <v>6400000</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>5676000</v>
@@ -8048,34 +8082,34 @@
         <v>856000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1">
         <v>1500000000</v>
@@ -8087,7 +8121,7 @@
         <v>15000000</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1">
         <v>91000000</v>
@@ -8096,7 +8130,7 @@
         <v>1120000000</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1">
         <v>1250000000</v>
@@ -8107,40 +8141,40 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1">
         <v>4576000</v>
@@ -8176,10 +8210,10 @@
         <v>61000000</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8187,28 +8221,28 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
         <v>70193000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1">
         <v>11500000</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1">
         <v>1180000</v>
@@ -8217,7 +8251,7 @@
         <v>5856000</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1">
         <v>19624000</v>
@@ -8259,7 +8293,7 @@
         <v>300000000</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8445,16 +8479,16 @@
         <v>856000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1">
         <v>25634000</v>
@@ -8507,40 +8541,40 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1">
         <v>163000000</v>
@@ -8579,7 +8613,7 @@
         <v>202000000</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8587,19 +8621,19 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1">
         <v>8609000</v>
@@ -8611,13 +8645,13 @@
         <v>8260000</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>86900000</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1">
         <v>17739000</v>
@@ -8659,7 +8693,7 @@
         <v>245000000</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8667,7 +8701,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>1000000</v>
@@ -8676,10 +8710,10 @@
         <v>1000000</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1">
         <v>4582000</v>
@@ -8827,79 +8861,79 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8987,16 +9021,16 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1">
         <v>158000</v>
@@ -9059,7 +9093,7 @@
         <v>3000000</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9219,7 +9253,7 @@
         <v>-11000000</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9467,79 +9501,79 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="21" x14ac:dyDescent="0.25">
@@ -9547,79 +9581,79 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9787,10 +9821,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>-27201000</v>
@@ -9870,34 +9904,34 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1">
         <v>242826000</v>
@@ -9944,7 +9978,7 @@
     </row>
     <row r="80" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:Z80" si="81">B79/B3</f>
@@ -10132,37 +10166,37 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1">
         <v>-56741000</v>
@@ -10269,7 +10303,7 @@
         <v>-375000000</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1">
         <v>-776000000</v>
@@ -10287,7 +10321,7 @@
         <v>-2554000000</v>
       </c>
       <c r="AG83" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AH83" s="71"/>
     </row>
@@ -10296,37 +10330,37 @@
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1">
         <v>119366000</v>
@@ -10371,7 +10405,7 @@
         <v>-551000000</v>
       </c>
       <c r="AG84" s="72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH84" s="73"/>
     </row>
@@ -10380,28 +10414,28 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1">
         <v>7314000</v>
@@ -10449,13 +10483,13 @@
         <v>163000000</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG85" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH85" s="47">
         <f>Z17</f>
@@ -10539,10 +10573,10 @@
         <v>-53000000</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG86" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH86" s="47">
         <f>Z56</f>
@@ -10629,7 +10663,7 @@
         <v>5641000000</v>
       </c>
       <c r="AG87" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH87" s="47">
         <f>Z61</f>
@@ -10716,7 +10750,7 @@
         <v>-1833000000</v>
       </c>
       <c r="AG88" s="48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AH88" s="49">
         <f>AH85/(AH86+AH87)</f>
@@ -10725,7 +10759,7 @@
     </row>
     <row r="89" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:Z89" si="82">(-1*B88)/B3</f>
@@ -10828,7 +10862,7 @@
         <v>6.7954326388373995E-2</v>
       </c>
       <c r="AG89" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH89" s="47">
         <f>Z27</f>
@@ -10840,16 +10874,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-3901000</v>
@@ -10858,7 +10892,7 @@
         <v>-71303000</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-12131000</v>
@@ -10873,37 +10907,37 @@
         <v>-27948000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-348884000</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-17145000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1">
         <v>-8524000000</v>
@@ -10927,13 +10961,13 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-472917000</v>
@@ -11002,7 +11036,7 @@
         <v>-11897000000</v>
       </c>
       <c r="AG91" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AH91" s="49">
         <f>AH89/AH90</f>
@@ -11014,13 +11048,13 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>15320000</v>
@@ -11089,7 +11123,7 @@
         <v>21231000000</v>
       </c>
       <c r="AG92" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AH92" s="51">
         <f>AH88*(1-AH91)</f>
@@ -11101,10 +11135,10 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-24500000</v>
@@ -11116,19 +11150,19 @@
         <v>7000000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1">
         <v>-9684000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1">
         <v>-442000</v>
@@ -11161,22 +11195,22 @@
         <v>2000000</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z93" s="1">
         <v>-77000000</v>
       </c>
       <c r="AG93" s="74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AH93" s="75"/>
     </row>
@@ -11260,10 +11294,11 @@
         <v>7375000000</v>
       </c>
       <c r="AG94" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH94" s="52">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11271,43 +11306,43 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1">
         <v>-11927000</v>
@@ -11334,23 +11369,23 @@
         <v>-16000000</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-1000000000</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG95" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AH95" s="53" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.7630999999999999</v>
+        <v>1.7544999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11397,43 +11432,43 @@
         <v>177276000</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AH96" s="52">
         <v>8.4000000000000005E-2</v>
@@ -11444,22 +11479,22 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-24644000</v>
@@ -11477,13 +11512,13 @@
         <v>-423636000</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1">
         <v>-100000000</v>
@@ -11507,23 +11542,23 @@
         <v>-1579000000</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z97" s="1">
         <v>-10039000000</v>
       </c>
       <c r="AG97" s="50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AH97" s="51">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11685145500000001</v>
+        <v>0.11928796500000001</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11531,46 +11566,46 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1">
         <v>-46866000</v>
@@ -11606,7 +11641,7 @@
         <v>-398000000</v>
       </c>
       <c r="AG98" s="74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH98" s="75"/>
     </row>
@@ -11690,7 +11725,7 @@
         <v>-1180000000</v>
       </c>
       <c r="AG99" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH99" s="47">
         <f>AH86+AH87</f>
@@ -11777,11 +11812,11 @@
         <v>-11617000000</v>
       </c>
       <c r="AG100" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH100" s="49">
         <f>AH99/AH103</f>
-        <v>1.1824295850963801E-2</v>
+        <v>1.1027219698865279E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11789,86 +11824,86 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG101" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH101" s="34" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>990741700000</v>
+        <v>1063212000000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11951,11 +11986,11 @@
         <v>1399000000</v>
       </c>
       <c r="AG102" s="48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AH102" s="49">
         <f>AH101/AH103</f>
-        <v>0.98817570414903622</v>
+        <v>0.98897278030113467</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12038,11 +12073,11 @@
         <v>1990000000</v>
       </c>
       <c r="AG103" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AH103" s="54">
         <f>AH99+AH101</f>
-        <v>1002596700000</v>
+        <v>1075067000000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12050,7 +12085,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>61600000</v>
@@ -12125,285 +12160,364 @@
         <v>3389000000</v>
       </c>
       <c r="AG104" s="72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH104" s="73"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-1.4387755102040816</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>6.344186046511628</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-1.0085180493983534</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-751.59107806691452</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.3859461440549952</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:I105" si="83">(H106/G106)-1</f>
-        <v>-1.8333418884582811</v>
-      </c>
-      <c r="I105" s="15">
+        <v>160</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:Y105" si="83">(B22*(1-$AH$91))+B77+B88+B81</f>
+        <v>-16197129.873236068</v>
+      </c>
+      <c r="C105" s="1">
         <f t="shared" si="83"/>
-        <v>4.6485009008454083</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" ref="J105" si="84">(J106/I106)-1</f>
-        <v>0.20459477437787621</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" ref="K105" si="85">(K106/J106)-1</f>
-        <v>1.449787826323115</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" ref="L105" si="86">(L106/K106)-1</f>
-        <v>-1.1462514238519803</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" ref="M105" si="87">(M106/L106)-1</f>
-        <v>-3.5911565914976946</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" ref="N105" si="88">(N106/M106)-1</f>
-        <v>0.40882142143215838</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" ref="O105" si="89">(O106/N106)-1</f>
-        <v>0.33312280349606427</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" ref="P105" si="90">(P106/O106)-1</f>
-        <v>-0.16816519798915142</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="91">(Q106/P106)-1</f>
-        <v>-9.5032791719915188E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" ref="R105" si="92">(R106/Q106)-1</f>
-        <v>0.35056728050210362</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" ref="S105" si="93">(S106/R106)-1</f>
-        <v>0.39031630015001118</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" ref="T105" si="94">(T106/S106)-1</f>
-        <v>0.3737373737373737</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" ref="U105" si="95">(U106/T106)-1</f>
-        <v>0.94451871657754016</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" ref="V105" si="96">(V106/U106)-1</f>
-        <v>8.0440013750429751E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" ref="W105" si="97">(W106/V106)-1</f>
-        <v>0.35921094495704731</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" ref="X105" si="98">(X106/W106)-1</f>
-        <v>9.878277153558046E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="99">(Y106/X106)-1</f>
-        <v>0.73242437153813378</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" ref="Z105" si="100">(Z106/Y106)-1</f>
-        <v>-0.53172651254303982</v>
-      </c>
-      <c r="AA105" s="61">
-        <v>17308000000</v>
-      </c>
-      <c r="AB105" s="59">
-        <v>23974000000</v>
-      </c>
-      <c r="AC105" s="59">
-        <v>29231000000</v>
-      </c>
-      <c r="AD105" s="59">
-        <v>37592000000</v>
-      </c>
-      <c r="AE105" s="59">
-        <v>49629000000</v>
-      </c>
-      <c r="AF105" s="15"/>
+        <v>7566897.8713226542</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="83"/>
+        <v>19194586.223391533</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="83"/>
+        <v>14899260.224826574</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="83"/>
+        <v>168041061.70772544</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="83"/>
+        <v>-139559374.79071993</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="83"/>
+        <v>48737423.343697667</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="83"/>
+        <v>363395773.25998569</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="83"/>
+        <v>262606841.42549634</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="83"/>
+        <v>914335469.98325765</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="83"/>
+        <v>-323517861.75556087</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="83"/>
+        <v>160958428.12724227</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="83"/>
+        <v>485106423.34369767</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="83"/>
+        <v>686922086.8213346</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="83"/>
+        <v>549849770.38985896</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="83"/>
+        <v>470231680.69839752</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="83"/>
+        <v>620259350.15546525</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="83"/>
+        <v>773589571.87275779</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="83"/>
+        <v>1179499641.2341545</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="83"/>
+        <v>2857429083.9512081</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="83"/>
+        <v>2438861755.5608706</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="83"/>
+        <v>3327709399.6651521</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="83"/>
+        <v>3596301124.1329823</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="83"/>
+        <v>6426904807.4623299</v>
+      </c>
+      <c r="Z105" s="1">
+        <f>(Z22*(1-$AH$91))+Z77+Z88+Z81</f>
+        <v>2930076775.8909359</v>
+      </c>
+      <c r="AA105" s="24">
+        <f>Z105*(1+$AH$106)</f>
+        <v>3855232170.8413153</v>
+      </c>
+      <c r="AB105" s="24">
+        <f t="shared" ref="AB105:AE105" si="84">AA105*(1+$AH$106)</f>
+        <v>5072500220.261487</v>
+      </c>
+      <c r="AC105" s="24">
+        <f t="shared" si="84"/>
+        <v>6674113865.0899467</v>
+      </c>
+      <c r="AD105" s="24">
+        <f t="shared" si="84"/>
+        <v>8781428082.7945709</v>
+      </c>
+      <c r="AE105" s="24">
+        <f t="shared" si="84"/>
+        <v>11554115007.933548</v>
+      </c>
+      <c r="AF105" s="25" t="s">
+        <v>163</v>
+      </c>
       <c r="AG105" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AH105" s="23">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11571940235286116</v>
+        <v>0.1182053561260436</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-9800000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>4300000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>31580000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-269000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>201909000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-77926000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>64939000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>366808000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>441855000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1082451000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-158310000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>410206000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>577907000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>770421000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>640863000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>579960000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>783275000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>1089000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1496000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>2909000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>3143000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>4272000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>4694000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>8132000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>3808000000</v>
-      </c>
-      <c r="AA106" s="24">
-        <f>Z106*(1+$AH$106)</f>
-        <v>4877043106.7788668</v>
-      </c>
-      <c r="AB106" s="24">
-        <f t="shared" ref="AB106:AE106" si="101">AA106*(1+$AH$106)</f>
-        <v>6246205216.7487564</v>
-      </c>
-      <c r="AC106" s="24">
-        <f t="shared" si="101"/>
-        <v>7999740571.3946228</v>
-      </c>
-      <c r="AD106" s="24">
-        <f t="shared" si="101"/>
-        <v>10245556620.20467</v>
-      </c>
-      <c r="AE106" s="24">
-        <f t="shared" si="101"/>
-        <v>13121854330.273575</v>
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:Z106" si="85">(C107/B107)-1</f>
+        <v>-1.4387755102040816</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="85"/>
+        <v>6.344186046511628</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="85"/>
+        <v>-1.0085180493983534</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="85"/>
+        <v>-751.59107806691452</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="85"/>
+        <v>-1.3859461440549952</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="85"/>
+        <v>-1.8333418884582811</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="85"/>
+        <v>4.6485009008454083</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.20459477437787621</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="85"/>
+        <v>1.449787826323115</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="85"/>
+        <v>-1.1462514238519803</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="85"/>
+        <v>-3.5911565914976946</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.40882142143215838</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.33312280349606427</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="85"/>
+        <v>-0.16816519798915142</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="85"/>
+        <v>-9.5032791719915188E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.35056728050210362</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.39031630015001118</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.3737373737373737</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.94451871657754016</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="85"/>
+        <v>8.0440013750429751E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.35921094495704731</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="85"/>
+        <v>9.878277153558046E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="85"/>
+        <v>0.73242437153813378</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="85"/>
+        <v>-0.53172651254303982</v>
+      </c>
+      <c r="AA106" s="59">
+        <v>17409000000</v>
+      </c>
+      <c r="AB106" s="59">
+        <v>23881000000</v>
+      </c>
+      <c r="AC106" s="59">
+        <v>29474000000</v>
+      </c>
+      <c r="AD106" s="59">
+        <v>37416000000</v>
+      </c>
+      <c r="AE106" s="59">
+        <v>49397000000</v>
       </c>
       <c r="AF106" s="25" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AG106" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AH106" s="27">
         <f>(SUM(AA4:AE4)/5)</f>
-        <v>0.28073610997344189</v>
+        <v>0.31574442095261201</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
+      <c r="A107" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-9800000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4300000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>31580000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-269000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>201909000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-77926000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>64939000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>366808000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>441855000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1082451000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-158310000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>410206000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>577907000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>770421000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>640863000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>579960000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>783275000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>1089000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1496000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>2909000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>3143000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>4272000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>4694000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>8132000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>3808000000</v>
+      </c>
       <c r="AA107" s="25"/>
       <c r="AB107" s="25"/>
       <c r="AC107" s="25"/>
       <c r="AD107" s="25"/>
       <c r="AE107" s="60">
-        <f>AE105*(1+AH107)/(AH108-AH107)</f>
-        <v>560736994299.6062</v>
+        <f>AE106*(1+AH107)/(AH108-AH107)</f>
+        <v>543229778893.06439</v>
       </c>
       <c r="AF107" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AG107" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AH107" s="30">
         <v>2.5000000000000001E-2</v>
@@ -12411,54 +12525,54 @@
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="AA108" s="60">
-        <f>AA107+AA105</f>
-        <v>17308000000</v>
+        <f t="shared" ref="AA108:AD108" si="86">AA107+AA106</f>
+        <v>17409000000</v>
       </c>
       <c r="AB108" s="60">
-        <f>AB107+AB105</f>
-        <v>23974000000</v>
+        <f t="shared" si="86"/>
+        <v>23881000000</v>
       </c>
       <c r="AC108" s="60">
-        <f>AC107+AC105</f>
-        <v>29231000000</v>
+        <f t="shared" si="86"/>
+        <v>29474000000</v>
       </c>
       <c r="AD108" s="60">
-        <f>AD107+AD105</f>
-        <v>37592000000</v>
+        <f t="shared" si="86"/>
+        <v>37416000000</v>
       </c>
       <c r="AE108" s="60">
-        <f>AE107+AE105</f>
-        <v>610365994299.6062</v>
+        <f>AE107+AE106</f>
+        <v>592626778893.06445</v>
       </c>
       <c r="AF108" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG108" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AH108" s="32">
         <f>AH105</f>
-        <v>0.11571940235286116</v>
+        <v>0.1182053561260436</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="AA109" s="68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AB109" s="69"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AA110" s="33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AB110" s="34">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>433110387533.81067</v>
+        <v>418658885586.79803</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AA111" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AB111" s="34">
         <f>Z40</f>
@@ -12467,7 +12581,7 @@
     </row>
     <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AA112" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB112" s="34">
         <f>AH99</f>
@@ -12476,16 +12590,16 @@
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA113" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB113" s="34">
         <f>AB110+AB111-AB112</f>
-        <v>434551387533.81067</v>
+        <v>420099885586.79803</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA114" s="33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AB114" s="45">
         <f>Z34*(1+(5*AF16))</f>
@@ -12494,34 +12608,34 @@
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA115" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AB115" s="36">
         <f>AB113/AB114</f>
-        <v>174.73026873179651</v>
+        <v>168.91941438586917</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA116" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>401.11</v>
+        <v>430.25</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA117" s="37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AB117" s="38">
         <f>AB115/AB116-1</f>
-        <v>-0.56438316488794471</v>
+        <v>-0.60739241281610878</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA118" s="37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AB118" s="39" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
@@ -12590,7 +12704,7 @@
     <hyperlink ref="Z36" r:id="rId50" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA1" r:id="rId52" display="https://finbox.com/NASDAQGS:NVDA/explorer/revenue_proj" xr:uid="{1F501A9D-2106-9940-B862-A3E596603C7B}"/>
-    <hyperlink ref="AA105" r:id="rId53" display="https://finbox.com/NASDAQGS:NVDA/explorer/fcf_unlev_proj/" xr:uid="{91DD2FAE-E83F-474B-A648-D30634E7F23A}"/>
+    <hyperlink ref="AF106" r:id="rId53" xr:uid="{455E61A6-7595-BF44-83CA-5135D6E59FBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId54"/>

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66456BF-9116-0841-86CB-21DFED6D4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270403E-5DC3-EA4D-8D79-FE18153627BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,18 +568,25 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -918,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1072,6 +1079,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2348,12 +2361,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2370,14 +2384,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2385,6 +2399,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2512,9 +2527,11 @@
     <v>Powered by Refinitiv</v>
     <v>439.9</v>
     <v>108.13</v>
-    <v>1.7544999999999999</v>
-    <v>-0.2</v>
-    <v>-4.6460000000000002E-4</v>
+    <v>1.752</v>
+    <v>-15.77</v>
+    <v>-3.7361999999999999E-2</v>
+    <v>-0.56000000000000005</v>
+    <v>-1.3780000000000001E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2522,24 +2539,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>434.255</v>
+    <v>427.64</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999970289064</v>
+    <v>45103.933772881253</v>
     <v>0</v>
-    <v>422.34</v>
-    <v>1063212000000</v>
+    <v>401</v>
+    <v>1003610400000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>422.53</v>
-    <v>223.60290000000001</v>
-    <v>430.45</v>
-    <v>430.25</v>
+    <v>424.61</v>
+    <v>219.3621</v>
+    <v>422.09</v>
+    <v>406.32</v>
+    <v>405.76</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>136653</v>
-    <v>59879528</v>
+    <v>59335739</v>
+    <v>59455276</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2571,6 +2589,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2591,6 +2611,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2607,7 +2628,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2618,13 +2639,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2690,13 +2714,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2741,6 +2771,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2748,6 +2781,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3109,10 +3145,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB122" sqref="AB122"/>
+      <selection pane="bottomRight" activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4672,15 +4708,15 @@
       </c>
       <c r="AG16" s="64">
         <f>AH101/Z3</f>
-        <v>39.416178542299996</v>
+        <v>37.206584118039594</v>
       </c>
       <c r="AH16" s="64">
         <f>AH101/Z28</f>
-        <v>243.40934065934067</v>
+        <v>229.76428571428571</v>
       </c>
       <c r="AI16" s="65">
         <f>AH101/Z107</f>
-        <v>279.20483193277312</v>
+        <v>263.55315126050419</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4955,15 +4991,15 @@
       </c>
       <c r="AG19" s="64">
         <f>AH101/AA3</f>
-        <v>25.008514842169639</v>
+        <v>23.606586065766571</v>
       </c>
       <c r="AH19" s="64">
         <f>AB116/AA31</f>
-        <v>56.168407310704957</v>
+        <v>53.044386422976501</v>
       </c>
       <c r="AI19" s="66">
         <f>AH101/AA105</f>
-        <v>275.7841688605692</v>
+        <v>260.32424391732167</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5090,7 +5126,7 @@
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
     </row>
-    <row r="21" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5188,6 +5224,12 @@
       <c r="AE21" s="57">
         <f t="shared" si="38"/>
         <v>0.37849855630413859</v>
+      </c>
+      <c r="AH21" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI21" s="41" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5274,6 +5316,14 @@
       <c r="AC22" s="61"/>
       <c r="AD22" s="61"/>
       <c r="AE22" s="61"/>
+      <c r="AH22" s="76">
+        <f>(-1*Z98)/AH101</f>
+        <v>3.9656823006218347E-4</v>
+      </c>
+      <c r="AI22" s="77">
+        <f>Z107/AH101</f>
+        <v>3.7943010554693335E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -11298,7 +11348,7 @@
       </c>
       <c r="AH94" s="52">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11385,7 +11435,7 @@
       </c>
       <c r="AH95" s="53" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.7544999999999999</v>
+        <v>1.752</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11558,7 +11608,7 @@
       </c>
       <c r="AH97" s="51">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11928796500000001</v>
+        <v>0.11905072</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11816,7 +11866,7 @@
       </c>
       <c r="AH100" s="49">
         <f>AH99/AH103</f>
-        <v>1.1027219698865279E-2</v>
+        <v>1.1674449961564422E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11903,7 +11953,7 @@
       </c>
       <c r="AH101" s="34" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1063212000000</v>
+        <v>1003610400000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11990,7 +12040,7 @@
       </c>
       <c r="AH102" s="49">
         <f>AH101/AH103</f>
-        <v>0.98897278030113467</v>
+        <v>0.98832555003843559</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12077,7 +12127,7 @@
       </c>
       <c r="AH103" s="54">
         <f>AH99+AH101</f>
-        <v>1075067000000</v>
+        <v>1015465400000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12296,7 +12346,7 @@
       </c>
       <c r="AH105" s="23">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.1182053561260436</v>
+        <v>0.11790733832020799</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12511,7 +12561,7 @@
       <c r="AD107" s="25"/>
       <c r="AE107" s="60">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>543229778893.06439</v>
+        <v>544972290837.73248</v>
       </c>
       <c r="AF107" s="28" t="s">
         <v>141</v>
@@ -12542,7 +12592,7 @@
       </c>
       <c r="AE108" s="60">
         <f>AE107+AE106</f>
-        <v>592626778893.06445</v>
+        <v>594369290837.73242</v>
       </c>
       <c r="AF108" s="28" t="s">
         <v>137</v>
@@ -12552,7 +12602,7 @@
       </c>
       <c r="AH108" s="32">
         <f>AH105</f>
-        <v>0.1182053561260436</v>
+        <v>0.11790733832020799</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12567,7 +12617,7 @@
       </c>
       <c r="AB110" s="34">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>418658885586.79803</v>
+        <v>420165726406.9657</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12594,7 +12644,7 @@
       </c>
       <c r="AB113" s="34">
         <f>AB110+AB111-AB112</f>
-        <v>420099885586.79803</v>
+        <v>421606726406.9657</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12612,7 +12662,7 @@
       </c>
       <c r="AB115" s="36">
         <f>AB113/AB114</f>
-        <v>168.91941438586917</v>
+        <v>169.52530521718876</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12621,7 +12671,7 @@
       </c>
       <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>430.25</v>
+        <v>406.32</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12630,7 +12680,7 @@
       </c>
       <c r="AB117" s="38">
         <f>AB115/AB116-1</f>
-        <v>-0.60739241281610878</v>
+        <v>-0.58277883142058284</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270403E-5DC3-EA4D-8D79-FE18153627BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7689BBC9-CC94-AC46-9315-5F7D87EE7A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -756,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -801,19 +801,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,86 +941,51 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="167" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1041,50 +993,73 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,11 +1111,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>NVDA</a:t>
+              <a:t>Nvidia</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45186226319659389"/>
+          <c:y val="2.802547770700637E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2314,7 +2297,7 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>1449917</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2387,7 +2370,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2527,11 +2510,11 @@
     <v>Powered by Refinitiv</v>
     <v>439.9</v>
     <v>108.13</v>
-    <v>1.752</v>
-    <v>-15.77</v>
-    <v>-3.7361999999999999E-2</v>
-    <v>-0.56000000000000005</v>
-    <v>-1.3780000000000001E-3</v>
+    <v>1.742</v>
+    <v>14.8</v>
+    <v>3.6255000000000003E-2</v>
+    <v>-0.09</v>
+    <v>-2.128E-4</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2539,25 +2522,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>427.64</v>
+    <v>425.5</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45103.933772881253</v>
+    <v>45107.999993425779</v>
     <v>0</v>
-    <v>401</v>
-    <v>1003610400000</v>
+    <v>415.01</v>
+    <v>1044859000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>424.61</v>
-    <v>219.3621</v>
-    <v>422.09</v>
-    <v>406.32</v>
-    <v>405.76</v>
+    <v>416.8</v>
+    <v>212.15379999999999</v>
+    <v>408.22</v>
+    <v>423.02</v>
+    <v>422.93</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>59335739</v>
-    <v>59455276</v>
+    <v>50114775</v>
+    <v>59730334</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2722,9 +2705,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3145,10 +3128,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG33" sqref="AG33"/>
+      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3443,16 +3426,16 @@
       <c r="AE3" s="21">
         <v>103900000000</v>
       </c>
-      <c r="AF3" s="40" t="s">
+      <c r="AF3" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AG3" s="41" t="s">
+      <c r="AG3" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="41" t="s">
+      <c r="AH3" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="41" t="s">
+      <c r="AI3" s="33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3577,19 +3560,19 @@
         <f t="shared" si="12"/>
         <v>0.27045071042527691</v>
       </c>
-      <c r="AF4" s="42">
+      <c r="AF4" s="34">
         <f>(Z4+Y4+X4)/3</f>
         <v>0.38118556093218037</v>
       </c>
-      <c r="AG4" s="42">
+      <c r="AG4" s="34">
         <f>(Z20+Y20+X20)/3</f>
         <v>0.40909729531125477</v>
       </c>
-      <c r="AH4" s="42">
+      <c r="AH4" s="34">
         <f>(Z29+Y29+X29)/3</f>
         <v>0.41613951529322118</v>
       </c>
-      <c r="AI4" s="42">
+      <c r="AI4" s="34">
         <f>(Z106+Y106+X106)/3</f>
         <v>9.9826876843558135E-2</v>
       </c>
@@ -3756,16 +3739,16 @@
       <c r="Z6" s="10">
         <v>15356000000</v>
       </c>
-      <c r="AF6" s="40" t="s">
+      <c r="AF6" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AG6" s="41" t="s">
+      <c r="AG6" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="41" t="s">
+      <c r="AH6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AI6" s="41" t="s">
+      <c r="AI6" s="33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3848,19 +3831,19 @@
       <c r="Z7" s="2">
         <v>0.56930000000000003</v>
       </c>
-      <c r="AF7" s="42">
+      <c r="AF7" s="34">
         <f>Z7</f>
         <v>0.56930000000000003</v>
       </c>
-      <c r="AG7" s="43">
+      <c r="AG7" s="35">
         <f>Z21</f>
         <v>0.23580000000000001</v>
       </c>
-      <c r="AH7" s="43">
+      <c r="AH7" s="35">
         <f>Z30</f>
         <v>0.16189999999999999</v>
       </c>
-      <c r="AI7" s="43">
+      <c r="AI7" s="35">
         <f>Z107/Z3</f>
         <v>0.14117298138948617</v>
       </c>
@@ -4049,16 +4032,16 @@
         <f t="shared" si="13"/>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AF9" s="40" t="s">
+      <c r="AF9" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AG9" s="41" t="s">
+      <c r="AG9" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="41" t="s">
+      <c r="AH9" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="41" t="s">
+      <c r="AI9" s="33" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4141,19 +4124,19 @@
       <c r="Z10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF10" s="42">
+      <c r="AF10" s="34">
         <f>Z9</f>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AG10" s="43">
+      <c r="AG10" s="35">
         <f>Z13</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AH10" s="43">
+      <c r="AH10" s="35">
         <f>Z80</f>
         <v>0.10043004374582931</v>
       </c>
-      <c r="AI10" s="43">
+      <c r="AI10" s="35">
         <f>Z89</f>
         <v>6.7954326388373995E-2</v>
       </c>
@@ -4317,16 +4300,16 @@
       <c r="Z12" s="1">
         <v>2440000000</v>
       </c>
-      <c r="AF12" s="40" t="s">
+      <c r="AF12" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="AG12" s="41" t="s">
+      <c r="AG12" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="41" t="s">
+      <c r="AH12" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AI12" s="41" t="s">
+      <c r="AI12" s="33" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4434,19 +4417,19 @@
         <f t="shared" si="14"/>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AF13" s="42">
+      <c r="AF13" s="34">
         <f>Z28/Z72</f>
         <v>0.19763811592235644</v>
       </c>
-      <c r="AG13" s="43">
+      <c r="AG13" s="35">
         <f>Z28/Z54</f>
         <v>0.10606575688407557</v>
       </c>
-      <c r="AH13" s="43">
+      <c r="AH13" s="35">
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
-      <c r="AI13" s="63">
+      <c r="AI13" s="46">
         <f>Z67/Z72</f>
         <v>0.8633545993393964</v>
       </c>
@@ -4610,16 +4593,16 @@
       <c r="Z15" s="1">
         <v>11132000000</v>
       </c>
-      <c r="AF15" s="40" t="s">
+      <c r="AF15" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AG15" s="41" t="s">
+      <c r="AG15" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AH15" s="41" t="s">
+      <c r="AH15" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AI15" s="41" t="s">
+      <c r="AI15" s="33" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4706,17 +4689,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="64">
+      <c r="AG16" s="47">
         <f>AH101/Z3</f>
-        <v>37.206584118039594</v>
-      </c>
-      <c r="AH16" s="64">
+        <v>38.735782605471933</v>
+      </c>
+      <c r="AH16" s="47">
         <f>AH101/Z28</f>
-        <v>229.76428571428571</v>
-      </c>
-      <c r="AI16" s="65">
+        <v>239.20764652014651</v>
+      </c>
+      <c r="AI16" s="48">
         <f>AH101/Z107</f>
-        <v>263.55315126050419</v>
+        <v>274.38524159663865</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4878,16 +4861,16 @@
       <c r="Z18" s="1">
         <v>1544000000</v>
       </c>
-      <c r="AF18" s="40" t="s">
+      <c r="AF18" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="AG18" s="41" t="s">
+      <c r="AG18" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="AH18" s="41" t="s">
+      <c r="AH18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="AI18" s="41" t="s">
+      <c r="AI18" s="33" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4970,36 +4953,36 @@
       <c r="Z19" s="10">
         <v>6361000000</v>
       </c>
-      <c r="AA19" s="56">
+      <c r="AA19" s="39">
         <v>19383000000</v>
       </c>
-      <c r="AB19" s="56">
+      <c r="AB19" s="39">
         <v>17035000000</v>
       </c>
-      <c r="AC19" s="56">
+      <c r="AC19" s="39">
         <v>19737000000</v>
       </c>
-      <c r="AD19" s="56">
+      <c r="AD19" s="39">
         <v>33545000000</v>
       </c>
-      <c r="AE19" s="56">
+      <c r="AE19" s="39">
         <v>39326000000</v>
       </c>
-      <c r="AF19" s="44">
+      <c r="AF19" s="36">
         <f>Z40-Z56-Z61</f>
         <v>1441000000</v>
       </c>
-      <c r="AG19" s="64">
+      <c r="AG19" s="47">
         <f>AH101/AA3</f>
-        <v>23.606586065766571</v>
-      </c>
-      <c r="AH19" s="64">
+        <v>24.576821752834359</v>
+      </c>
+      <c r="AH19" s="47">
         <f>AB116/AA31</f>
-        <v>53.044386422976501</v>
-      </c>
-      <c r="AI19" s="66">
+        <v>55.224543080939945</v>
+      </c>
+      <c r="AI19" s="49">
         <f>AH101/AA105</f>
-        <v>260.32424391732167</v>
+        <v>271.02362547778381</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5205,30 +5188,30 @@
       <c r="Z21" s="2">
         <v>0.23580000000000001</v>
       </c>
-      <c r="AA21" s="57">
+      <c r="AA21" s="40">
         <f>AA19/AA3</f>
         <v>0.4559204026908783</v>
       </c>
-      <c r="AB21" s="57">
+      <c r="AB21" s="40">
         <f t="shared" ref="AB21:AE21" si="38">AB19/AB3</f>
         <v>0.32635350013410475</v>
       </c>
-      <c r="AC21" s="57">
+      <c r="AC21" s="40">
         <f t="shared" si="38"/>
         <v>0.31059878826028797</v>
       </c>
-      <c r="AD21" s="57">
+      <c r="AD21" s="40">
         <f t="shared" si="38"/>
         <v>0.41017583331295393</v>
       </c>
-      <c r="AE21" s="57">
+      <c r="AE21" s="40">
         <f t="shared" si="38"/>
         <v>0.37849855630413859</v>
       </c>
-      <c r="AH21" s="40" t="s">
+      <c r="AH21" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="AI21" s="41" t="s">
+      <c r="AI21" s="33" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5311,18 +5294,18 @@
       <c r="Z22" s="10">
         <v>4224000000</v>
       </c>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AH22" s="76">
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AH22" s="51">
         <f>(-1*Z98)/AH101</f>
-        <v>3.9656823006218347E-4</v>
-      </c>
-      <c r="AI22" s="77">
+        <v>3.8091263988729578E-4</v>
+      </c>
+      <c r="AI22" s="52">
         <f>Z107/AH101</f>
-        <v>3.7943010554693335E-3</v>
+        <v>3.6445108861578451E-3</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5404,11 +5387,11 @@
       <c r="Z23" s="2">
         <v>0.15659999999999999</v>
       </c>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
     </row>
     <row r="24" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5489,11 +5472,11 @@
       <c r="Z24" s="1">
         <v>-43000000</v>
       </c>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
     </row>
     <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5574,11 +5557,11 @@
       <c r="Z25" s="10">
         <v>4181000000</v>
       </c>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
     </row>
     <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5659,11 +5642,11 @@
       <c r="Z26" s="2">
         <v>0.155</v>
       </c>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
     </row>
     <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5744,11 +5727,11 @@
       <c r="Z27" s="1">
         <v>187000000</v>
       </c>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
     </row>
     <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -5829,19 +5812,19 @@
       <c r="Z28" s="11">
         <v>4368000000</v>
       </c>
-      <c r="AA28" s="62">
+      <c r="AA28" s="45">
         <v>18946000000</v>
       </c>
-      <c r="AB28" s="62">
+      <c r="AB28" s="45">
         <v>24287000000</v>
       </c>
-      <c r="AC28" s="62">
+      <c r="AC28" s="45">
         <v>29281000000</v>
       </c>
-      <c r="AD28" s="62">
+      <c r="AD28" s="45">
         <v>34861000000</v>
       </c>
-      <c r="AE28" s="62">
+      <c r="AE28" s="45">
         <v>46234000000</v>
       </c>
     </row>
@@ -6048,23 +6031,23 @@
       <c r="Z30" s="2">
         <v>0.16189999999999999</v>
       </c>
-      <c r="AA30" s="57">
+      <c r="AA30" s="40">
         <f>AA28/AA3</f>
         <v>0.44564143576233711</v>
       </c>
-      <c r="AB30" s="57">
+      <c r="AB30" s="40">
         <f t="shared" ref="AB30:AE30" si="62">AB28/AB3</f>
         <v>0.46528602628453197</v>
       </c>
-      <c r="AC30" s="57">
+      <c r="AC30" s="40">
         <f t="shared" si="62"/>
         <v>0.460791565032654</v>
       </c>
-      <c r="AD30" s="57">
+      <c r="AD30" s="40">
         <f t="shared" si="62"/>
         <v>0.42626739380303735</v>
       </c>
-      <c r="AE30" s="57">
+      <c r="AE30" s="40">
         <f t="shared" si="62"/>
         <v>0.44498556304138592</v>
       </c>
@@ -6148,19 +6131,19 @@
       <c r="Z31" s="12">
         <v>1.76</v>
       </c>
-      <c r="AA31" s="58">
+      <c r="AA31" s="41">
         <v>7.66</v>
       </c>
-      <c r="AB31" s="58">
+      <c r="AB31" s="41">
         <v>9.82</v>
       </c>
-      <c r="AC31" s="58">
+      <c r="AC31" s="41">
         <v>11.84</v>
       </c>
-      <c r="AD31" s="58">
+      <c r="AD31" s="41">
         <v>14.1</v>
       </c>
-      <c r="AE31" s="58">
+      <c r="AE31" s="41">
         <v>18.690000000000001</v>
       </c>
     </row>
@@ -10457,7 +10440,7 @@
       <c r="AG84" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="AH84" s="73"/>
+      <c r="AH84" s="72"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10538,10 +10521,10 @@
       <c r="Z85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG85" s="46" t="s">
+      <c r="AG85" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AH85" s="47">
+      <c r="AH85" s="54">
         <f>Z17</f>
         <v>262000000</v>
       </c>
@@ -10625,10 +10608,10 @@
       <c r="Z86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG86" s="46" t="s">
+      <c r="AG86" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="AH86" s="47">
+      <c r="AH86" s="54">
         <f>Z56</f>
         <v>1250000000</v>
       </c>
@@ -10712,10 +10695,10 @@
       <c r="Z87" s="10">
         <v>5641000000</v>
       </c>
-      <c r="AG87" s="46" t="s">
+      <c r="AG87" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="AH87" s="47">
+      <c r="AH87" s="54">
         <f>Z61</f>
         <v>10605000000</v>
       </c>
@@ -10799,10 +10782,10 @@
       <c r="Z88" s="1">
         <v>-1833000000</v>
       </c>
-      <c r="AG88" s="48" t="s">
+      <c r="AG88" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AH88" s="49">
+      <c r="AH88" s="56">
         <f>AH85/(AH86+AH87)</f>
         <v>2.210037958667229E-2</v>
       </c>
@@ -10911,10 +10894,10 @@
         <f t="shared" si="82"/>
         <v>6.7954326388373995E-2</v>
       </c>
-      <c r="AG89" s="46" t="s">
+      <c r="AG89" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="AH89" s="47">
+      <c r="AH89" s="54">
         <f>Z27</f>
         <v>187000000</v>
       </c>
@@ -10998,10 +10981,10 @@
       <c r="Z90" s="1">
         <v>-49000000</v>
       </c>
-      <c r="AG90" s="46" t="s">
+      <c r="AG90" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AH90" s="47">
+      <c r="AH90" s="54">
         <f>Z25</f>
         <v>4181000000</v>
       </c>
@@ -11085,10 +11068,10 @@
       <c r="Z91" s="1">
         <v>-11897000000</v>
       </c>
-      <c r="AG91" s="48" t="s">
+      <c r="AG91" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="AH91" s="49">
+      <c r="AH91" s="56">
         <f>AH89/AH90</f>
         <v>4.4726142071274816E-2</v>
       </c>
@@ -11172,10 +11155,10 @@
       <c r="Z92" s="1">
         <v>21231000000</v>
       </c>
-      <c r="AG92" s="50" t="s">
+      <c r="AG92" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="AH92" s="51">
+      <c r="AH92" s="56">
         <f>AH88*(1-AH91)</f>
         <v>2.1111914869449685E-2</v>
       </c>
@@ -11259,10 +11242,10 @@
       <c r="Z93" s="1">
         <v>-77000000</v>
       </c>
-      <c r="AG93" s="74" t="s">
+      <c r="AG93" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="AH93" s="75"/>
+      <c r="AH93" s="73"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11343,12 +11326,12 @@
       <c r="Z94" s="10">
         <v>7375000000</v>
       </c>
-      <c r="AG94" s="46" t="s">
+      <c r="AG94" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="AH94" s="52">
+      <c r="AH94" s="57">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11430,12 +11413,12 @@
       <c r="Z95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG95" s="46" t="s">
+      <c r="AG95" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AH95" s="53" cm="1">
+      <c r="AH95" s="58" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.752</v>
+        <v>1.742</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11517,10 +11500,10 @@
       <c r="Z96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG96" s="46" t="s">
+      <c r="AG96" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="AH96" s="52">
+      <c r="AH96" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11603,12 +11586,12 @@
       <c r="Z97" s="1">
         <v>-10039000000</v>
       </c>
-      <c r="AG97" s="50" t="s">
+      <c r="AG97" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="AH97" s="51">
+      <c r="AH97" s="56">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11905072</v>
+        <v>0.11773132</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11690,10 +11673,10 @@
       <c r="Z98" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AG98" s="74" t="s">
+      <c r="AG98" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="AH98" s="75"/>
+      <c r="AH98" s="73"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11774,10 +11757,10 @@
       <c r="Z99" s="1">
         <v>-1180000000</v>
       </c>
-      <c r="AG99" s="46" t="s">
+      <c r="AG99" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="AH99" s="47">
+      <c r="AH99" s="54">
         <f>AH86+AH87</f>
         <v>11855000000</v>
       </c>
@@ -11861,12 +11844,12 @@
       <c r="Z100" s="10">
         <v>-11617000000</v>
       </c>
-      <c r="AG100" s="48" t="s">
+      <c r="AG100" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="AH100" s="49">
+      <c r="AH100" s="56">
         <f>AH99/AH103</f>
-        <v>1.1674449961564422E-2</v>
+        <v>1.1218740359264665E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11948,12 +11931,12 @@
       <c r="Z101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG101" s="46" t="s">
+      <c r="AG101" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="AH101" s="34" cm="1">
+      <c r="AH101" s="59" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1003610400000</v>
+        <v>1044859000000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12035,12 +12018,12 @@
       <c r="Z102" s="10">
         <v>1399000000</v>
       </c>
-      <c r="AG102" s="48" t="s">
+      <c r="AG102" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="AH102" s="49">
+      <c r="AH102" s="56">
         <f>AH101/AH103</f>
-        <v>0.98832555003843559</v>
+        <v>0.98878125964073538</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12122,12 +12105,12 @@
       <c r="Z103" s="1">
         <v>1990000000</v>
       </c>
-      <c r="AG103" s="50" t="s">
+      <c r="AG103" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="AH103" s="54">
+      <c r="AH103" s="60">
         <f>AH99+AH101</f>
-        <v>1015465400000</v>
+        <v>1056714000000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12212,7 +12195,7 @@
       <c r="AG104" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="AH104" s="73"/>
+      <c r="AH104" s="72"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12318,35 +12301,35 @@
         <f>(Z22*(1-$AH$91))+Z77+Z88+Z81</f>
         <v>2930076775.8909359</v>
       </c>
-      <c r="AA105" s="24">
+      <c r="AA105" s="22">
         <f>Z105*(1+$AH$106)</f>
         <v>3855232170.8413153</v>
       </c>
-      <c r="AB105" s="24">
+      <c r="AB105" s="22">
         <f t="shared" ref="AB105:AE105" si="84">AA105*(1+$AH$106)</f>
         <v>5072500220.261487</v>
       </c>
-      <c r="AC105" s="24">
+      <c r="AC105" s="22">
         <f t="shared" si="84"/>
         <v>6674113865.0899467</v>
       </c>
-      <c r="AD105" s="24">
+      <c r="AD105" s="22">
         <f t="shared" si="84"/>
         <v>8781428082.7945709</v>
       </c>
-      <c r="AE105" s="24">
+      <c r="AE105" s="22">
         <f t="shared" si="84"/>
         <v>11554115007.933548</v>
       </c>
-      <c r="AF105" s="25" t="s">
+      <c r="AF105" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="AG105" s="22" t="s">
+      <c r="AG105" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AH105" s="23">
+      <c r="AH105" s="62">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11790733832020799</v>
+        <v>0.11664737198017376</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12450,34 +12433,34 @@
         <f t="shared" si="85"/>
         <v>-0.53172651254303982</v>
       </c>
-      <c r="AA106" s="59">
+      <c r="AA106" s="42">
         <v>17409000000</v>
       </c>
-      <c r="AB106" s="59">
+      <c r="AB106" s="42">
         <v>23881000000</v>
       </c>
-      <c r="AC106" s="59">
+      <c r="AC106" s="42">
         <v>29474000000</v>
       </c>
-      <c r="AD106" s="59">
+      <c r="AD106" s="42">
         <v>37416000000</v>
       </c>
-      <c r="AE106" s="59">
+      <c r="AE106" s="42">
         <v>49397000000</v>
       </c>
-      <c r="AF106" s="25" t="s">
+      <c r="AF106" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="AG106" s="26" t="s">
+      <c r="AG106" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AH106" s="27">
+      <c r="AH106" s="64">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>0.31574442095261201</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="50" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -12555,54 +12538,54 @@
       <c r="Z107" s="1">
         <v>3808000000</v>
       </c>
-      <c r="AA107" s="25"/>
-      <c r="AB107" s="25"/>
-      <c r="AC107" s="25"/>
-      <c r="AD107" s="25"/>
-      <c r="AE107" s="60">
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="23"/>
+      <c r="AE107" s="43">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>544972290837.73248</v>
-      </c>
-      <c r="AF107" s="28" t="s">
+        <v>552464559605.19299</v>
+      </c>
+      <c r="AF107" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="AG107" s="29" t="s">
+      <c r="AG107" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="AH107" s="30">
+      <c r="AH107" s="66">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="60">
+      <c r="AA108" s="43">
         <f t="shared" ref="AA108:AD108" si="86">AA107+AA106</f>
         <v>17409000000</v>
       </c>
-      <c r="AB108" s="60">
+      <c r="AB108" s="43">
         <f t="shared" si="86"/>
         <v>23881000000</v>
       </c>
-      <c r="AC108" s="60">
+      <c r="AC108" s="43">
         <f t="shared" si="86"/>
         <v>29474000000</v>
       </c>
-      <c r="AD108" s="60">
+      <c r="AD108" s="43">
         <f t="shared" si="86"/>
         <v>37416000000</v>
       </c>
-      <c r="AE108" s="60">
+      <c r="AE108" s="43">
         <f>AE107+AE106</f>
-        <v>594369290837.73242</v>
-      </c>
-      <c r="AF108" s="28" t="s">
+        <v>601861559605.19299</v>
+      </c>
+      <c r="AF108" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AG108" s="31" t="s">
+      <c r="AG108" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AH108" s="32">
+      <c r="AH108" s="64">
         <f>AH105</f>
-        <v>0.11790733832020799</v>
+        <v>0.11664737198017376</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12612,82 +12595,82 @@
       <c r="AB109" s="69"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="33" t="s">
+      <c r="AA110" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="AB110" s="34">
+      <c r="AB110" s="26">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>420165726406.9657</v>
+        <v>426646725149.75769</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="33" t="s">
+      <c r="AA111" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="AB111" s="34">
+      <c r="AB111" s="26">
         <f>Z40</f>
         <v>13296000000</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="33" t="s">
+      <c r="AA112" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="AB112" s="34">
+      <c r="AB112" s="26">
         <f>AH99</f>
         <v>11855000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="33" t="s">
+      <c r="AA113" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="AB113" s="34">
+      <c r="AB113" s="26">
         <f>AB110+AB111-AB112</f>
-        <v>421606726406.9657</v>
+        <v>428087725149.75769</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="33" t="s">
+      <c r="AA114" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="AB114" s="45">
+      <c r="AB114" s="37">
         <f>Z34*(1+(5*AF16))</f>
         <v>2486984027.9409657</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="35" t="s">
+      <c r="AA115" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="AB115" s="36">
+      <c r="AB115" s="28">
         <f>AB113/AB114</f>
-        <v>169.52530521718876</v>
+        <v>172.13127239268275</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="33" t="s">
+      <c r="AA116" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="AB116" s="55" cm="1">
+      <c r="AB116" s="38" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>406.32</v>
+        <v>423.02</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="37" t="s">
+      <c r="AA117" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AB117" s="38">
+      <c r="AB117" s="30">
         <f>AB115/AB116-1</f>
-        <v>-0.58277883142058284</v>
+        <v>-0.59308951729780446</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="37" t="s">
+      <c r="AA118" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="AB118" s="39" t="str">
+      <c r="AB118" s="31" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7689BBC9-CC94-AC46-9315-5F7D87EE7A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE04F05-F679-DD40-92F0-D6456E258740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2335,7 +2335,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2349,10 +2348,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2366,14 +2367,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2383,6 +2384,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2510,11 +2512,11 @@
     <v>Powered by Refinitiv</v>
     <v>439.9</v>
     <v>108.13</v>
-    <v>1.742</v>
-    <v>14.8</v>
-    <v>3.6255000000000003E-2</v>
-    <v>-0.09</v>
-    <v>-2.128E-4</v>
+    <v>1.7507999999999999</v>
+    <v>4</v>
+    <v>9.500999999999999E-3</v>
+    <v>0.72</v>
+    <v>1.694E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2522,25 +2524,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>425.5</v>
+    <v>432.14</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45107.999993425779</v>
+    <v>45114.999988610936</v>
     <v>0</v>
-    <v>415.01</v>
-    <v>1044859000000</v>
+    <v>421.8</v>
+    <v>1049824000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>416.8</v>
-    <v>212.15379999999999</v>
-    <v>408.22</v>
-    <v>423.02</v>
-    <v>422.93</v>
+    <v>423.22</v>
+    <v>218.81120000000001</v>
+    <v>421.03</v>
+    <v>425.03</v>
+    <v>425.75</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>50114775</v>
-    <v>59730334</v>
+    <v>35588147</v>
+    <v>49426279</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -3128,18 +3130,18 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="bottomRight" activeCell="AB92" sqref="AB92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="26" width="15" customWidth="1"/>
-    <col min="27" max="34" width="21" customWidth="1"/>
-    <col min="35" max="35" width="20" customWidth="1"/>
+    <col min="27" max="31" width="21" customWidth="1"/>
+    <col min="32" max="35" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -3457,107 +3459,107 @@
         <v>0.86255685032858942</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:N4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:Z4" si="0">(F3/E3)-1</f>
         <v>0.39429531549043384</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>-4.5302121504288917E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>0.10262953627235061</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>0.18191442628056365</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>0.29174045234073342</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>0.33534238951032846</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>-0.16423230661857657</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>-2.8735197565797566E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>6.5193923242380381E-2</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" ref="O4" si="1">(O3/N3)-1</f>
+      <c r="O4" s="15">
+        <f t="shared" si="0"/>
         <v>0.12830407960468593</v>
       </c>
-      <c r="P4" s="16">
-        <f t="shared" ref="P4" si="2">(P3/O3)-1</f>
+      <c r="P4" s="15">
+        <f t="shared" si="0"/>
         <v>7.0593782282331041E-2</v>
       </c>
-      <c r="Q4" s="16">
-        <f t="shared" ref="Q4" si="3">(Q3/P3)-1</f>
+      <c r="Q4" s="15">
+        <f t="shared" si="0"/>
         <v>-3.5044726142183014E-2</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" ref="R4" si="4">(R3/Q3)-1</f>
+      <c r="R4" s="15">
+        <f t="shared" si="0"/>
         <v>0.13349234243112007</v>
       </c>
-      <c r="S4" s="16">
-        <f t="shared" ref="S4" si="5">(S3/R3)-1</f>
+      <c r="S4" s="15">
+        <f t="shared" si="0"/>
         <v>7.0168217200145211E-2</v>
       </c>
-      <c r="T4" s="16">
-        <f t="shared" ref="T4" si="6">(T3/S3)-1</f>
+      <c r="T4" s="15">
+        <f t="shared" si="0"/>
         <v>0.37924151696606789</v>
       </c>
-      <c r="U4" s="16">
-        <f t="shared" ref="U4" si="7">(U3/T3)-1</f>
+      <c r="U4" s="15">
+        <f t="shared" si="0"/>
         <v>0.40578871201157751</v>
       </c>
-      <c r="V4" s="16">
-        <f t="shared" ref="V4" si="8">(V3/U3)-1</f>
+      <c r="V4" s="15">
+        <f t="shared" si="0"/>
         <v>0.20609429689108505</v>
       </c>
-      <c r="W4" s="16">
-        <f t="shared" ref="W4" si="9">(W3/V3)-1</f>
+      <c r="W4" s="15">
+        <f t="shared" si="0"/>
         <v>-6.8111983612154314E-2</v>
       </c>
-      <c r="X4" s="16">
-        <f t="shared" ref="X4" si="10">(X3/W3)-1</f>
+      <c r="X4" s="15">
+        <f t="shared" si="0"/>
         <v>0.52729437625938824</v>
       </c>
-      <c r="Y4" s="16">
-        <f t="shared" ref="Y4" si="11">(Y3/X3)-1</f>
+      <c r="Y4" s="15">
+        <f t="shared" si="0"/>
         <v>0.61403298350824587</v>
       </c>
-      <c r="Z4" s="16">
-        <f t="shared" ref="Z4:AE4" si="12">(Z3/Y3)-1</f>
+      <c r="Z4" s="15">
+        <f t="shared" si="0"/>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AA4:AE4" si="1">(AA3/Z3)-1</f>
         <v>0.57611032846444732</v>
       </c>
       <c r="AB4" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0.22778378886954886</v>
       </c>
       <c r="AC4" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0.21738380780872824</v>
       </c>
       <c r="AD4" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0.28699346919505864</v>
       </c>
       <c r="AE4" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0.27045071042527691</v>
       </c>
       <c r="AF4" s="34">
@@ -3937,99 +3939,99 @@
         <v>0.16578599735799207</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:Z9" si="13">C8/C3</f>
+        <f t="shared" ref="C9:Z9" si="2">C8/C3</f>
         <v>0.12656875834445927</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.11756049527788658</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.11239376372336471</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.1177686523899328</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.14809662386961758</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.16671567083724495</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.14820933902487995</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.18035461101528918</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.16878004617044018</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.24990196676709903</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.27321990894182829</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.23955855952726673</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.25078102918260198</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.26804658425072525</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.32343380235448393</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.29044600381885577</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.26566866267465072</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.21172214182344429</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.18499073502161828</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.20279959030385797</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.25911339073090311</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.2353223388305847</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.19573456193802483</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.27207681471046191</v>
       </c>
       <c r="AF9" s="32" t="s">
@@ -4322,99 +4324,99 @@
         <v>0.12483487450462351</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:Z13" si="14">C12/C3</f>
+        <f t="shared" ref="C13:Z13" si="3">C12/C3</f>
         <v>9.9065420560747658E-2</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>7.9477575401488448E-2</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>7.0965358156543659E-2</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.10848847860139611</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>9.0649471048221422E-2</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>9.9893384834975341E-2</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>8.6055528358744235E-2</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>9.5650669274442435E-2</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>8.3286642296222901E-2</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.10576260219763792</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.11033310335808949</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.11811360510754212</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.10145575335235985</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.10065560648564691</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.10549271432936529</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.10269406838438989</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.12015968063872255</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>9.5947901591895798E-2</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>8.3899526456660489E-2</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>8.4585182656196647E-2</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.10010991023997069</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0.11634182908545727</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>8.0478561343538674E-2</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>9.0457477570994288E-2</v>
       </c>
       <c r="AF13" s="34">
@@ -4691,15 +4693,15 @@
       </c>
       <c r="AG16" s="47">
         <f>AH101/Z3</f>
-        <v>38.735782605471933</v>
+        <v>38.919848743234226</v>
       </c>
       <c r="AH16" s="47">
         <f>AH101/Z28</f>
-        <v>239.20764652014651</v>
+        <v>240.34432234432234</v>
       </c>
       <c r="AI16" s="48">
         <f>AH101/Z107</f>
-        <v>274.38524159663865</v>
+        <v>275.68907563025209</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4974,15 +4976,15 @@
       </c>
       <c r="AG19" s="47">
         <f>AH101/AA3</f>
-        <v>24.576821752834359</v>
+        <v>24.693606811873735</v>
       </c>
       <c r="AH19" s="47">
         <f>AB116/AA31</f>
-        <v>55.224543080939945</v>
+        <v>55.48694516971279</v>
       </c>
       <c r="AI19" s="49">
         <f>AH101/AA105</f>
-        <v>271.02362547778381</v>
+        <v>272.31148565843705</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,107 +5005,107 @@
         <v>0.81969287469287466</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:I20" si="15">(F19/E19)-1</f>
+        <f t="shared" ref="F20:I20" si="4">(F19/E19)-1</f>
         <v>-0.29527149733667291</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>-0.18877920037552753</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>0.34648472788894735</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1.0092702221520597</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" ref="J20" si="16">(J19/I19)-1</f>
+        <f t="shared" ref="J20" si="5">(J19/I19)-1</f>
         <v>0.31547060441119346</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" ref="K20" si="17">(K19/J19)-1</f>
+        <f t="shared" ref="K20" si="6">(K19/J19)-1</f>
         <v>0.71636642964034603</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" ref="L20" si="18">(L19/K19)-1</f>
+        <f t="shared" ref="L20" si="7">(L19/K19)-1</f>
         <v>-0.86267330283325905</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" ref="M20" si="19">(M19/L19)-1</f>
+        <f t="shared" ref="M20" si="8">(M19/L19)-1</f>
         <v>-0.17159971563113696</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" ref="N20" si="20">(N19/M19)-1</f>
+        <f t="shared" ref="N20" si="9">(N19/M19)-1</f>
         <v>2.9194918854618064</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" ref="O20" si="21">(O19/N19)-1</f>
+        <f t="shared" ref="O20" si="10">(O19/N19)-1</f>
         <v>0.88753156942020661</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" ref="P20" si="22">(P19/O19)-1</f>
+        <f t="shared" ref="P20" si="11">(P19/O19)-1</f>
         <v>2.3978683572798642E-2</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" ref="Q20" si="23">(Q19/P19)-1</f>
+        <f t="shared" ref="Q20" si="12">(Q19/P19)-1</f>
         <v>-0.14774307736482239</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" ref="R20" si="24">(R19/Q19)-1</f>
+        <f t="shared" ref="R20" si="13">(R19/Q19)-1</f>
         <v>0.34381880515105046</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" ref="S20" si="25">(S19/R19)-1</f>
+        <f t="shared" ref="S20" si="14">(S19/R19)-1</f>
         <v>-3.3389678129535527E-2</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" ref="T20" si="26">(T19/S19)-1</f>
+        <f t="shared" ref="T20" si="15">(T19/S19)-1</f>
         <v>1.1783181357649442</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" ref="U20" si="27">(U19/T19)-1</f>
+        <f t="shared" ref="U20" si="16">(U19/T19)-1</f>
         <v>0.60744186046511639</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" ref="V20" si="28">(V19/U19)-1</f>
+        <f t="shared" ref="V20" si="17">(V19/U19)-1</f>
         <v>0.21990740740740744</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" ref="W20" si="29">(W19/V19)-1</f>
+        <f t="shared" ref="W20" si="18">(W19/V19)-1</f>
         <v>-0.19283681214421255</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" ref="X20" si="30">(X19/W19)-1</f>
+        <f t="shared" ref="X20" si="19">(X19/W19)-1</f>
         <v>0.67234792829856005</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" ref="Y20" si="31">(Y19/X19)-1</f>
+        <f t="shared" ref="Y20" si="20">(Y19/X19)-1</f>
         <v>0.99455280267088386</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" ref="Z20" si="32">(Z19/Y19)-1</f>
+        <f t="shared" ref="Z20" si="21">(Z19/Y19)-1</f>
         <v>-0.43960884503567965</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" ref="AA20" si="33">(AA19/Z19)-1</f>
+        <f t="shared" ref="AA20" si="22">(AA19/Z19)-1</f>
         <v>2.0471623958497092</v>
       </c>
       <c r="AB20" s="16">
-        <f t="shared" ref="AB20" si="34">(AB19/AA19)-1</f>
+        <f t="shared" ref="AB20" si="23">(AB19/AA19)-1</f>
         <v>-0.12113707888355774</v>
       </c>
       <c r="AC20" s="16">
-        <f t="shared" ref="AC20" si="35">(AC19/AB19)-1</f>
+        <f t="shared" ref="AC20" si="24">(AC19/AB19)-1</f>
         <v>0.15861461696507195</v>
       </c>
       <c r="AD20" s="16">
-        <f t="shared" ref="AD20" si="36">(AD19/AC19)-1</f>
+        <f t="shared" ref="AD20" si="25">(AD19/AC19)-1</f>
         <v>0.69959973653544094</v>
       </c>
       <c r="AE20" s="16">
-        <f t="shared" ref="AE20" si="37">(AE19/AD19)-1</f>
+        <f t="shared" ref="AE20" si="26">(AE19/AD19)-1</f>
         <v>0.17233566850499327</v>
       </c>
       <c r="AH20" s="15"/>
@@ -5193,19 +5195,19 @@
         <v>0.4559204026908783</v>
       </c>
       <c r="AB21" s="40">
-        <f t="shared" ref="AB21:AE21" si="38">AB19/AB3</f>
+        <f t="shared" ref="AB21:AE21" si="27">AB19/AB3</f>
         <v>0.32635350013410475</v>
       </c>
       <c r="AC21" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>0.31059878826028797</v>
       </c>
       <c r="AD21" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>0.41017583331295393</v>
       </c>
       <c r="AE21" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>0.37849855630413859</v>
       </c>
       <c r="AH21" s="32" t="s">
@@ -5301,11 +5303,11 @@
       <c r="AE22" s="44"/>
       <c r="AH22" s="51">
         <f>(-1*Z98)/AH101</f>
-        <v>3.8091263988729578E-4</v>
+        <v>3.7911116530008841E-4</v>
       </c>
       <c r="AI22" s="52">
         <f>Z107/AH101</f>
-        <v>3.6445108861578451E-3</v>
+        <v>3.6272746669918005E-3</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5846,107 +5848,107 @@
         <v>0.77035532385402794</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:I29" si="39">(F28/E28)-1</f>
+        <f t="shared" ref="F29:I29" si="28">(F28/E28)-1</f>
         <v>-0.48679093848206012</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="28"/>
         <v>-0.18039846253813363</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="28"/>
         <v>0.34852658595251218</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="28"/>
         <v>2.0151261509027862</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" ref="J29" si="40">(J28/I28)-1</f>
+        <f t="shared" ref="J29" si="29">(J28/I28)-1</f>
         <v>0.48332705412676069</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29" si="41">(K28/J28)-1</f>
+        <f t="shared" ref="K29" si="30">(K28/J28)-1</f>
         <v>0.77714923557484505</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29" si="42">(L28/K28)-1</f>
+        <f t="shared" ref="L29" si="31">(L28/K28)-1</f>
         <v>-1.0376621178594487</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" ref="M29" si="43">(M28/L28)-1</f>
+        <f t="shared" ref="M29" si="32">(M28/L28)-1</f>
         <v>1.2631403748210777</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" ref="N29" si="44">(N28/M28)-1</f>
+        <f t="shared" ref="N29" si="33">(N28/M28)-1</f>
         <v>-4.7234471295983056</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" ref="O29" si="45">(O28/N28)-1</f>
+        <f t="shared" ref="O29" si="34">(O28/N28)-1</f>
         <v>1.2954737582264779</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="46">(P28/O28)-1</f>
+        <f t="shared" ref="P29" si="35">(P28/O28)-1</f>
         <v>-3.1929649451892139E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="47">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29" si="36">(Q28/P28)-1</f>
         <v>-0.2178456134362956</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="48">(R28/Q28)-1</f>
+        <f t="shared" ref="R29" si="37">(R28/Q28)-1</f>
         <v>0.43318484511011612</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="49">(S28/R28)-1</f>
+        <f t="shared" ref="S29" si="38">(S28/R28)-1</f>
         <v>-2.6304062722510957E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29" si="50">(T28/S28)-1</f>
+        <f t="shared" ref="T29" si="39">(T28/S28)-1</f>
         <v>1.7133550488599347</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="51">(U28/T28)-1</f>
+        <f t="shared" ref="U29" si="40">(U28/T28)-1</f>
         <v>0.82893157262905159</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="52">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="41">(V28/U28)-1</f>
         <v>0.35904168034131922</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="53">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="42">(W28/V28)-1</f>
         <v>-0.3248007727602028</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="54">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="43">(X28/W28)-1</f>
         <v>0.54935622317596566</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="55">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="44">(Y28/X28)-1</f>
         <v>1.2511542012927053</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="56">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="45">(Z28/Y28)-1</f>
         <v>-0.55209187858900743</v>
       </c>
       <c r="AA29" s="16">
-        <f t="shared" ref="AA29" si="57">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="46">(AA28/Z28)-1</f>
         <v>3.3374542124542126</v>
       </c>
       <c r="AB29" s="16">
-        <f t="shared" ref="AB29" si="58">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29" si="47">(AB28/AA28)-1</f>
         <v>0.28190647102290711</v>
       </c>
       <c r="AC29" s="16">
-        <f t="shared" ref="AC29" si="59">(AC28/AB28)-1</f>
+        <f t="shared" ref="AC29" si="48">(AC28/AB28)-1</f>
         <v>0.20562440811957017</v>
       </c>
       <c r="AD29" s="16">
-        <f t="shared" ref="AD29" si="60">(AD28/AC28)-1</f>
+        <f t="shared" ref="AD29" si="49">(AD28/AC28)-1</f>
         <v>0.19056726204706131</v>
       </c>
       <c r="AE29" s="16">
-        <f t="shared" ref="AE29" si="61">(AE28/AD28)-1</f>
+        <f t="shared" ref="AE29" si="50">(AE28/AD28)-1</f>
         <v>0.32623849000315541</v>
       </c>
       <c r="AH29" s="15"/>
@@ -6036,19 +6038,19 @@
         <v>0.44564143576233711</v>
       </c>
       <c r="AB30" s="40">
-        <f t="shared" ref="AB30:AE30" si="62">AB28/AB3</f>
+        <f t="shared" ref="AB30:AE30" si="51">AB28/AB3</f>
         <v>0.46528602628453197</v>
       </c>
       <c r="AC30" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>0.460791565032654</v>
       </c>
       <c r="AD30" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>0.42626739380303735</v>
       </c>
       <c r="AE30" s="40">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>0.44498556304138592</v>
       </c>
     </row>
@@ -6397,95 +6399,95 @@
         <v>0.31147483922291586</v>
       </c>
       <c r="D35" s="19">
-        <f t="shared" ref="D35:I35" si="63">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:I35" si="52">(D34-C34)/C34</f>
         <v>0.10795666072548654</v>
       </c>
       <c r="E35" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>7.3951310574355153E-2</v>
       </c>
       <c r="F35" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>-1.567157973310709E-2</v>
       </c>
       <c r="G35" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>2.5618641628257301E-2</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>2.229787947647504E-2</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>3.6209065804180866E-2</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" ref="J35" si="64">(J34-I34)/I34</f>
+        <f t="shared" ref="J35" si="53">(J34-I34)/I34</f>
         <v>6.996955446927651E-2</v>
       </c>
       <c r="K35" s="19">
-        <f t="shared" ref="K35" si="65">(K34-J34)/J34</f>
+        <f t="shared" ref="K35" si="54">(K34-J34)/J34</f>
         <v>3.3680993862574046E-2</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" ref="L35" si="66">(L34-K34)/K34</f>
+        <f t="shared" ref="L35" si="55">(L34-K34)/K34</f>
         <v>-9.6592894391592993E-2</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" ref="M35" si="67">(M34-L34)/L34</f>
+        <f t="shared" ref="M35" si="56">(M34-L34)/L34</f>
         <v>2.6417283617270484E-3</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" ref="N35" si="68">(N34-M34)/M34</f>
+        <f t="shared" ref="N35" si="57">(N34-M34)/M34</f>
         <v>7.1164210825111818E-2</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" ref="O35" si="69">(O34-N34)/N34</f>
+        <f t="shared" ref="O35" si="58">(O34-N34)/N34</f>
         <v>4.7032023972114069E-2</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" ref="P35" si="70">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="59">(P34-O34)/O34</f>
         <v>1.3929922076152188E-2</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" ref="Q35" si="71">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35" si="60">(Q34-P34)/P34</f>
         <v>-4.8707351065753322E-2</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" ref="R35" si="72">(R34-Q34)/Q34</f>
+        <f t="shared" ref="R35" si="61">(R34-Q34)/Q34</f>
         <v>-5.2898403241623031E-2</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" ref="S35" si="73">(S34-R34)/R34</f>
+        <f t="shared" ref="S35" si="62">(S34-R34)/R34</f>
         <v>1.0535139627895743E-2</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" ref="T35" si="74">(T34-S34)/S34</f>
+        <f t="shared" ref="T35" si="63">(T34-S34)/S34</f>
         <v>0.14059753954305801</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" ref="U35" si="75">(U34-T34)/T34</f>
+        <f t="shared" ref="U35" si="64">(U34-T34)/T34</f>
         <v>-2.6194144838212634E-2</v>
       </c>
       <c r="V35" s="19">
-        <f t="shared" ref="V35" si="76">(V34-U34)/U34</f>
+        <f t="shared" ref="V35" si="65">(V34-U34)/U34</f>
         <v>-1.1075949367088608E-2</v>
       </c>
       <c r="W35" s="19">
-        <f t="shared" ref="W35" si="77">(W34-V34)/V34</f>
+        <f t="shared" ref="W35" si="66">(W34-V34)/V34</f>
         <v>-1.12E-2</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" ref="X35" si="78">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="67">(X34-W34)/W34</f>
         <v>1.6181229773462782E-2</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" ref="Y35" si="79">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="68">(Y34-X34)/X34</f>
         <v>9.1560509554140124E-3</v>
       </c>
       <c r="Z35" s="19">
-        <f t="shared" ref="Z35" si="80">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35" si="69">(Z34-Y34)/Y34</f>
         <v>-1.1045364891518738E-2</v>
       </c>
     </row>
@@ -10014,103 +10016,103 @@
         <v>106</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:Z80" si="81">B79/B3</f>
+        <f t="shared" ref="B80:Z80" si="70">B79/B3</f>
         <v>0</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>7.2998651713766502E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>2.8321831372877724E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>3.4106149932590119E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>3.1929187677373669E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>3.2999916226046339E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>3.3715852608999626E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>4.0718562874251497E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>3.5745296671490595E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>4.0251183858348777E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>4.7541823147832021E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>7.7303535446052396E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>8.3778110944527737E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>7.4459389165490081E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>0.10043004374582931</v>
       </c>
     </row>
@@ -10795,103 +10797,103 @@
         <v>107</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:Z89" si="82">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Z89" si="71">(-1*B88)/B3</f>
         <v>5.2179656538969617E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>3.0974632843791722E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>4.9409463811637723E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>0.11761840886006349</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>3.3058262418386053E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>6.999882058975998E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>3.3462634693062251E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>3.3506097394143251E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>4.7333606841305526E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>4.581537680643067E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>0.11903263754799832</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>2.332850836253117E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>2.7626718414905389E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>3.4701708133959321E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>4.2827614581607831E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>6.1785954158698857E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>2.6141368580672848E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>1.716566866267465E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>2.5470332850940667E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>6.1045913115091617E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>5.1212017753499491E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>4.478842278805642E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>6.7646176911544231E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>3.6263654603552055E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>6.7954326388373995E-2</v>
       </c>
       <c r="AG89" s="53" t="s">
@@ -11331,7 +11333,7 @@
       </c>
       <c r="AH94" s="57">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11418,7 +11420,7 @@
       </c>
       <c r="AH95" s="58" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.742</v>
+        <v>1.7507999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11591,7 +11593,7 @@
       </c>
       <c r="AH97" s="56">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11773132</v>
+        <v>0.11672737200000001</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11849,7 +11851,7 @@
       </c>
       <c r="AH100" s="56">
         <f>AH99/AH103</f>
-        <v>1.1218740359264665E-2</v>
+        <v>1.1166275305436011E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11936,7 +11938,7 @@
       </c>
       <c r="AH101" s="59" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1044859000000</v>
+        <v>1049824000000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12023,7 +12025,7 @@
       </c>
       <c r="AH102" s="56">
         <f>AH101/AH103</f>
-        <v>0.98878125964073538</v>
+        <v>0.98883372469456399</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12110,7 +12112,7 @@
       </c>
       <c r="AH103" s="60">
         <f>AH99+AH101</f>
-        <v>1056714000000</v>
+        <v>1061679000000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12202,99 +12204,99 @@
         <v>160</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:Y105" si="83">(B22*(1-$AH$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:Y105" si="72">(B22*(1-$AH$91))+B77+B88+B81</f>
         <v>-16197129.873236068</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>7566897.8713226542</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>19194586.223391533</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>14899260.224826574</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>168041061.70772544</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>-139559374.79071993</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>48737423.343697667</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>363395773.25998569</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>262606841.42549634</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>914335469.98325765</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>-323517861.75556087</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>160958428.12724227</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>485106423.34369767</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>686922086.8213346</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>549849770.38985896</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>470231680.69839752</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>620259350.15546525</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>773589571.87275779</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>1179499641.2341545</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>2857429083.9512081</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>2438861755.5608706</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>3327709399.6651521</v>
       </c>
       <c r="X105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>3596301124.1329823</v>
       </c>
       <c r="Y105" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>6426904807.4623299</v>
       </c>
       <c r="Z105" s="1">
@@ -12306,19 +12308,19 @@
         <v>3855232170.8413153</v>
       </c>
       <c r="AB105" s="22">
-        <f t="shared" ref="AB105:AE105" si="84">AA105*(1+$AH$106)</f>
+        <f t="shared" ref="AB105:AE105" si="73">AA105*(1+$AH$106)</f>
         <v>5072500220.261487</v>
       </c>
       <c r="AC105" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="73"/>
         <v>6674113865.0899467</v>
       </c>
       <c r="AD105" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="73"/>
         <v>8781428082.7945709</v>
       </c>
       <c r="AE105" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="73"/>
         <v>11554115007.933548</v>
       </c>
       <c r="AF105" s="23" t="s">
@@ -12329,7 +12331,7 @@
       </c>
       <c r="AH105" s="62">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11664737198017376</v>
+        <v>0.11565970348222518</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12338,99 +12340,99 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:Z106" si="85">(C107/B107)-1</f>
+        <f t="shared" ref="C106:Z106" si="74">(C107/B107)-1</f>
         <v>-1.4387755102040816</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>6.344186046511628</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-1.0085180493983534</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-751.59107806691452</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-1.3859461440549952</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-1.8333418884582811</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>4.6485009008454083</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.20459477437787621</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>1.449787826323115</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-1.1462514238519803</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-3.5911565914976946</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.40882142143215838</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.33312280349606427</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-0.16816519798915142</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-9.5032791719915188E-2</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.35056728050210362</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.39031630015001118</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.3737373737373737</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.94451871657754016</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>8.0440013750429751E-2</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.35921094495704731</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>9.878277153558046E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>0.73242437153813378</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>-0.53172651254303982</v>
       </c>
       <c r="AA106" s="42">
@@ -12544,7 +12546,7 @@
       <c r="AD107" s="23"/>
       <c r="AE107" s="43">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>552464559605.19299</v>
+        <v>558483240681.75366</v>
       </c>
       <c r="AF107" s="24" t="s">
         <v>141</v>
@@ -12558,24 +12560,24 @@
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="AA108" s="43">
-        <f t="shared" ref="AA108:AD108" si="86">AA107+AA106</f>
+        <f t="shared" ref="AA108:AD108" si="75">AA107+AA106</f>
         <v>17409000000</v>
       </c>
       <c r="AB108" s="43">
-        <f t="shared" si="86"/>
+        <f t="shared" si="75"/>
         <v>23881000000</v>
       </c>
       <c r="AC108" s="43">
-        <f t="shared" si="86"/>
+        <f t="shared" si="75"/>
         <v>29474000000</v>
       </c>
       <c r="AD108" s="43">
-        <f t="shared" si="86"/>
+        <f t="shared" si="75"/>
         <v>37416000000</v>
       </c>
       <c r="AE108" s="43">
         <f>AE107+AE106</f>
-        <v>601861559605.19299</v>
+        <v>607880240681.75366</v>
       </c>
       <c r="AF108" s="24" t="s">
         <v>137</v>
@@ -12585,7 +12587,7 @@
       </c>
       <c r="AH108" s="64">
         <f>AH105</f>
-        <v>0.11664737198017376</v>
+        <v>0.11565970348222518</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12600,7 +12602,7 @@
       </c>
       <c r="AB110" s="26">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>426646725149.75769</v>
+        <v>431855379957.13098</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12627,7 +12629,7 @@
       </c>
       <c r="AB113" s="26">
         <f>AB110+AB111-AB112</f>
-        <v>428087725149.75769</v>
+        <v>433296379957.13098</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12645,7 +12647,7 @@
       </c>
       <c r="AB115" s="28">
         <f>AB113/AB114</f>
-        <v>172.13127239268275</v>
+        <v>174.22563839940202</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12654,7 +12656,7 @@
       </c>
       <c r="AB116" s="38" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>423.02</v>
+        <v>425.03</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12663,7 +12665,7 @@
       </c>
       <c r="AB117" s="30">
         <f>AB115/AB116-1</f>
-        <v>-0.59308951729780446</v>
+        <v>-0.59008625650094815</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE04F05-F679-DD40-92F0-D6456E258740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172503E-9C4C-264B-B13E-FF51F067F622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -907,12 +907,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1061,6 +1070,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,7 +1111,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1116,14 +1127,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45186226319659389"/>
-          <c:y val="2.802547770700637E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1137,7 +1140,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1157,10 +1160,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.8160170740727073E-2"/>
-          <c:y val="0.1331083805607102"/>
-          <c:w val="0.86925468758146107"/>
-          <c:h val="0.69722734339736192"/>
+          <c:x val="9.6730897009966774E-2"/>
+          <c:y val="0.15057669430559772"/>
+          <c:w val="0.83150830564784062"/>
+          <c:h val="0.64210678982562797"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1214,6 +1217,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$Z$3</c:f>
@@ -1300,7 +1387,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0290-1345-98E0-31F03E0C85C5}"/>
+              <c16:uniqueId val="{00000000-9FFA-CF4E-A07D-191E46CD0813}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1309,11 +1396,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1351,93 +1438,177 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$Z$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$Z$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>11000000</c:v>
+                  <c:v>4100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65900000</c:v>
+                  <c:v>38100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162800000</c:v>
+                  <c:v>99937000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296246000</c:v>
+                  <c:v>176924000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208773000</c:v>
+                  <c:v>90799000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169361000</c:v>
+                  <c:v>74419000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>228042000</c:v>
+                  <c:v>100356000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>458198000</c:v>
+                  <c:v>302586000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>602746000</c:v>
+                  <c:v>448834000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1034533000</c:v>
+                  <c:v>797645000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142069000</c:v>
+                  <c:v>-30041000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117690000</c:v>
+                  <c:v>-67987000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>461285000</c:v>
+                  <c:v>253146000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>870690000</c:v>
+                  <c:v>581090000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>891568000</c:v>
+                  <c:v>562536000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>759845000</c:v>
+                  <c:v>439990000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1021094000</c:v>
+                  <c:v>630587000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>987000000</c:v>
+                  <c:v>614000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2150000000</c:v>
+                  <c:v>1666000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3456000000</c:v>
+                  <c:v>3047000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4216000000</c:v>
+                  <c:v>4141000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3403000000</c:v>
+                  <c:v>2796000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5691000000</c:v>
+                  <c:v>4332000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11351000000</c:v>
+                  <c:v>9752000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6361000000</c:v>
+                  <c:v>4368000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0290-1345-98E0-31F03E0C85C5}"/>
+              <c16:uniqueId val="{00000001-9FFA-CF4E-A07D-191E46CD0813}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1488,6 +1659,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$107:$Z$107</c:f>
@@ -1574,7 +1829,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0290-1345-98E0-31F03E0C85C5}"/>
+              <c16:uniqueId val="{00000002-9FFA-CF4E-A07D-191E46CD0813}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1588,11 +1843,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="918763232"/>
-        <c:axId val="918764960"/>
+        <c:axId val="1134264928"/>
+        <c:axId val="1054841840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="918763232"/>
+        <c:axId val="1134264928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1875,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1632,7 +1887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918764960"/>
+        <c:crossAx val="1054841840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="918764960"/>
+        <c:axId val="1054841840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1689,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918763232"/>
+        <c:crossAx val="1134264928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,10 +1962,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29050500047111905"/>
-          <c:y val="0.91088239129344506"/>
-          <c:w val="0.41872908794449942"/>
-          <c:h val="5.9937146014642909E-2"/>
+          <c:x val="0.3511722081251471"/>
+          <c:y val="0.89348532901423938"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2290,22 +2545,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>1449917</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C3039D-A9CC-73E9-D241-89C0DC3A2859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8668E3-B437-E162-3282-DF2BDCEE4E2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,8 +2588,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2343,21 +2597,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2367,24 +2622,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2513,10 +2756,8 @@
     <v>439.9</v>
     <v>108.13</v>
     <v>1.7507999999999999</v>
-    <v>4</v>
-    <v>9.500999999999999E-3</v>
-    <v>0.72</v>
-    <v>1.694E-3</v>
+    <v>-3.23</v>
+    <v>-7.5989999999999999E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2524,25 +2765,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>432.14</v>
+    <v>428.11</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.999988610936</v>
+    <v>45117.999990798438</v>
     <v>0</v>
-    <v>421.8</v>
-    <v>1049824000000</v>
+    <v>416.49</v>
+    <v>1041846000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>423.22</v>
-    <v>218.81120000000001</v>
-    <v>421.03</v>
+    <v>426.57</v>
+    <v>219.2114</v>
     <v>425.03</v>
-    <v>425.75</v>
+    <v>421.8</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>35588147</v>
-    <v>49426279</v>
+    <v>62377</v>
+    <v>46839484</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2574,8 +2814,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2596,7 +2834,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2613,7 +2850,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2624,16 +2861,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2699,19 +2933,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2756,9 +2984,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2766,9 +2991,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3130,10 +3352,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB92" sqref="AB92"/>
+      <selection pane="bottomRight" activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3417,16 +3639,16 @@
         <v>42514000000</v>
       </c>
       <c r="AB3" s="21">
-        <v>52198000000</v>
+        <v>52397000000</v>
       </c>
       <c r="AC3" s="21">
-        <v>63545000000</v>
+        <v>63994000000</v>
       </c>
       <c r="AD3" s="21">
-        <v>81782000000</v>
+        <v>90581000000</v>
       </c>
       <c r="AE3" s="21">
-        <v>103900000000</v>
+        <v>110100000000</v>
       </c>
       <c r="AF3" s="32" t="s">
         <v>108</v>
@@ -3548,19 +3770,19 @@
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="1"/>
-        <v>0.22778378886954886</v>
+        <v>0.2324645998965047</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="1"/>
-        <v>0.21738380780872824</v>
+        <v>0.22132946542741005</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="1"/>
-        <v>0.28699346919505864</v>
+        <v>0.41546082445229238</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="1"/>
-        <v>0.27045071042527691</v>
+        <v>0.21548669146951349</v>
       </c>
       <c r="AF4" s="34">
         <f>(Z4+Y4+X4)/3</f>
@@ -4693,15 +4915,15 @@
       </c>
       <c r="AG16" s="47">
         <f>AH101/Z3</f>
-        <v>38.919848743234226</v>
+        <v>38.624082449766441</v>
       </c>
       <c r="AH16" s="47">
         <f>AH101/Z28</f>
-        <v>240.34432234432234</v>
+        <v>238.51785714285714</v>
       </c>
       <c r="AI16" s="48">
         <f>AH101/Z107</f>
-        <v>275.68907563025209</v>
+        <v>273.594012605042</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4956,19 +5178,19 @@
         <v>6361000000</v>
       </c>
       <c r="AA19" s="39">
-        <v>19383000000</v>
+        <v>18997000000</v>
       </c>
       <c r="AB19" s="39">
-        <v>17035000000</v>
+        <v>23556000000</v>
       </c>
       <c r="AC19" s="39">
-        <v>19737000000</v>
+        <v>29286000000</v>
       </c>
       <c r="AD19" s="39">
-        <v>33545000000</v>
+        <v>37997000000</v>
       </c>
       <c r="AE19" s="39">
-        <v>39326000000</v>
+        <v>46087000000</v>
       </c>
       <c r="AF19" s="36">
         <f>Z40-Z56-Z61</f>
@@ -4976,15 +5198,15 @@
       </c>
       <c r="AG19" s="47">
         <f>AH101/AA3</f>
-        <v>24.693606811873735</v>
+        <v>24.505950980853367</v>
       </c>
       <c r="AH19" s="47">
-        <f>AB116/AA31</f>
-        <v>55.48694516971279</v>
+        <f>AH101/AA28</f>
+        <v>54.626992449664428</v>
       </c>
       <c r="AI19" s="49">
-        <f>AH101/AA105</f>
-        <v>272.31148565843705</v>
+        <f>AH101/AA106</f>
+        <v>59.401676264325218</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,25 +5310,25 @@
         <f t="shared" ref="Z20" si="21">(Z19/Y19)-1</f>
         <v>-0.43960884503567965</v>
       </c>
-      <c r="AA20" s="16">
+      <c r="AA20" s="74">
         <f t="shared" ref="AA20" si="22">(AA19/Z19)-1</f>
-        <v>2.0471623958497092</v>
-      </c>
-      <c r="AB20" s="16">
+        <v>1.9864801131897498</v>
+      </c>
+      <c r="AB20" s="74">
         <f t="shared" ref="AB20" si="23">(AB19/AA19)-1</f>
-        <v>-0.12113707888355774</v>
-      </c>
-      <c r="AC20" s="16">
+        <v>0.23998526083065741</v>
+      </c>
+      <c r="AC20" s="74">
         <f t="shared" ref="AC20" si="24">(AC19/AB19)-1</f>
-        <v>0.15861461696507195</v>
-      </c>
-      <c r="AD20" s="16">
+        <v>0.24325012735608764</v>
+      </c>
+      <c r="AD20" s="74">
         <f t="shared" ref="AD20" si="25">(AD19/AC19)-1</f>
-        <v>0.69959973653544094</v>
-      </c>
-      <c r="AE20" s="16">
+        <v>0.29744587857679439</v>
+      </c>
+      <c r="AE20" s="74">
         <f t="shared" ref="AE20" si="26">(AE19/AD19)-1</f>
-        <v>0.17233566850499327</v>
+        <v>0.21291154564834058</v>
       </c>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
@@ -5190,25 +5412,25 @@
       <c r="Z21" s="2">
         <v>0.23580000000000001</v>
       </c>
-      <c r="AA21" s="40">
+      <c r="AA21" s="75">
         <f>AA19/AA3</f>
-        <v>0.4559204026908783</v>
-      </c>
-      <c r="AB21" s="40">
+        <v>0.44684104059839114</v>
+      </c>
+      <c r="AB21" s="75">
         <f t="shared" ref="AB21:AE21" si="27">AB19/AB3</f>
-        <v>0.32635350013410475</v>
-      </c>
-      <c r="AC21" s="40">
+        <v>0.44956772334293948</v>
+      </c>
+      <c r="AC21" s="75">
         <f t="shared" si="27"/>
-        <v>0.31059878826028797</v>
-      </c>
-      <c r="AD21" s="40">
+        <v>0.45763665343625964</v>
+      </c>
+      <c r="AD21" s="75">
         <f t="shared" si="27"/>
-        <v>0.41017583331295393</v>
-      </c>
-      <c r="AE21" s="40">
+        <v>0.41948090659189013</v>
+      </c>
+      <c r="AE21" s="75">
         <f t="shared" si="27"/>
-        <v>0.37849855630413859</v>
+        <v>0.41859218891916439</v>
       </c>
       <c r="AH21" s="32" t="s">
         <v>165</v>
@@ -5303,11 +5525,11 @@
       <c r="AE22" s="44"/>
       <c r="AH22" s="51">
         <f>(-1*Z98)/AH101</f>
-        <v>3.7911116530008841E-4</v>
+        <v>3.820142324297449E-4</v>
       </c>
       <c r="AI22" s="52">
         <f>Z107/AH101</f>
-        <v>3.6272746669918005E-3</v>
+        <v>3.6550507464634886E-3</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5815,19 +6037,19 @@
         <v>4368000000</v>
       </c>
       <c r="AA28" s="45">
-        <v>18946000000</v>
+        <v>19072000000</v>
       </c>
       <c r="AB28" s="45">
-        <v>24287000000</v>
+        <v>24510000000</v>
       </c>
       <c r="AC28" s="45">
-        <v>29281000000</v>
+        <v>29408000000</v>
       </c>
       <c r="AD28" s="45">
-        <v>34861000000</v>
+        <v>38575000000</v>
       </c>
       <c r="AE28" s="45">
-        <v>46234000000</v>
+        <v>50368000000</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5933,23 +6155,23 @@
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="46">(AA28/Z28)-1</f>
-        <v>3.3374542124542126</v>
+        <v>3.3663003663003659</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="47">(AB28/AA28)-1</f>
-        <v>0.28190647102290711</v>
+        <v>0.28513003355704702</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" ref="AC29" si="48">(AC28/AB28)-1</f>
-        <v>0.20562440811957017</v>
+        <v>0.19983680130558956</v>
       </c>
       <c r="AD29" s="16">
         <f t="shared" ref="AD29" si="49">(AD28/AC28)-1</f>
-        <v>0.19056726204706131</v>
+        <v>0.31171789989118603</v>
       </c>
       <c r="AE29" s="16">
         <f t="shared" ref="AE29" si="50">(AE28/AD28)-1</f>
-        <v>0.32623849000315541</v>
+        <v>0.30571613739468573</v>
       </c>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -6035,23 +6257,23 @@
       </c>
       <c r="AA30" s="40">
         <f>AA28/AA3</f>
-        <v>0.44564143576233711</v>
+        <v>0.44860516535729406</v>
       </c>
       <c r="AB30" s="40">
         <f t="shared" ref="AB30:AE30" si="51">AB28/AB3</f>
-        <v>0.46528602628453197</v>
+        <v>0.46777487260721035</v>
       </c>
       <c r="AC30" s="40">
         <f t="shared" si="51"/>
-        <v>0.460791565032654</v>
+        <v>0.45954308216395284</v>
       </c>
       <c r="AD30" s="40">
         <f t="shared" si="51"/>
-        <v>0.42626739380303735</v>
+        <v>0.42586193572603526</v>
       </c>
       <c r="AE30" s="40">
         <f t="shared" si="51"/>
-        <v>0.44498556304138592</v>
+        <v>0.45747502270663032</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -6134,19 +6356,19 @@
         <v>1.76</v>
       </c>
       <c r="AA31" s="41">
-        <v>7.66</v>
+        <v>7.71</v>
       </c>
       <c r="AB31" s="41">
-        <v>9.82</v>
+        <v>9.91</v>
       </c>
       <c r="AC31" s="41">
-        <v>11.84</v>
+        <v>11.89</v>
       </c>
       <c r="AD31" s="41">
-        <v>14.1</v>
+        <v>15.6</v>
       </c>
       <c r="AE31" s="41">
-        <v>18.690000000000001</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11333,7 +11555,7 @@
       </c>
       <c r="AH94" s="57">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11593,7 +11815,7 @@
       </c>
       <c r="AH97" s="56">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11672737200000001</v>
+        <v>0.116674816</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11851,7 +12073,7 @@
       </c>
       <c r="AH100" s="56">
         <f>AH99/AH103</f>
-        <v>1.1166275305436011E-2</v>
+        <v>1.1250819729695615E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11938,7 +12160,7 @@
       </c>
       <c r="AH101" s="59" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1049824000000</v>
+        <v>1041846000000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12025,7 +12247,7 @@
       </c>
       <c r="AH102" s="56">
         <f>AH101/AH103</f>
-        <v>0.98883372469456399</v>
+        <v>0.98874918027030434</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12112,7 +12334,7 @@
       </c>
       <c r="AH103" s="60">
         <f>AH99+AH101</f>
-        <v>1061679000000</v>
+        <v>1053701000000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12305,23 +12527,23 @@
       </c>
       <c r="AA105" s="22">
         <f>Z105*(1+$AH$106)</f>
-        <v>3855232170.8413153</v>
+        <v>3903361497.6581106</v>
       </c>
       <c r="AB105" s="22">
         <f t="shared" ref="AB105:AE105" si="73">AA105*(1+$AH$106)</f>
-        <v>5072500220.261487</v>
+        <v>5199942577.1930332</v>
       </c>
       <c r="AC105" s="22">
         <f t="shared" si="73"/>
-        <v>6674113865.0899467</v>
+        <v>6927209489.1358862</v>
       </c>
       <c r="AD105" s="22">
         <f t="shared" si="73"/>
-        <v>8781428082.7945709</v>
+        <v>9228223310.9346333</v>
       </c>
       <c r="AE105" s="22">
         <f t="shared" si="73"/>
-        <v>11554115007.933548</v>
+        <v>12293565772.774168</v>
       </c>
       <c r="AF105" s="23" t="s">
         <v>163</v>
@@ -12331,7 +12553,7 @@
       </c>
       <c r="AH105" s="62">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11565970348222518</v>
+        <v>0.11559965502653344</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12436,19 +12658,19 @@
         <v>-0.53172651254303982</v>
       </c>
       <c r="AA106" s="42">
-        <v>17409000000</v>
+        <v>17539000000</v>
       </c>
       <c r="AB106" s="42">
-        <v>23881000000</v>
+        <v>23824000000</v>
       </c>
       <c r="AC106" s="42">
-        <v>29474000000</v>
+        <v>29460000000</v>
       </c>
       <c r="AD106" s="42">
-        <v>37416000000</v>
+        <v>36614000000</v>
       </c>
       <c r="AE106" s="42">
-        <v>49397000000</v>
+        <v>50152000000</v>
       </c>
       <c r="AF106" s="23" t="s">
         <v>164</v>
@@ -12458,7 +12680,7 @@
       </c>
       <c r="AH106" s="64">
         <f>(SUM(AA4:AE4)/5)</f>
-        <v>0.31574442095261201</v>
+        <v>0.33217038194203358</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12546,7 +12768,7 @@
       <c r="AD107" s="23"/>
       <c r="AE107" s="43">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>558483240681.75366</v>
+        <v>567395096426.63696</v>
       </c>
       <c r="AF107" s="24" t="s">
         <v>141</v>
@@ -12561,23 +12783,23 @@
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="AA108" s="43">
         <f t="shared" ref="AA108:AD108" si="75">AA107+AA106</f>
-        <v>17409000000</v>
+        <v>17539000000</v>
       </c>
       <c r="AB108" s="43">
         <f t="shared" si="75"/>
-        <v>23881000000</v>
+        <v>23824000000</v>
       </c>
       <c r="AC108" s="43">
         <f t="shared" si="75"/>
-        <v>29474000000</v>
+        <v>29460000000</v>
       </c>
       <c r="AD108" s="43">
         <f t="shared" si="75"/>
-        <v>37416000000</v>
+        <v>36614000000</v>
       </c>
       <c r="AE108" s="43">
         <f>AE107+AE106</f>
-        <v>607880240681.75366</v>
+        <v>617547096426.63696</v>
       </c>
       <c r="AF108" s="24" t="s">
         <v>137</v>
@@ -12587,7 +12809,7 @@
       </c>
       <c r="AH108" s="64">
         <f>AH105</f>
-        <v>0.11565970348222518</v>
+        <v>0.11559965502653344</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12602,7 +12824,7 @@
       </c>
       <c r="AB110" s="26">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>431855379957.13098</v>
+        <v>437098715169.01172</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12629,7 +12851,7 @@
       </c>
       <c r="AB113" s="26">
         <f>AB110+AB111-AB112</f>
-        <v>433296379957.13098</v>
+        <v>438539715169.01172</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12647,7 +12869,7 @@
       </c>
       <c r="AB115" s="28">
         <f>AB113/AB114</f>
-        <v>174.22563839940202</v>
+        <v>176.33394916978594</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12656,7 +12878,7 @@
       </c>
       <c r="AB116" s="38" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>425.03</v>
+        <v>421.8</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12665,7 +12887,7 @@
       </c>
       <c r="AB117" s="30">
         <f>AB115/AB116-1</f>
-        <v>-0.59008625650094815</v>
+        <v>-0.58194891140401628</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172503E-9C4C-264B-B13E-FF51F067F622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA6DE35-0F0C-3A47-9C68-B3E5117516A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -843,46 +843,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -921,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -961,40 +921,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1008,16 +949,16 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1052,10 +993,20 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1070,8 +1021,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2598,6 +2547,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2609,7 +2559,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2628,6 +2578,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2753,11 +2704,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>439.9</v>
+    <v>480.88</v>
     <v>108.13</v>
-    <v>1.7507999999999999</v>
-    <v>-3.23</v>
-    <v>-7.5989999999999999E-3</v>
+    <v>1.7499</v>
+    <v>10.67</v>
+    <v>2.3917000000000001E-2</v>
+    <v>3.31</v>
+    <v>7.2459999999999998E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2765,24 +2718,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>428.11</v>
+    <v>461.82499999999999</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45117.999990798438</v>
+    <v>45132.977510277342</v>
     <v>0</v>
-    <v>416.49</v>
-    <v>1041846000000</v>
+    <v>449.23</v>
+    <v>1101916000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>426.57</v>
-    <v>219.2114</v>
-    <v>425.03</v>
-    <v>421.8</v>
+    <v>449.41</v>
+    <v>231.85059999999999</v>
+    <v>446.12</v>
+    <v>456.79</v>
+    <v>460.1</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>62377</v>
-    <v>46839484</v>
+    <v>34755045</v>
+    <v>47654437</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2814,6 +2768,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2834,6 +2790,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2850,7 +2807,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2861,13 +2818,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2933,13 +2893,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2984,6 +2950,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2991,6 +2960,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3352,10 +3324,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH34" sqref="AH34"/>
+      <selection pane="bottomRight" activeCell="AA101" sqref="AA101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3650,16 +3622,16 @@
       <c r="AE3" s="21">
         <v>110100000000</v>
       </c>
-      <c r="AF3" s="32" t="s">
+      <c r="AF3" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AG3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="33" t="s">
+      <c r="AH3" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="26" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3784,19 +3756,19 @@
         <f t="shared" si="1"/>
         <v>0.21548669146951349</v>
       </c>
-      <c r="AF4" s="34">
+      <c r="AF4" s="27">
         <f>(Z4+Y4+X4)/3</f>
         <v>0.38118556093218037</v>
       </c>
-      <c r="AG4" s="34">
+      <c r="AG4" s="27">
         <f>(Z20+Y20+X20)/3</f>
         <v>0.40909729531125477</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="27">
         <f>(Z29+Y29+X29)/3</f>
         <v>0.41613951529322118</v>
       </c>
-      <c r="AI4" s="34">
+      <c r="AI4" s="27">
         <f>(Z106+Y106+X106)/3</f>
         <v>9.9826876843558135E-2</v>
       </c>
@@ -3963,16 +3935,16 @@
       <c r="Z6" s="10">
         <v>15356000000</v>
       </c>
-      <c r="AF6" s="32" t="s">
+      <c r="AF6" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AG6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="33" t="s">
+      <c r="AH6" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="AI6" s="33" t="s">
+      <c r="AI6" s="26" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4055,19 +4027,19 @@
       <c r="Z7" s="2">
         <v>0.56930000000000003</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="27">
         <f>Z7</f>
         <v>0.56930000000000003</v>
       </c>
-      <c r="AG7" s="35">
+      <c r="AG7" s="28">
         <f>Z21</f>
         <v>0.23580000000000001</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="AH7" s="28">
         <f>Z30</f>
         <v>0.16189999999999999</v>
       </c>
-      <c r="AI7" s="35">
+      <c r="AI7" s="28">
         <f>Z107/Z3</f>
         <v>0.14117298138948617</v>
       </c>
@@ -4256,16 +4228,16 @@
         <f t="shared" si="2"/>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AF9" s="32" t="s">
+      <c r="AF9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="AG9" s="33" t="s">
+      <c r="AG9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="33" t="s">
+      <c r="AH9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="33" t="s">
+      <c r="AI9" s="26" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4348,19 +4320,19 @@
       <c r="Z10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF10" s="34">
+      <c r="AF10" s="27">
         <f>Z9</f>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AG10" s="35">
+      <c r="AG10" s="28">
         <f>Z13</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AH10" s="35">
+      <c r="AH10" s="28">
         <f>Z80</f>
         <v>0.10043004374582931</v>
       </c>
-      <c r="AI10" s="35">
+      <c r="AI10" s="28">
         <f>Z89</f>
         <v>6.7954326388373995E-2</v>
       </c>
@@ -4524,16 +4496,16 @@
       <c r="Z12" s="1">
         <v>2440000000</v>
       </c>
-      <c r="AF12" s="32" t="s">
+      <c r="AF12" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AG12" s="33" t="s">
+      <c r="AG12" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="33" t="s">
+      <c r="AH12" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AI12" s="33" t="s">
+      <c r="AI12" s="26" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4641,19 +4613,19 @@
         <f t="shared" si="3"/>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AF13" s="34">
+      <c r="AF13" s="27">
         <f>Z28/Z72</f>
         <v>0.19763811592235644</v>
       </c>
-      <c r="AG13" s="35">
+      <c r="AG13" s="28">
         <f>Z28/Z54</f>
         <v>0.10606575688407557</v>
       </c>
-      <c r="AH13" s="35">
+      <c r="AH13" s="28">
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
-      <c r="AI13" s="46">
+      <c r="AI13" s="37">
         <f>Z67/Z72</f>
         <v>0.8633545993393964</v>
       </c>
@@ -4817,16 +4789,16 @@
       <c r="Z15" s="1">
         <v>11132000000</v>
       </c>
-      <c r="AF15" s="32" t="s">
+      <c r="AF15" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="AG15" s="33" t="s">
+      <c r="AG15" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AH15" s="33" t="s">
+      <c r="AH15" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="AI15" s="33" t="s">
+      <c r="AI15" s="26" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4913,17 +4885,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="47">
+      <c r="AG16" s="38">
         <f>AH101/Z3</f>
-        <v>38.624082449766441</v>
-      </c>
-      <c r="AH16" s="47">
+        <v>40.851041743901533</v>
+      </c>
+      <c r="AH16" s="38">
         <f>AH101/Z28</f>
-        <v>238.51785714285714</v>
-      </c>
-      <c r="AI16" s="48">
+        <v>252.27014652014651</v>
+      </c>
+      <c r="AI16" s="39">
         <f>AH101/Z107</f>
-        <v>273.594012605042</v>
+        <v>289.36869747899158</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5085,16 +5057,16 @@
       <c r="Z18" s="1">
         <v>1544000000</v>
       </c>
-      <c r="AF18" s="32" t="s">
+      <c r="AF18" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="AG18" s="33" t="s">
+      <c r="AG18" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="AH18" s="33" t="s">
+      <c r="AH18" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="AI18" s="33" t="s">
+      <c r="AI18" s="26" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5177,36 +5149,36 @@
       <c r="Z19" s="10">
         <v>6361000000</v>
       </c>
-      <c r="AA19" s="39">
+      <c r="AA19" s="30">
         <v>18997000000</v>
       </c>
-      <c r="AB19" s="39">
+      <c r="AB19" s="30">
         <v>23556000000</v>
       </c>
-      <c r="AC19" s="39">
+      <c r="AC19" s="30">
         <v>29286000000</v>
       </c>
-      <c r="AD19" s="39">
+      <c r="AD19" s="30">
         <v>37997000000</v>
       </c>
-      <c r="AE19" s="39">
+      <c r="AE19" s="30">
         <v>46087000000</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="29">
         <f>Z40-Z56-Z61</f>
         <v>1441000000</v>
       </c>
-      <c r="AG19" s="47">
+      <c r="AG19" s="38">
         <f>AH101/AA3</f>
-        <v>24.505950980853367</v>
-      </c>
-      <c r="AH19" s="47">
+        <v>25.918897304417367</v>
+      </c>
+      <c r="AH19" s="38">
         <f>AH101/AA28</f>
-        <v>54.626992449664428</v>
-      </c>
-      <c r="AI19" s="49">
+        <v>57.776635906040269</v>
+      </c>
+      <c r="AI19" s="40">
         <f>AH101/AA106</f>
-        <v>59.401676264325218</v>
+        <v>62.826614972347343</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5310,23 +5282,23 @@
         <f t="shared" ref="Z20" si="21">(Z19/Y19)-1</f>
         <v>-0.43960884503567965</v>
       </c>
-      <c r="AA20" s="74">
+      <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="22">(AA19/Z19)-1</f>
         <v>1.9864801131897498</v>
       </c>
-      <c r="AB20" s="74">
+      <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="23">(AB19/AA19)-1</f>
         <v>0.23998526083065741</v>
       </c>
-      <c r="AC20" s="74">
+      <c r="AC20" s="16">
         <f t="shared" ref="AC20" si="24">(AC19/AB19)-1</f>
         <v>0.24325012735608764</v>
       </c>
-      <c r="AD20" s="74">
+      <c r="AD20" s="16">
         <f t="shared" ref="AD20" si="25">(AD19/AC19)-1</f>
         <v>0.29744587857679439</v>
       </c>
-      <c r="AE20" s="74">
+      <c r="AE20" s="16">
         <f t="shared" ref="AE20" si="26">(AE19/AD19)-1</f>
         <v>0.21291154564834058</v>
       </c>
@@ -5412,30 +5384,30 @@
       <c r="Z21" s="2">
         <v>0.23580000000000001</v>
       </c>
-      <c r="AA21" s="75">
+      <c r="AA21" s="59">
         <f>AA19/AA3</f>
         <v>0.44684104059839114</v>
       </c>
-      <c r="AB21" s="75">
+      <c r="AB21" s="59">
         <f t="shared" ref="AB21:AE21" si="27">AB19/AB3</f>
         <v>0.44956772334293948</v>
       </c>
-      <c r="AC21" s="75">
+      <c r="AC21" s="59">
         <f t="shared" si="27"/>
         <v>0.45763665343625964</v>
       </c>
-      <c r="AD21" s="75">
+      <c r="AD21" s="59">
         <f t="shared" si="27"/>
         <v>0.41948090659189013</v>
       </c>
-      <c r="AE21" s="75">
+      <c r="AE21" s="59">
         <f t="shared" si="27"/>
         <v>0.41859218891916439</v>
       </c>
-      <c r="AH21" s="32" t="s">
+      <c r="AH21" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="AI21" s="33" t="s">
+      <c r="AI21" s="26" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5518,18 +5490,18 @@
       <c r="Z22" s="10">
         <v>4224000000</v>
       </c>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AH22" s="51">
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AH22" s="42">
         <f>(-1*Z98)/AH101</f>
-        <v>3.820142324297449E-4</v>
-      </c>
-      <c r="AI22" s="52">
+        <v>3.611890561531006E-4</v>
+      </c>
+      <c r="AI22" s="43">
         <f>Z107/AH101</f>
-        <v>3.6550507464634886E-3</v>
+        <v>3.4557988086206209E-3</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5611,11 +5583,11 @@
       <c r="Z23" s="2">
         <v>0.15659999999999999</v>
       </c>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
     </row>
     <row r="24" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5696,11 +5668,11 @@
       <c r="Z24" s="1">
         <v>-43000000</v>
       </c>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5781,11 +5753,11 @@
       <c r="Z25" s="10">
         <v>4181000000</v>
       </c>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
     </row>
     <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5866,11 +5838,11 @@
       <c r="Z26" s="2">
         <v>0.155</v>
       </c>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
     </row>
     <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5951,11 +5923,11 @@
       <c r="Z27" s="1">
         <v>187000000</v>
       </c>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
     </row>
     <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -6036,19 +6008,19 @@
       <c r="Z28" s="11">
         <v>4368000000</v>
       </c>
-      <c r="AA28" s="45">
+      <c r="AA28" s="36">
         <v>19072000000</v>
       </c>
-      <c r="AB28" s="45">
+      <c r="AB28" s="36">
         <v>24510000000</v>
       </c>
-      <c r="AC28" s="45">
+      <c r="AC28" s="36">
         <v>29408000000</v>
       </c>
-      <c r="AD28" s="45">
+      <c r="AD28" s="36">
         <v>38575000000</v>
       </c>
-      <c r="AE28" s="45">
+      <c r="AE28" s="36">
         <v>50368000000</v>
       </c>
     </row>
@@ -6255,23 +6227,23 @@
       <c r="Z30" s="2">
         <v>0.16189999999999999</v>
       </c>
-      <c r="AA30" s="40">
+      <c r="AA30" s="31">
         <f>AA28/AA3</f>
         <v>0.44860516535729406</v>
       </c>
-      <c r="AB30" s="40">
+      <c r="AB30" s="31">
         <f t="shared" ref="AB30:AE30" si="51">AB28/AB3</f>
         <v>0.46777487260721035</v>
       </c>
-      <c r="AC30" s="40">
+      <c r="AC30" s="31">
         <f t="shared" si="51"/>
         <v>0.45954308216395284</v>
       </c>
-      <c r="AD30" s="40">
+      <c r="AD30" s="31">
         <f t="shared" si="51"/>
         <v>0.42586193572603526</v>
       </c>
-      <c r="AE30" s="40">
+      <c r="AE30" s="31">
         <f t="shared" si="51"/>
         <v>0.45747502270663032</v>
       </c>
@@ -6355,19 +6327,19 @@
       <c r="Z31" s="12">
         <v>1.76</v>
       </c>
-      <c r="AA31" s="41">
+      <c r="AA31" s="32">
         <v>7.71</v>
       </c>
-      <c r="AB31" s="41">
+      <c r="AB31" s="32">
         <v>9.91</v>
       </c>
-      <c r="AC31" s="41">
+      <c r="AC31" s="32">
         <v>11.89</v>
       </c>
-      <c r="AD31" s="41">
+      <c r="AD31" s="32">
         <v>15.6</v>
       </c>
-      <c r="AE31" s="41">
+      <c r="AE31" s="32">
         <v>20.37</v>
       </c>
     </row>
@@ -10577,10 +10549,10 @@
       <c r="Z83" s="1">
         <v>-2554000000</v>
       </c>
-      <c r="AG83" s="70" t="s">
+      <c r="AG83" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="AH83" s="71"/>
+      <c r="AH83" s="68"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10661,10 +10633,10 @@
       <c r="Z84" s="1">
         <v>-551000000</v>
       </c>
-      <c r="AG84" s="72" t="s">
+      <c r="AG84" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="AH84" s="72"/>
+      <c r="AH84" s="69"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10745,10 +10717,10 @@
       <c r="Z85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG85" s="53" t="s">
+      <c r="AG85" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AH85" s="54">
+      <c r="AH85" s="45">
         <f>Z17</f>
         <v>262000000</v>
       </c>
@@ -10832,10 +10804,10 @@
       <c r="Z86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG86" s="53" t="s">
+      <c r="AG86" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="AH86" s="54">
+      <c r="AH86" s="45">
         <f>Z56</f>
         <v>1250000000</v>
       </c>
@@ -10919,10 +10891,10 @@
       <c r="Z87" s="10">
         <v>5641000000</v>
       </c>
-      <c r="AG87" s="53" t="s">
+      <c r="AG87" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="AH87" s="54">
+      <c r="AH87" s="45">
         <f>Z61</f>
         <v>10605000000</v>
       </c>
@@ -11006,10 +10978,10 @@
       <c r="Z88" s="1">
         <v>-1833000000</v>
       </c>
-      <c r="AG88" s="55" t="s">
+      <c r="AG88" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="AH88" s="56">
+      <c r="AH88" s="47">
         <f>AH85/(AH86+AH87)</f>
         <v>2.210037958667229E-2</v>
       </c>
@@ -11118,10 +11090,10 @@
         <f t="shared" si="71"/>
         <v>6.7954326388373995E-2</v>
       </c>
-      <c r="AG89" s="53" t="s">
+      <c r="AG89" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AH89" s="54">
+      <c r="AH89" s="45">
         <f>Z27</f>
         <v>187000000</v>
       </c>
@@ -11205,10 +11177,10 @@
       <c r="Z90" s="1">
         <v>-49000000</v>
       </c>
-      <c r="AG90" s="53" t="s">
+      <c r="AG90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AH90" s="54">
+      <c r="AH90" s="45">
         <f>Z25</f>
         <v>4181000000</v>
       </c>
@@ -11292,10 +11264,10 @@
       <c r="Z91" s="1">
         <v>-11897000000</v>
       </c>
-      <c r="AG91" s="55" t="s">
+      <c r="AG91" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="AH91" s="56">
+      <c r="AH91" s="47">
         <f>AH89/AH90</f>
         <v>4.4726142071274816E-2</v>
       </c>
@@ -11379,10 +11351,10 @@
       <c r="Z92" s="1">
         <v>21231000000</v>
       </c>
-      <c r="AG92" s="55" t="s">
+      <c r="AG92" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AH92" s="56">
+      <c r="AH92" s="47">
         <f>AH88*(1-AH91)</f>
         <v>2.1111914869449685E-2</v>
       </c>
@@ -11466,10 +11438,10 @@
       <c r="Z93" s="1">
         <v>-77000000</v>
       </c>
-      <c r="AG93" s="73" t="s">
+      <c r="AG93" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="AH93" s="73"/>
+      <c r="AH93" s="70"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11550,12 +11522,12 @@
       <c r="Z94" s="10">
         <v>7375000000</v>
       </c>
-      <c r="AG94" s="53" t="s">
+      <c r="AG94" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="AH94" s="57">
+      <c r="AH94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11637,12 +11609,12 @@
       <c r="Z95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG95" s="53" t="s">
+      <c r="AG95" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AH95" s="58" cm="1">
+      <c r="AH95" s="49" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.7507999999999999</v>
+        <v>1.7499</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11724,10 +11696,10 @@
       <c r="Z96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG96" s="53" t="s">
+      <c r="AG96" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AH96" s="57">
+      <c r="AH96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11810,12 +11782,12 @@
       <c r="Z97" s="1">
         <v>-10039000000</v>
       </c>
-      <c r="AG97" s="55" t="s">
+      <c r="AG97" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AH97" s="56">
+      <c r="AH97" s="47">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.116674816</v>
+        <v>0.117655512</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11897,10 +11869,10 @@
       <c r="Z98" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AG98" s="73" t="s">
+      <c r="AG98" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="AH98" s="73"/>
+      <c r="AH98" s="70"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11981,10 +11953,10 @@
       <c r="Z99" s="1">
         <v>-1180000000</v>
       </c>
-      <c r="AG99" s="53" t="s">
+      <c r="AG99" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="AH99" s="54">
+      <c r="AH99" s="45">
         <f>AH86+AH87</f>
         <v>11855000000</v>
       </c>
@@ -12068,12 +12040,12 @@
       <c r="Z100" s="10">
         <v>-11617000000</v>
       </c>
-      <c r="AG100" s="55" t="s">
+      <c r="AG100" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="AH100" s="56">
+      <c r="AH100" s="47">
         <f>AH99/AH103</f>
-        <v>1.1250819729695615E-2</v>
+        <v>1.0644019282240244E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12155,12 +12127,12 @@
       <c r="Z101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG101" s="53" t="s">
+      <c r="AG101" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="AH101" s="59" cm="1">
+      <c r="AH101" s="50" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1041846000000</v>
+        <v>1101916000000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12242,12 +12214,12 @@
       <c r="Z102" s="10">
         <v>1399000000</v>
       </c>
-      <c r="AG102" s="55" t="s">
+      <c r="AG102" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AH102" s="56">
+      <c r="AH102" s="47">
         <f>AH101/AH103</f>
-        <v>0.98874918027030434</v>
+        <v>0.98935598071775976</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12329,12 +12301,12 @@
       <c r="Z103" s="1">
         <v>1990000000</v>
       </c>
-      <c r="AG103" s="55" t="s">
+      <c r="AG103" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="AH103" s="60">
+      <c r="AH103" s="51">
         <f>AH99+AH101</f>
-        <v>1053701000000</v>
+        <v>1113771000000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12416,10 +12388,10 @@
       <c r="Z104" s="11">
         <v>3389000000</v>
       </c>
-      <c r="AG104" s="72" t="s">
+      <c r="AG104" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="AH104" s="72"/>
+      <c r="AH104" s="69"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12548,12 +12520,12 @@
       <c r="AF105" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="AG105" s="61" t="s">
+      <c r="AG105" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AH105" s="62">
+      <c r="AH105" s="53">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11559965502653344</v>
+        <v>0.1166279000905656</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12657,34 +12629,34 @@
         <f t="shared" si="74"/>
         <v>-0.53172651254303982</v>
       </c>
-      <c r="AA106" s="42">
+      <c r="AA106" s="33">
         <v>17539000000</v>
       </c>
-      <c r="AB106" s="42">
+      <c r="AB106" s="33">
         <v>23824000000</v>
       </c>
-      <c r="AC106" s="42">
+      <c r="AC106" s="33">
         <v>29460000000</v>
       </c>
-      <c r="AD106" s="42">
+      <c r="AD106" s="33">
         <v>36614000000</v>
       </c>
-      <c r="AE106" s="42">
+      <c r="AE106" s="33">
         <v>50152000000</v>
       </c>
       <c r="AF106" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="AG106" s="63" t="s">
+      <c r="AG106" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="AH106" s="64">
+      <c r="AH106" s="55">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>0.33217038194203358</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="41" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -12766,135 +12738,135 @@
       <c r="AB107" s="23"/>
       <c r="AC107" s="23"/>
       <c r="AD107" s="23"/>
-      <c r="AE107" s="43">
+      <c r="AE107" s="34">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>567395096426.63696</v>
+        <v>561027808660.79187</v>
       </c>
       <c r="AF107" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="AG107" s="65" t="s">
+      <c r="AG107" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="AH107" s="66">
+      <c r="AH107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="43">
+      <c r="AA108" s="34">
         <f t="shared" ref="AA108:AD108" si="75">AA107+AA106</f>
         <v>17539000000</v>
       </c>
-      <c r="AB108" s="43">
+      <c r="AB108" s="34">
         <f t="shared" si="75"/>
         <v>23824000000</v>
       </c>
-      <c r="AC108" s="43">
+      <c r="AC108" s="34">
         <f t="shared" si="75"/>
         <v>29460000000</v>
       </c>
-      <c r="AD108" s="43">
+      <c r="AD108" s="34">
         <f t="shared" si="75"/>
         <v>36614000000</v>
       </c>
-      <c r="AE108" s="43">
+      <c r="AE108" s="34">
         <f>AE107+AE106</f>
-        <v>617547096426.63696</v>
+        <v>611179808660.79187</v>
       </c>
       <c r="AF108" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AG108" s="67" t="s">
+      <c r="AG108" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="AH108" s="64">
+      <c r="AH108" s="55">
         <f>AH105</f>
-        <v>0.11559965502653344</v>
+        <v>0.1166279000905656</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="68" t="s">
+      <c r="AA109" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AB109" s="69"/>
+      <c r="AB109" s="66"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="25" t="s">
+      <c r="AA110" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AB110" s="26">
+      <c r="AB110" s="50">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>437098715169.01172</v>
+        <v>431593205621.14917</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="25" t="s">
+      <c r="AA111" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="AB111" s="26">
+      <c r="AB111" s="50">
         <f>Z40</f>
         <v>13296000000</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="25" t="s">
+      <c r="AA112" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="AB112" s="26">
+      <c r="AB112" s="50">
         <f>AH99</f>
         <v>11855000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="25" t="s">
+      <c r="AA113" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AB113" s="26">
+      <c r="AB113" s="50">
         <f>AB110+AB111-AB112</f>
-        <v>438539715169.01172</v>
+        <v>433034205621.14917</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="25" t="s">
+      <c r="AA114" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="AB114" s="37">
+      <c r="AB114" s="60">
         <f>Z34*(1+(5*AF16))</f>
         <v>2486984027.9409657</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="27" t="s">
+      <c r="AA115" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="AB115" s="28">
+      <c r="AB115" s="62">
         <f>AB113/AB114</f>
-        <v>176.33394916978594</v>
+        <v>174.12021981486896</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="25" t="s">
+      <c r="AA116" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="AB116" s="38" cm="1">
+      <c r="AB116" s="63" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>421.8</v>
+        <v>456.79</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="29" t="s">
+      <c r="AA117" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="AB117" s="30">
+      <c r="AB117" s="64">
         <f>AB115/AB116-1</f>
-        <v>-0.58194891140401628</v>
+        <v>-0.61881779413982585</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="29" t="s">
+      <c r="AA118" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="AB118" s="31" t="str">
+      <c r="AB118" s="65" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA6DE35-0F0C-3A47-9C68-B3E5117516A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F912C87-2DF7-4B47-8CF5-D14BF407C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,16 +564,19 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -707,6 +710,13 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -881,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -916,11 +926,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,13 +944,8 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,68 +958,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,7 +1125,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1071,11 +1136,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Nvidia</a:t>
+              <a:t>Unlevered Free Cash Flow</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32698178399341876"/>
+          <c:y val="4.0417653327709517E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,7 +1162,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1109,10 +1182,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6730897009966774E-2"/>
-          <c:y val="0.15057669430559772"/>
-          <c:w val="0.83150830564784062"/>
-          <c:h val="0.64210678982562797"/>
+          <c:x val="9.1263681592039791E-2"/>
+          <c:y val="0.15770968328472257"/>
+          <c:w val="0.83974792703150924"/>
+          <c:h val="0.69139774429182876"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1124,11 +1197,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:f>'Sheet 1'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenue</c:v>
+                  <c:v>Unlevered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,91 +1325,583 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$Z$3</c:f>
+              <c:f>'Sheet 1'!$B$105:$Z$105</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>151400000</c:v>
+                  <c:v>-16197129.873236068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>374500000</c:v>
+                  <c:v>7566897.8713226542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>735264000</c:v>
+                  <c:v>19194586.223391533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1369471000</c:v>
+                  <c:v>14899260.224826574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1909447000</c:v>
+                  <c:v>168041061.70772544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1822945000</c:v>
+                  <c:v>-139559374.79071993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010033000</c:v>
+                  <c:v>48737423.343697667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2375687000</c:v>
+                  <c:v>363395773.25998569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3068771000</c:v>
+                  <c:v>262606841.42549634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4097860000</c:v>
+                  <c:v>914335469.98325765</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3424859000</c:v>
+                  <c:v>-323517861.75556087</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3326445000</c:v>
+                  <c:v>160958428.12724227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3543309000</c:v>
+                  <c:v>485106423.34369767</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3997930000</c:v>
+                  <c:v>686922086.8213346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4280159000</c:v>
+                  <c:v>549849770.38985896</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4130162000</c:v>
+                  <c:v>470231680.69839752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4681507000</c:v>
+                  <c:v>620259350.15546525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5010000000</c:v>
+                  <c:v>773589571.87275779</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6910000000</c:v>
+                  <c:v>1179499641.2341545</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9714000000</c:v>
+                  <c:v>2857429083.9512081</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11716000000</c:v>
+                  <c:v>2438861755.5608706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10918000000</c:v>
+                  <c:v>3327709399.6651521</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16675000000</c:v>
+                  <c:v>3596301124.1329823</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26914000000</c:v>
+                  <c:v>6426904807.4623299</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26974000000</c:v>
+                  <c:v>2930076775.8909359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FFA-CF4E-A07D-191E46CD0813}"/>
+              <c16:uniqueId val="{00000000-97A1-F848-9E5C-48CE0E23BFDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1570520400"/>
+        <c:axId val="1572952192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1570520400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1572952192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1572952192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1570520400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Nvidia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6306156405990009E-2"/>
+          <c:y val="0.15230442409999886"/>
+          <c:w val="0.83181364392678869"/>
+          <c:h val="0.61997151283581986"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$AE$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>151400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>374500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>735264000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1369471000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1909447000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1822945000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010033000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2375687000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3068771000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4097860000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3424859000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3326445000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3543309000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3997930000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4280159000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4130162000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4681507000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5010000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6910000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9714000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11716000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10918000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16675000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26914000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26974000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54199000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75096000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89760000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104300000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71F7-CB40-8F69-84D4C218C930}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1389,10 +1954,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1999</c:v>
                 </c:pt>
@@ -1467,16 +2032,31 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$Z$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4100000</c:v>
                 </c:pt>
@@ -1551,13 +2131,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4368000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26962000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39837000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46401000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54892000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61331000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9FFA-CF4E-A07D-191E46CD0813}"/>
+              <c16:uniqueId val="{00000001-71F7-CB40-8F69-84D4C218C930}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1610,10 +2205,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1999</c:v>
                 </c:pt>
@@ -1688,16 +2283,31 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$Z$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AE$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>-9800000</c:v>
                 </c:pt>
@@ -1772,13 +2382,28 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3808000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24458000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38864000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46144000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49058000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76350000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9FFA-CF4E-A07D-191E46CD0813}"/>
+              <c16:uniqueId val="{00000002-71F7-CB40-8F69-84D4C218C930}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1790,13 +2415,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1134264928"/>
-        <c:axId val="1054841840"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="316203455"/>
+        <c:axId val="329116767"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1134264928"/>
+        <c:axId val="316203455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +2449,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1836,7 +2461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1054841840"/>
+        <c:crossAx val="329116767"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1844,7 +2469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1054841840"/>
+        <c:axId val="329116767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1893,7 +2518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1134264928"/>
+        <c:crossAx val="316203455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1911,9 +2536,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3511722081251471"/>
-          <c:y val="0.89348532901423938"/>
-          <c:w val="0.31534402385748295"/>
+          <c:x val="0.3420655862276783"/>
+          <c:y val="0.90411943058382327"/>
+          <c:w val="0.31586872273245381"/>
           <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1981,6 +2606,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2489,27 +3154,495 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8668E3-B437-E162-3282-DF2BDCEE4E2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23698A24-4F61-FBFB-6453-B639C87F17C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,6 +3660,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483233FB-9065-187B-3735-994F6425CD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2537,38 +3706,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2704,13 +3873,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>480.88</v>
-    <v>108.13</v>
-    <v>1.7499</v>
-    <v>10.67</v>
-    <v>2.3917000000000001E-2</v>
-    <v>3.31</v>
-    <v>7.2459999999999998E-3</v>
+    <v>502.66</v>
+    <v>118.34</v>
+    <v>1.6849000000000001</v>
+    <v>-0.95</v>
+    <v>-2.251E-3</v>
+    <v>-3.91</v>
+    <v>-9.2870000000000001E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -2718,25 +3887,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>461.82499999999999</v>
+    <v>432.97</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45132.977510277342</v>
+    <v>45218.999969154691</v>
     <v>0</v>
-    <v>449.23</v>
-    <v>1101916000000</v>
+    <v>418.82</v>
+    <v>1039894700000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>449.41</v>
-    <v>231.85059999999999</v>
-    <v>446.12</v>
-    <v>456.79</v>
-    <v>460.1</v>
+    <v>428.11</v>
+    <v>101.9318</v>
+    <v>421.96</v>
+    <v>421.01</v>
+    <v>417.1</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>34755045</v>
-    <v>47654437</v>
+    <v>50123308</v>
+    <v>44631609</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2901,9 +4070,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3321,13 +4490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA101" sqref="AA101"/>
+      <selection pane="bottomRight" activeCell="AA97" sqref="AA97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3608,30 +4777,30 @@
         <v>26974000000</v>
       </c>
       <c r="AA3" s="21">
-        <v>42514000000</v>
+        <v>54199000000</v>
       </c>
       <c r="AB3" s="21">
-        <v>52397000000</v>
+        <v>75096000000</v>
       </c>
       <c r="AC3" s="21">
-        <v>63994000000</v>
+        <v>89760000000</v>
       </c>
       <c r="AD3" s="21">
-        <v>90581000000</v>
+        <v>104300000000</v>
       </c>
       <c r="AE3" s="21">
-        <v>110100000000</v>
-      </c>
-      <c r="AF3" s="25" t="s">
+        <v>118000000000</v>
+      </c>
+      <c r="AF3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AG3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="26" t="s">
+      <c r="AH3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3738,37 +4907,37 @@
       </c>
       <c r="AA4" s="16">
         <f t="shared" ref="AA4:AE4" si="1">(AA3/Z3)-1</f>
-        <v>0.57611032846444732</v>
+        <v>1.0093052569140655</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="1"/>
-        <v>0.2324645998965047</v>
+        <v>0.38556061919961615</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="1"/>
-        <v>0.22132946542741005</v>
+        <v>0.19527005433045708</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="1"/>
-        <v>0.41546082445229238</v>
+        <v>0.16198752228164004</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="1"/>
-        <v>0.21548669146951349</v>
-      </c>
-      <c r="AF4" s="27">
+        <v>0.13135186960690315</v>
+      </c>
+      <c r="AF4" s="24">
         <f>(Z4+Y4+X4)/3</f>
         <v>0.38118556093218037</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AG4" s="24">
         <f>(Z20+Y20+X20)/3</f>
         <v>0.40909729531125477</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AH4" s="24">
         <f>(Z29+Y29+X29)/3</f>
         <v>0.41613951529322118</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AI4" s="24">
         <f>(Z106+Y106+X106)/3</f>
         <v>9.9826876843558135E-2</v>
       </c>
@@ -3935,16 +5104,20 @@
       <c r="Z6" s="10">
         <v>15356000000</v>
       </c>
-      <c r="AF6" s="25" t="s">
+      <c r="AA6" s="27">
+        <f>AA3*AA7</f>
+        <v>38210295000</v>
+      </c>
+      <c r="AF6" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="AG6" s="26" t="s">
+      <c r="AG6" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="26" t="s">
+      <c r="AH6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AI6" s="26" t="s">
+      <c r="AI6" s="69" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4027,21 +5200,24 @@
       <c r="Z7" s="2">
         <v>0.56930000000000003</v>
       </c>
-      <c r="AF7" s="27">
-        <f>Z7</f>
-        <v>0.56930000000000003</v>
-      </c>
-      <c r="AG7" s="28">
-        <f>Z21</f>
-        <v>0.23580000000000001</v>
-      </c>
-      <c r="AH7" s="28">
-        <f>Z30</f>
-        <v>0.16189999999999999</v>
-      </c>
-      <c r="AI7" s="28">
-        <f>Z107/Z3</f>
-        <v>0.14117298138948617</v>
+      <c r="AA7" s="2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="AF7" s="24">
+        <f>AA7</f>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="AG7" s="25">
+        <f>AA21</f>
+        <v>0.52643037694422401</v>
+      </c>
+      <c r="AH7" s="25">
+        <f>AA30</f>
+        <v>0.49746305282385284</v>
+      </c>
+      <c r="AI7" s="25">
+        <f>AA107/AA3</f>
+        <v>0.45126293843059834</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4228,16 +5404,16 @@
         <f t="shared" si="2"/>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AF9" s="25" t="s">
+      <c r="AF9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AG9" s="26" t="s">
+      <c r="AG9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="26" t="s">
+      <c r="AH9" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="26" t="s">
+      <c r="AI9" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4320,19 +5496,19 @@
       <c r="Z10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF10" s="27">
+      <c r="AF10" s="24">
         <f>Z9</f>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AG10" s="25">
         <f>Z13</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AH10" s="28">
+      <c r="AH10" s="25">
         <f>Z80</f>
         <v>0.10043004374582931</v>
       </c>
-      <c r="AI10" s="28">
+      <c r="AI10" s="25">
         <f>Z89</f>
         <v>6.7954326388373995E-2</v>
       </c>
@@ -4496,16 +5672,16 @@
       <c r="Z12" s="1">
         <v>2440000000</v>
       </c>
-      <c r="AF12" s="25" t="s">
+      <c r="AF12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AG12" s="26" t="s">
+      <c r="AG12" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="26" t="s">
+      <c r="AH12" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AI12" s="26" t="s">
+      <c r="AI12" s="23" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4613,19 +5789,19 @@
         <f t="shared" si="3"/>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="AF13" s="24">
         <f>Z28/Z72</f>
         <v>0.19763811592235644</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AG13" s="25">
         <f>Z28/Z54</f>
         <v>0.10606575688407557</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AH13" s="25">
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
-      <c r="AI13" s="37">
+      <c r="AI13" s="43">
         <f>Z67/Z72</f>
         <v>0.8633545993393964</v>
       </c>
@@ -4789,16 +5965,16 @@
       <c r="Z15" s="1">
         <v>11132000000</v>
       </c>
-      <c r="AF15" s="25" t="s">
+      <c r="AF15" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AG15" s="26" t="s">
+      <c r="AG15" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="AH15" s="26" t="s">
+      <c r="AH15" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="AI15" s="26" t="s">
+      <c r="AI15" s="23" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4885,17 +6061,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="38">
-        <f>AH101/Z3</f>
-        <v>40.851041743901533</v>
-      </c>
-      <c r="AH16" s="38">
-        <f>AH101/Z28</f>
-        <v>252.27014652014651</v>
-      </c>
-      <c r="AI16" s="39">
-        <f>AH101/Z107</f>
-        <v>289.36869747899158</v>
+      <c r="AG16" s="32">
+        <f>AH102/Z3</f>
+        <v>38.551742418625345</v>
+      </c>
+      <c r="AH16" s="32">
+        <f>AH102/Z28</f>
+        <v>238.07113095238094</v>
+      </c>
+      <c r="AI16" s="33">
+        <f>AH102/Z107</f>
+        <v>273.08159138655463</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5057,16 +6233,16 @@
       <c r="Z18" s="1">
         <v>1544000000</v>
       </c>
-      <c r="AF18" s="25" t="s">
+      <c r="AF18" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AG18" s="26" t="s">
+      <c r="AG18" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="AH18" s="26" t="s">
+      <c r="AH18" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="AI18" s="26" t="s">
+      <c r="AI18" s="23" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5149,36 +6325,36 @@
       <c r="Z19" s="10">
         <v>6361000000</v>
       </c>
-      <c r="AA19" s="30">
-        <v>18997000000</v>
-      </c>
-      <c r="AB19" s="30">
-        <v>23556000000</v>
-      </c>
-      <c r="AC19" s="30">
-        <v>29286000000</v>
-      </c>
-      <c r="AD19" s="30">
-        <v>37997000000</v>
-      </c>
-      <c r="AE19" s="30">
-        <v>46087000000</v>
-      </c>
-      <c r="AF19" s="29">
+      <c r="AA19" s="27">
+        <v>28532000000</v>
+      </c>
+      <c r="AB19" s="27">
+        <v>36217000000</v>
+      </c>
+      <c r="AC19" s="27">
+        <v>35715000000</v>
+      </c>
+      <c r="AD19" s="27">
+        <v>53164000000</v>
+      </c>
+      <c r="AE19" s="27">
+        <v>62653000000</v>
+      </c>
+      <c r="AF19" s="26">
         <f>Z40-Z56-Z61</f>
         <v>1441000000</v>
       </c>
-      <c r="AG19" s="38">
-        <f>AH101/AA3</f>
-        <v>25.918897304417367</v>
-      </c>
-      <c r="AH19" s="38">
-        <f>AH101/AA28</f>
-        <v>57.776635906040269</v>
-      </c>
-      <c r="AI19" s="40">
-        <f>AH101/AA106</f>
-        <v>62.826614972347343</v>
+      <c r="AG19" s="32">
+        <f>AH102/AA3</f>
+        <v>19.186603073857452</v>
+      </c>
+      <c r="AH19" s="32">
+        <f>AH102/AA28</f>
+        <v>38.568900675024111</v>
+      </c>
+      <c r="AI19" s="34">
+        <f>AH102/AA107</f>
+        <v>42.517568893613543</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5284,23 +6460,23 @@
       </c>
       <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="22">(AA19/Z19)-1</f>
-        <v>1.9864801131897498</v>
+        <v>3.485458261279673</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="23">(AB19/AA19)-1</f>
-        <v>0.23998526083065741</v>
+        <v>0.26934669844385262</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" ref="AC20" si="24">(AC19/AB19)-1</f>
-        <v>0.24325012735608764</v>
+        <v>-1.3860894055277906E-2</v>
       </c>
       <c r="AD20" s="16">
         <f t="shared" ref="AD20" si="25">(AD19/AC19)-1</f>
-        <v>0.29744587857679439</v>
+        <v>0.48856222875542499</v>
       </c>
       <c r="AE20" s="16">
         <f t="shared" ref="AE20" si="26">(AE19/AD19)-1</f>
-        <v>0.21291154564834058</v>
+        <v>0.17848544127605148</v>
       </c>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
@@ -5384,30 +6560,33 @@
       <c r="Z21" s="2">
         <v>0.23580000000000001</v>
       </c>
-      <c r="AA21" s="59">
+      <c r="AA21" s="42">
         <f>AA19/AA3</f>
-        <v>0.44684104059839114</v>
-      </c>
-      <c r="AB21" s="59">
+        <v>0.52643037694422401</v>
+      </c>
+      <c r="AB21" s="42">
         <f t="shared" ref="AB21:AE21" si="27">AB19/AB3</f>
-        <v>0.44956772334293948</v>
-      </c>
-      <c r="AC21" s="59">
+        <v>0.48227602002769787</v>
+      </c>
+      <c r="AC21" s="42">
         <f t="shared" si="27"/>
-        <v>0.45763665343625964</v>
-      </c>
-      <c r="AD21" s="59">
+        <v>0.39789438502673796</v>
+      </c>
+      <c r="AD21" s="42">
         <f t="shared" si="27"/>
-        <v>0.41948090659189013</v>
-      </c>
-      <c r="AE21" s="59">
+        <v>0.50972195589645253</v>
+      </c>
+      <c r="AE21" s="42">
         <f t="shared" si="27"/>
-        <v>0.41859218891916439</v>
-      </c>
-      <c r="AH21" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI21" s="26" t="s">
+        <v>0.53095762711864403</v>
+      </c>
+      <c r="AG21" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH21" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI21" s="23" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5490,18 +6669,22 @@
       <c r="Z22" s="10">
         <v>4224000000</v>
       </c>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AH22" s="42">
-        <f>(-1*Z98)/AH101</f>
-        <v>3.611890561531006E-4</v>
-      </c>
-      <c r="AI22" s="43">
-        <f>Z107/AH101</f>
-        <v>3.4557988086206209E-3</v>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AG22" s="24">
+        <f>SUM(AA29:AE29)/5</f>
+        <v>1.2230418455038756</v>
+      </c>
+      <c r="AH22" s="68">
+        <f>(-1*Z98)/AH102</f>
+        <v>3.8273105921205294E-4</v>
+      </c>
+      <c r="AI22" s="36">
+        <f>AA107/AH102</f>
+        <v>2.3519689060825102E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5583,11 +6766,11 @@
       <c r="Z23" s="2">
         <v>0.15659999999999999</v>
       </c>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
     </row>
     <row r="24" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5668,11 +6851,11 @@
       <c r="Z24" s="1">
         <v>-43000000</v>
       </c>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
     </row>
     <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5753,11 +6936,11 @@
       <c r="Z25" s="10">
         <v>4181000000</v>
       </c>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
     </row>
     <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5838,11 +7021,11 @@
       <c r="Z26" s="2">
         <v>0.155</v>
       </c>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
     </row>
     <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5923,11 +7106,11 @@
       <c r="Z27" s="1">
         <v>187000000</v>
       </c>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
     </row>
     <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -6008,20 +7191,20 @@
       <c r="Z28" s="11">
         <v>4368000000</v>
       </c>
-      <c r="AA28" s="36">
-        <v>19072000000</v>
-      </c>
-      <c r="AB28" s="36">
-        <v>24510000000</v>
-      </c>
-      <c r="AC28" s="36">
-        <v>29408000000</v>
-      </c>
-      <c r="AD28" s="36">
-        <v>38575000000</v>
-      </c>
-      <c r="AE28" s="36">
-        <v>50368000000</v>
+      <c r="AA28" s="31">
+        <v>26962000000</v>
+      </c>
+      <c r="AB28" s="31">
+        <v>39837000000</v>
+      </c>
+      <c r="AC28" s="31">
+        <v>46401000000</v>
+      </c>
+      <c r="AD28" s="31">
+        <v>54892000000</v>
+      </c>
+      <c r="AE28" s="31">
+        <v>61331000000</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6127,23 +7310,23 @@
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="46">(AA28/Z28)-1</f>
-        <v>3.3663003663003659</v>
+        <v>5.1726190476190474</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="47">(AB28/AA28)-1</f>
-        <v>0.28513003355704702</v>
+        <v>0.47752392255767373</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" ref="AC29" si="48">(AC28/AB28)-1</f>
-        <v>0.19983680130558956</v>
+        <v>0.1647714436328036</v>
       </c>
       <c r="AD29" s="16">
         <f t="shared" ref="AD29" si="49">(AD28/AC28)-1</f>
-        <v>0.31171789989118603</v>
+        <v>0.18299174586754585</v>
       </c>
       <c r="AE29" s="16">
         <f t="shared" ref="AE29" si="50">(AE28/AD28)-1</f>
-        <v>0.30571613739468573</v>
+        <v>0.11730306784230859</v>
       </c>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -6227,25 +7410,25 @@
       <c r="Z30" s="2">
         <v>0.16189999999999999</v>
       </c>
-      <c r="AA30" s="31">
+      <c r="AA30" s="28">
         <f>AA28/AA3</f>
-        <v>0.44860516535729406</v>
-      </c>
-      <c r="AB30" s="31">
+        <v>0.49746305282385284</v>
+      </c>
+      <c r="AB30" s="28">
         <f t="shared" ref="AB30:AE30" si="51">AB28/AB3</f>
-        <v>0.46777487260721035</v>
-      </c>
-      <c r="AC30" s="31">
+        <v>0.53048098434004476</v>
+      </c>
+      <c r="AC30" s="28">
         <f t="shared" si="51"/>
-        <v>0.45954308216395284</v>
-      </c>
-      <c r="AD30" s="31">
+        <v>0.51694518716577542</v>
+      </c>
+      <c r="AD30" s="28">
         <f t="shared" si="51"/>
-        <v>0.42586193572603526</v>
-      </c>
-      <c r="AE30" s="31">
+        <v>0.52628954937679773</v>
+      </c>
+      <c r="AE30" s="28">
         <f t="shared" si="51"/>
-        <v>0.45747502270663032</v>
+        <v>0.51975423728813563</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -6327,20 +7510,20 @@
       <c r="Z31" s="12">
         <v>1.76</v>
       </c>
-      <c r="AA31" s="32">
-        <v>7.71</v>
-      </c>
-      <c r="AB31" s="32">
-        <v>9.91</v>
-      </c>
-      <c r="AC31" s="32">
-        <v>11.89</v>
-      </c>
-      <c r="AD31" s="32">
-        <v>15.6</v>
-      </c>
-      <c r="AE31" s="32">
-        <v>20.37</v>
+      <c r="AA31" s="29">
+        <v>10.92</v>
+      </c>
+      <c r="AB31" s="29">
+        <v>16.13</v>
+      </c>
+      <c r="AC31" s="29">
+        <v>18.79</v>
+      </c>
+      <c r="AD31" s="29">
+        <v>22.22</v>
+      </c>
+      <c r="AE31" s="29">
+        <v>24.83</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -6423,7 +7606,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -6502,8 +7685,12 @@
       <c r="Z33" s="1">
         <v>2487000000</v>
       </c>
+      <c r="AA33" s="1" cm="1">
+        <f t="array" ref="AA33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>2470000000</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -6582,8 +7769,12 @@
       <c r="Z34" s="1">
         <v>2507000000</v>
       </c>
+      <c r="AA34" s="1" cm="1">
+        <f t="array" ref="AA34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>2470000000</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>104</v>
       </c>
@@ -6681,11 +7872,15 @@
         <v>9.1560509554140124E-3</v>
       </c>
       <c r="Z35" s="19">
-        <f t="shared" ref="Z35" si="69">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35:AA35" si="69">(Z34-Y34)/Y34</f>
         <v>-1.1045364891518738E-2</v>
       </c>
+      <c r="AA35" s="19">
+        <f t="shared" si="69"/>
+        <v>-1.4758675708017551E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -6765,7 +7960,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -6845,7 +8040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -6925,7 +8120,7 @@
         <v>3389000000</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -7005,7 +8200,7 @@
         <v>9907000000</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -7085,7 +8280,7 @@
         <v>13296000000</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -7165,7 +8360,7 @@
         <v>3827000000</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -7245,7 +8440,7 @@
         <v>5159000000</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -7325,7 +8520,7 @@
         <v>791000000</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -7405,7 +8600,7 @@
         <v>23073000000</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -7485,7 +8680,7 @@
         <v>4845000000</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -7565,7 +8760,7 @@
         <v>4372000000</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -7645,7 +8840,7 @@
         <v>1676000000</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -10470,7 +11665,7 @@
         <v>822000000</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -10549,12 +11744,8 @@
       <c r="Z83" s="1">
         <v>-2554000000</v>
       </c>
-      <c r="AG83" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH83" s="68"/>
     </row>
-    <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -10633,12 +11824,12 @@
       <c r="Z84" s="1">
         <v>-551000000</v>
       </c>
-      <c r="AG84" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH84" s="69"/>
+      <c r="AG84" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH84" s="78"/>
     </row>
-    <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -10717,13 +11908,10 @@
       <c r="Z85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG85" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH85" s="45">
-        <f>Z17</f>
-        <v>262000000</v>
-      </c>
+      <c r="AG85" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH85" s="76"/>
     </row>
     <row r="86" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -10804,12 +11992,12 @@
       <c r="Z86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG86" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH86" s="45">
-        <f>Z56</f>
-        <v>1250000000</v>
+      <c r="AG86" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH86" s="59">
+        <f>Z17</f>
+        <v>262000000</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10891,12 +12079,12 @@
       <c r="Z87" s="10">
         <v>5641000000</v>
       </c>
-      <c r="AG87" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH87" s="45">
-        <f>Z61</f>
-        <v>10605000000</v>
+      <c r="AG87" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH87" s="59">
+        <f>Z56</f>
+        <v>1250000000</v>
       </c>
     </row>
     <row r="88" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10978,12 +12166,12 @@
       <c r="Z88" s="1">
         <v>-1833000000</v>
       </c>
-      <c r="AG88" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH88" s="47">
-        <f>AH85/(AH86+AH87)</f>
-        <v>2.210037958667229E-2</v>
+      <c r="AG88" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH88" s="59">
+        <f>Z61</f>
+        <v>10605000000</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11090,12 +12278,12 @@
         <f t="shared" si="71"/>
         <v>6.7954326388373995E-2</v>
       </c>
-      <c r="AG89" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH89" s="45">
-        <f>Z27</f>
-        <v>187000000</v>
+      <c r="AG89" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH89" s="60">
+        <f>AH86/(AH87+AH88)</f>
+        <v>2.210037958667229E-2</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11177,12 +12365,12 @@
       <c r="Z90" s="1">
         <v>-49000000</v>
       </c>
-      <c r="AG90" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH90" s="45">
-        <f>Z25</f>
-        <v>4181000000</v>
+      <c r="AG90" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH90" s="59">
+        <f>Z27</f>
+        <v>187000000</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11264,12 +12452,12 @@
       <c r="Z91" s="1">
         <v>-11897000000</v>
       </c>
-      <c r="AG91" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH91" s="47">
-        <f>AH89/AH90</f>
-        <v>4.4726142071274816E-2</v>
+      <c r="AG91" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH91" s="59">
+        <f>Z25</f>
+        <v>4181000000</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11351,15 +12539,15 @@
       <c r="Z92" s="1">
         <v>21231000000</v>
       </c>
-      <c r="AG92" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH92" s="47">
-        <f>AH88*(1-AH91)</f>
-        <v>2.1111914869449685E-2</v>
+      <c r="AG92" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH92" s="60">
+        <f>AH90/AH91</f>
+        <v>4.4726142071274816E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -11438,12 +12626,15 @@
       <c r="Z93" s="1">
         <v>-77000000</v>
       </c>
-      <c r="AG93" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH93" s="70"/>
+      <c r="AG93" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH93" s="60">
+        <f>AH89*(1-AH92)</f>
+        <v>2.1111914869449685E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -11522,13 +12713,10 @@
       <c r="Z94" s="10">
         <v>7375000000</v>
       </c>
-      <c r="AG94" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH94" s="48">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AG94" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH94" s="76"/>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -11609,12 +12797,12 @@
       <c r="Z95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG95" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH95" s="49" cm="1">
-        <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.7499</v>
+      <c r="AG95" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH95" s="71">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11696,11 +12884,12 @@
       <c r="Z96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG96" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH96" s="48">
-        <v>8.4000000000000005E-2</v>
+      <c r="AG96" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH96" s="62" cm="1">
+        <f t="array" ref="AH96">_FV(A1,"Beta")</f>
+        <v>1.6849000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11782,15 +12971,14 @@
       <c r="Z97" s="1">
         <v>-10039000000</v>
       </c>
-      <c r="AG97" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH97" s="47">
-        <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.117655512</v>
+      <c r="AG97" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH97" s="61">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -11869,12 +13057,15 @@
       <c r="Z98" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AG98" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH98" s="70"/>
+      <c r="AG98" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH98" s="60">
+        <f>(AH95)+((AH96)*(AH97-AH95))</f>
+        <v>0.10795780200000002</v>
+      </c>
     </row>
-    <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -11953,13 +13144,10 @@
       <c r="Z99" s="1">
         <v>-1180000000</v>
       </c>
-      <c r="AG99" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH99" s="45">
-        <f>AH86+AH87</f>
-        <v>11855000000</v>
-      </c>
+      <c r="AG99" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH99" s="76"/>
     </row>
     <row r="100" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -12040,12 +13228,12 @@
       <c r="Z100" s="10">
         <v>-11617000000</v>
       </c>
-      <c r="AG100" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH100" s="47">
-        <f>AH99/AH103</f>
-        <v>1.0644019282240244E-2</v>
+      <c r="AG100" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH100" s="59">
+        <f>AH87+AH88</f>
+        <v>11855000000</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12127,12 +13315,12 @@
       <c r="Z101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG101" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH101" s="50" cm="1">
-        <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1101916000000</v>
+      <c r="AG101" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH101" s="60">
+        <f>AH100/AH104</f>
+        <v>1.1271693255534088E-2</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12214,12 +13402,12 @@
       <c r="Z102" s="10">
         <v>1399000000</v>
       </c>
-      <c r="AG102" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH102" s="47">
-        <f>AH101/AH103</f>
-        <v>0.98935598071775976</v>
+      <c r="AG102" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH102" s="53" cm="1">
+        <f t="array" ref="AH102">_FV(A1,"Market cap",TRUE)</f>
+        <v>1039894700000</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12301,15 +13489,15 @@
       <c r="Z103" s="1">
         <v>1990000000</v>
       </c>
-      <c r="AG103" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH103" s="51">
-        <f>AH99+AH101</f>
-        <v>1113771000000</v>
+      <c r="AG103" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH103" s="60">
+        <f>AH102/AH104</f>
+        <v>0.98872830674446588</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -12388,17 +13576,28 @@
       <c r="Z104" s="11">
         <v>3389000000</v>
       </c>
-      <c r="AG104" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH104" s="69"/>
+      <c r="AA104" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB104" s="79"/>
+      <c r="AC104" s="79"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="79"/>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH104" s="63">
+        <f>AH100+AH102</f>
+        <v>1051749700000</v>
+      </c>
     </row>
-    <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:Y105" si="72">(B22*(1-$AH$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:Z105" si="72">(B22*(1-$AH$92))+B77+B88+B81</f>
         <v>-16197129.873236068</v>
       </c>
       <c r="C105" s="1">
@@ -12494,169 +13693,172 @@
         <v>6426904807.4623299</v>
       </c>
       <c r="Z105" s="1">
-        <f>(Z22*(1-$AH$91))+Z77+Z88+Z81</f>
+        <f t="shared" si="72"/>
         <v>2930076775.8909359</v>
       </c>
-      <c r="AA105" s="22">
-        <f>Z105*(1+$AH$106)</f>
-        <v>3903361497.6581106</v>
-      </c>
-      <c r="AB105" s="22">
-        <f t="shared" ref="AB105:AE105" si="73">AA105*(1+$AH$106)</f>
-        <v>5199942577.1930332</v>
-      </c>
-      <c r="AC105" s="22">
-        <f t="shared" si="73"/>
-        <v>6927209489.1358862</v>
-      </c>
-      <c r="AD105" s="22">
-        <f t="shared" si="73"/>
-        <v>9228223310.9346333</v>
-      </c>
-      <c r="AE105" s="22">
-        <f t="shared" si="73"/>
-        <v>12293565772.774168</v>
-      </c>
-      <c r="AF105" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG105" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH105" s="53">
-        <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.1166279000905656</v>
-      </c>
+      <c r="AA105" s="72">
+        <f>AA107/AA3</f>
+        <v>0.45126293843059834</v>
+      </c>
+      <c r="AB105" s="72">
+        <f>AB107/AB3</f>
+        <v>0.51752423564504102</v>
+      </c>
+      <c r="AC105" s="72">
+        <f>AC107/AC3</f>
+        <v>0.51408199643493757</v>
+      </c>
+      <c r="AD105" s="72">
+        <f>AD107/AD3</f>
+        <v>0.4703547459252157</v>
+      </c>
+      <c r="AE105" s="72">
+        <f>AE107/AE3</f>
+        <v>0.64703389830508473</v>
+      </c>
+      <c r="AF105" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG105" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH105" s="76"/>
     </row>
-    <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:Z106" si="74">(C107/B107)-1</f>
+        <f t="shared" ref="C106:Z106" si="73">(C107/B107)-1</f>
         <v>-1.4387755102040816</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>6.344186046511628</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-1.0085180493983534</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-751.59107806691452</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-1.3859461440549952</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-1.8333418884582811</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>4.6485009008454083</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.20459477437787621</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1.449787826323115</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-1.1462514238519803</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-3.5911565914976946</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.40882142143215838</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.33312280349606427</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-0.16816519798915142</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-9.5032791719915188E-2</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.35056728050210362</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.39031630015001118</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.3737373737373737</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.94451871657754016</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>8.0440013750429751E-2</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.35921094495704731</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>9.878277153558046E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.73242437153813378</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>-0.53172651254303982</v>
       </c>
-      <c r="AA106" s="33">
-        <v>17539000000</v>
-      </c>
-      <c r="AB106" s="33">
-        <v>23824000000</v>
-      </c>
-      <c r="AC106" s="33">
-        <v>29460000000</v>
-      </c>
-      <c r="AD106" s="33">
-        <v>36614000000</v>
-      </c>
-      <c r="AE106" s="33">
-        <v>50152000000</v>
-      </c>
-      <c r="AF106" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG106" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH106" s="55">
-        <f>(SUM(AA4:AE4)/5)</f>
-        <v>0.33217038194203358</v>
+      <c r="AA106" s="47">
+        <f>(AA107/Z107)-1</f>
+        <v>5.4227941176470589</v>
+      </c>
+      <c r="AB106" s="47">
+        <f>(AB107/AA107)-1</f>
+        <v>0.58900973096737275</v>
+      </c>
+      <c r="AC106" s="47">
+        <f>(AC107/AB107)-1</f>
+        <v>0.18731988472622474</v>
+      </c>
+      <c r="AD106" s="47">
+        <f>(AD107/AC107)-1</f>
+        <v>6.3150138696255187E-2</v>
+      </c>
+      <c r="AE106" s="47">
+        <f>(AE107/AD107)-1</f>
+        <v>0.5563210893228423</v>
+      </c>
+      <c r="AF106" s="48">
+        <f>SUM(AA106:AE106)/5</f>
+        <v>1.3637189922719506</v>
+      </c>
+      <c r="AG106" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH106" s="64">
+        <f>(AH101*AH93)+(AH103*AH98)</f>
+        <v>0.10697890179975972</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="35" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -12734,151 +13936,219 @@
       <c r="Z107" s="1">
         <v>3808000000</v>
       </c>
-      <c r="AA107" s="23"/>
-      <c r="AB107" s="23"/>
-      <c r="AC107" s="23"/>
-      <c r="AD107" s="23"/>
-      <c r="AE107" s="34">
-        <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>561027808660.79187</v>
-      </c>
-      <c r="AF107" s="24" t="s">
+      <c r="AA107" s="49">
+        <v>24458000000</v>
+      </c>
+      <c r="AB107" s="49">
+        <v>38864000000</v>
+      </c>
+      <c r="AC107" s="49">
+        <v>46144000000</v>
+      </c>
+      <c r="AD107" s="49">
+        <v>49058000000</v>
+      </c>
+      <c r="AE107" s="49">
+        <v>76350000000</v>
+      </c>
+      <c r="AF107" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG107" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH107" s="40">
+        <f>(SUM(AA4:AE4)/5)</f>
+        <v>0.37669506446653639</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA108" s="74"/>
+      <c r="AB108" s="74"/>
+      <c r="AC108" s="74"/>
+      <c r="AD108" s="74"/>
+      <c r="AE108" s="50">
+        <f>AE107*(1+AH108)/(AH109-AH108)</f>
+        <v>954620619231.43958</v>
+      </c>
+      <c r="AF108" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AG107" s="56" t="s">
+      <c r="AG108" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="AH107" s="57">
+      <c r="AH108" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="34">
-        <f t="shared" ref="AA108:AD108" si="75">AA107+AA106</f>
-        <v>17539000000</v>
-      </c>
-      <c r="AB108" s="34">
-        <f t="shared" si="75"/>
-        <v>23824000000</v>
-      </c>
-      <c r="AC108" s="34">
-        <f t="shared" si="75"/>
-        <v>29460000000</v>
-      </c>
-      <c r="AD108" s="34">
-        <f t="shared" si="75"/>
-        <v>36614000000</v>
-      </c>
-      <c r="AE108" s="34">
-        <f>AE107+AE106</f>
-        <v>611179808660.79187</v>
-      </c>
-      <c r="AF108" s="24" t="s">
+    <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA109" s="50">
+        <f t="shared" ref="AA109:AD109" si="74">AA108+AA107</f>
+        <v>24458000000</v>
+      </c>
+      <c r="AB109" s="50">
+        <f t="shared" si="74"/>
+        <v>38864000000</v>
+      </c>
+      <c r="AC109" s="50">
+        <f t="shared" si="74"/>
+        <v>46144000000</v>
+      </c>
+      <c r="AD109" s="50">
+        <f t="shared" si="74"/>
+        <v>49058000000</v>
+      </c>
+      <c r="AE109" s="50">
+        <f>AE108+AE107</f>
+        <v>1030970619231.4396</v>
+      </c>
+      <c r="AF109" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="AG108" s="58" t="s">
+      <c r="AG109" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AH108" s="55">
-        <f>AH105</f>
-        <v>0.1166279000905656</v>
+      <c r="AH109" s="40">
+        <f>AH106</f>
+        <v>0.10697890179975972</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="66" t="s">
+    <row r="110" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA110" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="AB109" s="66"/>
+      <c r="AB110" s="75"/>
+      <c r="AC110" s="45"/>
+      <c r="AD110" s="45"/>
+      <c r="AE110" s="45"/>
+      <c r="AF110" s="45"/>
     </row>
-    <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="60" t="s">
+    <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA111" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="AB110" s="50">
-        <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>431593205621.14917</v>
-      </c>
+      <c r="AB111" s="53">
+        <f>NPV(AH109,AA109,AB109,AC109,AD109,AE109)</f>
+        <v>740722444688.9646</v>
+      </c>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="45"/>
+      <c r="AE111" s="45"/>
+      <c r="AF111" s="45"/>
     </row>
-    <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="60" t="s">
+    <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA112" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="AB111" s="50">
+      <c r="AB112" s="53">
         <f>Z40</f>
         <v>13296000000</v>
       </c>
+      <c r="AC112" s="45"/>
+      <c r="AD112" s="45"/>
+      <c r="AE112" s="45"/>
+      <c r="AF112" s="45"/>
     </row>
-    <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="60" t="s">
+    <row r="113" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA113" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="AB112" s="50">
-        <f>AH99</f>
+      <c r="AB113" s="53">
+        <f>AH100</f>
         <v>11855000000</v>
       </c>
+      <c r="AC113" s="45"/>
+      <c r="AD113" s="45"/>
+      <c r="AE113" s="45"/>
+      <c r="AF113" s="45"/>
     </row>
-    <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="60" t="s">
+    <row r="114" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA114" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AB113" s="50">
-        <f>AB110+AB111-AB112</f>
-        <v>433034205621.14917</v>
-      </c>
+      <c r="AB114" s="53">
+        <f>AB111+AB112-AB113</f>
+        <v>742163444688.9646</v>
+      </c>
+      <c r="AC114" s="45"/>
+      <c r="AD114" s="45"/>
+      <c r="AE114" s="45"/>
+      <c r="AF114" s="45"/>
     </row>
-    <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="60" t="s">
+    <row r="115" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA115" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="AB114" s="60">
+      <c r="AB115" s="52">
         <f>Z34*(1+(5*AF16))</f>
         <v>2486984027.9409657</v>
       </c>
+      <c r="AC115" s="45"/>
+      <c r="AD115" s="45"/>
+      <c r="AE115" s="45"/>
+      <c r="AF115" s="45"/>
     </row>
-    <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="61" t="s">
+    <row r="116" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA116" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="AB115" s="62">
-        <f>AB113/AB114</f>
-        <v>174.12021981486896</v>
-      </c>
+      <c r="AB116" s="55">
+        <f>AB114/AB115</f>
+        <v>298.41906355282055</v>
+      </c>
+      <c r="AC116" s="45"/>
+      <c r="AD116" s="45"/>
+      <c r="AE116" s="45"/>
+      <c r="AF116" s="45"/>
     </row>
-    <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="60" t="s">
+    <row r="117" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA117" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AB116" s="63" cm="1">
-        <f t="array" ref="AB116">_FV(A1,"Price")</f>
-        <v>456.79</v>
-      </c>
+      <c r="AB117" s="56" cm="1">
+        <f t="array" ref="AB117">_FV(A1,"Price")</f>
+        <v>421.01</v>
+      </c>
+      <c r="AC117" s="45"/>
+      <c r="AD117" s="45"/>
+      <c r="AE117" s="45"/>
+      <c r="AF117" s="45"/>
     </row>
-    <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="61" t="s">
+    <row r="118" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA118" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="AB117" s="64">
-        <f>AB115/AB116-1</f>
-        <v>-0.61881779413982585</v>
-      </c>
+      <c r="AB118" s="57">
+        <f>AB116/AB117-1</f>
+        <v>-0.29118295633638025</v>
+      </c>
+      <c r="AC118" s="45"/>
+      <c r="AD118" s="45"/>
+      <c r="AE118" s="45"/>
+      <c r="AF118" s="45"/>
     </row>
-    <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="61" t="s">
+    <row r="119" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA119" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="AB118" s="65" t="str">
-        <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
+      <c r="AB119" s="58" t="str">
+        <f>IF(AB116&gt;AB117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AC119" s="45"/>
+      <c r="AD119" s="45"/>
+      <c r="AE119" s="45"/>
+      <c r="AF119" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AA109:AB109"/>
-    <mergeCell ref="AG83:AH83"/>
+  <mergeCells count="7">
+    <mergeCell ref="AA110:AB110"/>
+    <mergeCell ref="AG105:AH105"/>
+    <mergeCell ref="AG99:AH99"/>
     <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="AG93:AH93"/>
-    <mergeCell ref="AG98:AH98"/>
-    <mergeCell ref="AG104:AH104"/>
+    <mergeCell ref="AG94:AH94"/>
+    <mergeCell ref="AG85:AH85"/>
+    <mergeCell ref="AA104:AE104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NVDA" display="ROIC.AI | NVDA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12933,9 +14203,10 @@
     <hyperlink ref="Z36" r:id="rId50" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA1" r:id="rId52" display="https://finbox.com/NASDAQGS:NVDA/explorer/revenue_proj" xr:uid="{1F501A9D-2106-9940-B862-A3E596603C7B}"/>
-    <hyperlink ref="AF106" r:id="rId53" xr:uid="{455E61A6-7595-BF44-83CA-5135D6E59FBA}"/>
+    <hyperlink ref="AF107" r:id="rId53" xr:uid="{455E61A6-7595-BF44-83CA-5135D6E59FBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId54"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F912C87-2DF7-4B47-8CF5-D14BF407C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE09385-8851-674C-B9B2-880DBF21DB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1885,16 +1885,16 @@
                   <c:v>54199000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75096000000</c:v>
+                  <c:v>77573000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89760000000</c:v>
+                  <c:v>91000000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104300000000</c:v>
+                  <c:v>105400000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>118000000000</c:v>
+                  <c:v>121700000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,19 +2133,19 @@
                   <c:v>4368000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26962000000</c:v>
+                  <c:v>26937000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39837000000</c:v>
+                  <c:v>40888000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46401000000</c:v>
+                  <c:v>46711000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>54892000000</c:v>
+                  <c:v>55330000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>61331000000</c:v>
+                  <c:v>66164000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,19 +2384,19 @@
                   <c:v>3808000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24458000000</c:v>
+                  <c:v>24468000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38864000000</c:v>
+                  <c:v>39338000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46144000000</c:v>
+                  <c:v>47141000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49058000000</c:v>
+                  <c:v>53083000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>76350000000</c:v>
+                  <c:v>67645000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3709,16 +3709,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -3731,14 +3730,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -3747,7 +3746,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3874,12 +3872,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>502.66</v>
-    <v>118.34</v>
-    <v>1.6849000000000001</v>
-    <v>-0.95</v>
-    <v>-2.251E-3</v>
-    <v>-3.91</v>
-    <v>-9.2870000000000001E-3</v>
+    <v>129.56</v>
+    <v>1.6931</v>
+    <v>1.74</v>
+    <v>4.3150000000000003E-3</v>
+    <v>0.6</v>
+    <v>1.4810000000000001E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -3887,25 +3885,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>432.97</v>
+    <v>412.06</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45218.999969154691</v>
+    <v>45226.999990103905</v>
     <v>0</v>
-    <v>418.82</v>
-    <v>1039894700000</v>
+    <v>400.15</v>
+    <v>1000350000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>428.11</v>
-    <v>101.9318</v>
-    <v>421.96</v>
-    <v>421.01</v>
-    <v>417.1</v>
+    <v>411.3</v>
+    <v>97.834800000000001</v>
+    <v>403.26</v>
+    <v>405</v>
+    <v>405.6</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>50123308</v>
-    <v>44631609</v>
+    <v>41678441</v>
+    <v>45550678</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -4070,9 +4068,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -4493,10 +4491,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA97" sqref="AA97"/>
+      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4780,16 +4778,16 @@
         <v>54199000000</v>
       </c>
       <c r="AB3" s="21">
-        <v>75096000000</v>
+        <v>77573000000</v>
       </c>
       <c r="AC3" s="21">
-        <v>89760000000</v>
+        <v>91000000000</v>
       </c>
       <c r="AD3" s="21">
-        <v>104300000000</v>
+        <v>105400000000</v>
       </c>
       <c r="AE3" s="21">
-        <v>118000000000</v>
+        <v>121700000000</v>
       </c>
       <c r="AF3" s="22" t="s">
         <v>108</v>
@@ -4911,19 +4909,19 @@
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="1"/>
-        <v>0.38556061919961615</v>
+        <v>0.43126256942009999</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="1"/>
-        <v>0.19527005433045708</v>
+        <v>0.17308857463292648</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="1"/>
-        <v>0.16198752228164004</v>
+        <v>0.15824175824175835</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="1"/>
-        <v>0.13135186960690315</v>
+        <v>0.15464895635673614</v>
       </c>
       <c r="AF4" s="24">
         <f>(Z4+Y4+X4)/3</f>
@@ -5209,15 +5207,15 @@
       </c>
       <c r="AG7" s="25">
         <f>AA21</f>
-        <v>0.52643037694422401</v>
+        <v>0.52021255004704881</v>
       </c>
       <c r="AH7" s="25">
         <f>AA30</f>
-        <v>0.49746305282385284</v>
+        <v>0.49700178970091702</v>
       </c>
       <c r="AI7" s="25">
         <f>AA107/AA3</f>
-        <v>0.45126293843059834</v>
+        <v>0.45144744367977269</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6058,20 +6056,20 @@
         <v>22750000000</v>
       </c>
       <c r="AF16" s="18">
-        <f>(Z35+Y35+X35+W35+V35)/5</f>
-        <v>-1.5968067059461103E-3</v>
+        <f>AVERAGE(W35:AA35)</f>
+        <v>-2.3333519741318988E-3</v>
       </c>
       <c r="AG16" s="32">
         <f>AH102/Z3</f>
-        <v>38.551742418625345</v>
+        <v>37.085712167272185</v>
       </c>
       <c r="AH16" s="32">
         <f>AH102/Z28</f>
-        <v>238.07113095238094</v>
+        <v>229.01785714285714</v>
       </c>
       <c r="AI16" s="33">
         <f>AH102/Z107</f>
-        <v>273.08159138655463</v>
+        <v>262.6969537815126</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -6326,13 +6324,13 @@
         <v>6361000000</v>
       </c>
       <c r="AA19" s="27">
-        <v>28532000000</v>
+        <v>28195000000</v>
       </c>
       <c r="AB19" s="27">
-        <v>36217000000</v>
+        <v>39068000000</v>
       </c>
       <c r="AC19" s="27">
-        <v>35715000000</v>
+        <v>44322000000</v>
       </c>
       <c r="AD19" s="27">
         <v>53164000000</v>
@@ -6346,15 +6344,15 @@
       </c>
       <c r="AG19" s="32">
         <f>AH102/AA3</f>
-        <v>19.186603073857452</v>
+        <v>18.456982601155001</v>
       </c>
       <c r="AH19" s="32">
         <f>AH102/AA28</f>
-        <v>38.568900675024111</v>
+        <v>37.13665218843969</v>
       </c>
       <c r="AI19" s="34">
         <f>AH102/AA107</f>
-        <v>42.517568893613543</v>
+        <v>40.884011770475723</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6460,19 +6458,19 @@
       </c>
       <c r="AA20" s="16">
         <f t="shared" ref="AA20" si="22">(AA19/Z19)-1</f>
-        <v>3.485458261279673</v>
+        <v>3.4324791699418329</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" ref="AB20" si="23">(AB19/AA19)-1</f>
-        <v>0.26934669844385262</v>
+        <v>0.38563575101968439</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" ref="AC20" si="24">(AC19/AB19)-1</f>
-        <v>-1.3860894055277906E-2</v>
+        <v>0.1344834647281663</v>
       </c>
       <c r="AD20" s="16">
         <f t="shared" ref="AD20" si="25">(AD19/AC19)-1</f>
-        <v>0.48856222875542499</v>
+        <v>0.19949460764405935</v>
       </c>
       <c r="AE20" s="16">
         <f t="shared" ref="AE20" si="26">(AE19/AD19)-1</f>
@@ -6562,23 +6560,23 @@
       </c>
       <c r="AA21" s="42">
         <f>AA19/AA3</f>
-        <v>0.52643037694422401</v>
+        <v>0.52021255004704881</v>
       </c>
       <c r="AB21" s="42">
         <f t="shared" ref="AB21:AE21" si="27">AB19/AB3</f>
-        <v>0.48227602002769787</v>
+        <v>0.50362883993141949</v>
       </c>
       <c r="AC21" s="42">
         <f t="shared" si="27"/>
-        <v>0.39789438502673796</v>
+        <v>0.48705494505494507</v>
       </c>
       <c r="AD21" s="42">
         <f t="shared" si="27"/>
-        <v>0.50972195589645253</v>
+        <v>0.50440227703984819</v>
       </c>
       <c r="AE21" s="42">
         <f t="shared" si="27"/>
-        <v>0.53095762711864403</v>
+        <v>0.51481511914543965</v>
       </c>
       <c r="AG21" s="44" t="s">
         <v>167</v>
@@ -6676,15 +6674,15 @@
       <c r="AE22" s="30"/>
       <c r="AG22" s="24">
         <f>SUM(AA29:AE29)/5</f>
-        <v>1.2230418455038756</v>
+        <v>1.2415091467258181</v>
       </c>
       <c r="AH22" s="68">
         <f>(-1*Z98)/AH102</f>
-        <v>3.8273105921205294E-4</v>
+        <v>3.978607487379417E-4</v>
       </c>
       <c r="AI22" s="36">
         <f>AA107/AH102</f>
-        <v>2.3519689060825102E-2</v>
+        <v>2.4459439196281303E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -7192,19 +7190,19 @@
         <v>4368000000</v>
       </c>
       <c r="AA28" s="31">
-        <v>26962000000</v>
+        <v>26937000000</v>
       </c>
       <c r="AB28" s="31">
-        <v>39837000000</v>
+        <v>40888000000</v>
       </c>
       <c r="AC28" s="31">
-        <v>46401000000</v>
+        <v>46711000000</v>
       </c>
       <c r="AD28" s="31">
-        <v>54892000000</v>
+        <v>55330000000</v>
       </c>
       <c r="AE28" s="31">
-        <v>61331000000</v>
+        <v>66164000000</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7310,23 +7308,23 @@
       </c>
       <c r="AA29" s="16">
         <f t="shared" ref="AA29" si="46">(AA28/Z28)-1</f>
-        <v>5.1726190476190474</v>
+        <v>5.166895604395604</v>
       </c>
       <c r="AB29" s="16">
         <f t="shared" ref="AB29" si="47">(AB28/AA28)-1</f>
-        <v>0.47752392255767373</v>
+        <v>0.5179121654230241</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" ref="AC29" si="48">(AC28/AB28)-1</f>
-        <v>0.1647714436328036</v>
+        <v>0.14241342203091367</v>
       </c>
       <c r="AD29" s="16">
         <f t="shared" ref="AD29" si="49">(AD28/AC28)-1</f>
-        <v>0.18299174586754585</v>
+        <v>0.18451756545567433</v>
       </c>
       <c r="AE29" s="16">
         <f t="shared" ref="AE29" si="50">(AE28/AD28)-1</f>
-        <v>0.11730306784230859</v>
+        <v>0.195806976323875</v>
       </c>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -7412,23 +7410,23 @@
       </c>
       <c r="AA30" s="28">
         <f>AA28/AA3</f>
-        <v>0.49746305282385284</v>
+        <v>0.49700178970091702</v>
       </c>
       <c r="AB30" s="28">
         <f t="shared" ref="AB30:AE30" si="51">AB28/AB3</f>
-        <v>0.53048098434004476</v>
+        <v>0.52709061142407798</v>
       </c>
       <c r="AC30" s="28">
         <f t="shared" si="51"/>
-        <v>0.51694518716577542</v>
+        <v>0.51330769230769235</v>
       </c>
       <c r="AD30" s="28">
         <f t="shared" si="51"/>
-        <v>0.52628954937679773</v>
+        <v>0.52495256166982918</v>
       </c>
       <c r="AE30" s="28">
         <f t="shared" si="51"/>
-        <v>0.51975423728813563</v>
+        <v>0.54366474938373044</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -7511,19 +7509,19 @@
         <v>1.76</v>
       </c>
       <c r="AA31" s="29">
-        <v>10.92</v>
+        <v>10.91</v>
       </c>
       <c r="AB31" s="29">
-        <v>16.13</v>
+        <v>16.55</v>
       </c>
       <c r="AC31" s="29">
-        <v>18.79</v>
+        <v>18.91</v>
       </c>
       <c r="AD31" s="29">
-        <v>22.22</v>
+        <v>22.4</v>
       </c>
       <c r="AE31" s="29">
-        <v>24.83</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12802,7 +12800,7 @@
       </c>
       <c r="AH95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12889,7 +12887,7 @@
       </c>
       <c r="AH96" s="62" cm="1">
         <f t="array" ref="AH96">_FV(A1,"Beta")</f>
-        <v>1.6849000000000001</v>
+        <v>1.6931</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13062,7 +13060,7 @@
       </c>
       <c r="AH98" s="60">
         <f>(AH95)+((AH96)*(AH97-AH95))</f>
-        <v>0.10795780200000002</v>
+        <v>0.108639705</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13320,7 +13318,7 @@
       </c>
       <c r="AH101" s="60">
         <f>AH100/AH104</f>
-        <v>1.1271693255534088E-2</v>
+        <v>1.1712054376336808E-2</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13407,7 +13405,7 @@
       </c>
       <c r="AH102" s="53" cm="1">
         <f t="array" ref="AH102">_FV(A1,"Market cap",TRUE)</f>
-        <v>1039894700000</v>
+        <v>1000350000000</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13494,7 +13492,7 @@
       </c>
       <c r="AH103" s="60">
         <f>AH102/AH104</f>
-        <v>0.98872830674446588</v>
+        <v>0.98828794562366318</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13589,7 +13587,7 @@
       </c>
       <c r="AH104" s="63">
         <f>AH100+AH102</f>
-        <v>1051749700000</v>
+        <v>1012205000000</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13698,23 +13696,23 @@
       </c>
       <c r="AA105" s="72">
         <f>AA107/AA3</f>
-        <v>0.45126293843059834</v>
+        <v>0.45144744367977269</v>
       </c>
       <c r="AB105" s="72">
         <f>AB107/AB3</f>
-        <v>0.51752423564504102</v>
+        <v>0.50710943240560502</v>
       </c>
       <c r="AC105" s="72">
         <f>AC107/AC3</f>
-        <v>0.51408199643493757</v>
+        <v>0.51803296703296708</v>
       </c>
       <c r="AD105" s="72">
         <f>AD107/AD3</f>
-        <v>0.4703547459252157</v>
+        <v>0.50363377609108162</v>
       </c>
       <c r="AE105" s="72">
         <f>AE107/AE3</f>
-        <v>0.64703389830508473</v>
+        <v>0.55583401807723909</v>
       </c>
       <c r="AF105" s="73" t="s">
         <v>165</v>
@@ -13827,34 +13825,34 @@
       </c>
       <c r="AA106" s="47">
         <f>(AA107/Z107)-1</f>
-        <v>5.4227941176470589</v>
+        <v>5.4254201680672267</v>
       </c>
       <c r="AB106" s="47">
         <f>(AB107/AA107)-1</f>
-        <v>0.58900973096737275</v>
+        <v>0.60773254863495185</v>
       </c>
       <c r="AC106" s="47">
         <f>(AC107/AB107)-1</f>
-        <v>0.18731988472622474</v>
+        <v>0.19835782195332752</v>
       </c>
       <c r="AD106" s="47">
         <f>(AD107/AC107)-1</f>
-        <v>6.3150138696255187E-2</v>
+        <v>0.12604738974565666</v>
       </c>
       <c r="AE106" s="47">
         <f>(AE107/AD107)-1</f>
-        <v>0.5563210893228423</v>
+        <v>0.27432511350149769</v>
       </c>
       <c r="AF106" s="48">
         <f>SUM(AA106:AE106)/5</f>
-        <v>1.3637189922719506</v>
+        <v>1.3263766083805322</v>
       </c>
       <c r="AG106" s="39" t="s">
         <v>139</v>
       </c>
       <c r="AH106" s="64">
         <f>(AH101*AH93)+(AH103*AH98)</f>
-        <v>0.10697890179975972</v>
+        <v>0.1076145747625504</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13937,19 +13935,19 @@
         <v>3808000000</v>
       </c>
       <c r="AA107" s="49">
-        <v>24458000000</v>
+        <v>24468000000</v>
       </c>
       <c r="AB107" s="49">
-        <v>38864000000</v>
+        <v>39338000000</v>
       </c>
       <c r="AC107" s="49">
-        <v>46144000000</v>
+        <v>47141000000</v>
       </c>
       <c r="AD107" s="49">
-        <v>49058000000</v>
+        <v>53083000000</v>
       </c>
       <c r="AE107" s="49">
-        <v>76350000000</v>
+        <v>67645000000</v>
       </c>
       <c r="AF107" s="46" t="s">
         <v>163</v>
@@ -13959,7 +13957,7 @@
       </c>
       <c r="AH107" s="40">
         <f>(SUM(AA4:AE4)/5)</f>
-        <v>0.37669506446653639</v>
+        <v>0.38530942311311728</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.2">
@@ -13969,7 +13967,7 @@
       <c r="AD108" s="74"/>
       <c r="AE108" s="50">
         <f>AE107*(1+AH108)/(AH109-AH108)</f>
-        <v>954620619231.43958</v>
+        <v>839272309992.33325</v>
       </c>
       <c r="AF108" s="51" t="s">
         <v>141</v>
@@ -13984,23 +13982,23 @@
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.2">
       <c r="AA109" s="50">
         <f t="shared" ref="AA109:AD109" si="74">AA108+AA107</f>
-        <v>24458000000</v>
+        <v>24468000000</v>
       </c>
       <c r="AB109" s="50">
         <f t="shared" si="74"/>
-        <v>38864000000</v>
+        <v>39338000000</v>
       </c>
       <c r="AC109" s="50">
         <f t="shared" si="74"/>
-        <v>46144000000</v>
+        <v>47141000000</v>
       </c>
       <c r="AD109" s="50">
         <f t="shared" si="74"/>
-        <v>49058000000</v>
+        <v>53083000000</v>
       </c>
       <c r="AE109" s="50">
         <f>AE108+AE107</f>
-        <v>1030970619231.4396</v>
+        <v>906917309992.33325</v>
       </c>
       <c r="AF109" s="51" t="s">
         <v>137</v>
@@ -14010,7 +14008,7 @@
       </c>
       <c r="AH109" s="40">
         <f>AH106</f>
-        <v>0.10697890179975972</v>
+        <v>0.1076145747625504</v>
       </c>
     </row>
     <row r="110" spans="1:34" ht="19" x14ac:dyDescent="0.2">
@@ -14029,7 +14027,7 @@
       </c>
       <c r="AB111" s="53">
         <f>NPV(AH109,AA109,AB109,AC109,AD109,AE109)</f>
-        <v>740722444688.9646</v>
+        <v>668149810297.63672</v>
       </c>
       <c r="AC111" s="45"/>
       <c r="AD111" s="45"/>
@@ -14068,7 +14066,7 @@
       </c>
       <c r="AB114" s="53">
         <f>AB111+AB112-AB113</f>
-        <v>742163444688.9646</v>
+        <v>669590810297.63672</v>
       </c>
       <c r="AC114" s="45"/>
       <c r="AD114" s="45"/>
@@ -14081,7 +14079,7 @@
       </c>
       <c r="AB115" s="52">
         <f>Z34*(1+(5*AF16))</f>
-        <v>2486984027.9409657</v>
+        <v>2477751433.0042567</v>
       </c>
       <c r="AC115" s="45"/>
       <c r="AD115" s="45"/>
@@ -14094,7 +14092,7 @@
       </c>
       <c r="AB116" s="55">
         <f>AB114/AB115</f>
-        <v>298.41906355282055</v>
+        <v>270.24131693701111</v>
       </c>
       <c r="AC116" s="45"/>
       <c r="AD116" s="45"/>
@@ -14107,7 +14105,7 @@
       </c>
       <c r="AB117" s="56" cm="1">
         <f t="array" ref="AB117">_FV(A1,"Price")</f>
-        <v>421.01</v>
+        <v>405</v>
       </c>
       <c r="AC117" s="45"/>
       <c r="AD117" s="45"/>
@@ -14120,7 +14118,7 @@
       </c>
       <c r="AB118" s="57">
         <f>AB116/AB117-1</f>
-        <v>-0.29118295633638025</v>
+        <v>-0.33273748904441702</v>
       </c>
       <c r="AC118" s="45"/>
       <c r="AD118" s="45"/>

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE09385-8851-674C-B9B2-880DBF21DB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF2C7C9-F7E3-CC4D-9D6A-ABFE8AA328FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -3714,10 +3714,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -3734,7 +3733,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3745,7 +3744,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3872,12 +3870,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>502.66</v>
-    <v>129.56</v>
-    <v>1.6931</v>
-    <v>1.74</v>
-    <v>4.3150000000000003E-3</v>
-    <v>0.6</v>
-    <v>1.4810000000000001E-3</v>
+    <v>137.59010000000001</v>
+    <v>1.7096</v>
+    <v>14.99</v>
+    <v>3.4455E-2</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -3885,25 +3881,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>412.06</v>
+    <v>453.0899</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45226.999990103905</v>
+    <v>45233.999986758594</v>
     <v>0</v>
-    <v>400.15</v>
-    <v>1000350000000</v>
+    <v>437.23</v>
+    <v>1111624000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>411.3</v>
-    <v>97.834800000000001</v>
-    <v>403.26</v>
-    <v>405</v>
-    <v>405.6</v>
+    <v>440.2</v>
+    <v>108.7174</v>
+    <v>435.06</v>
+    <v>450.05</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>41678441</v>
-    <v>45550678</v>
+    <v>72024</v>
+    <v>45548033</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -3935,8 +3930,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3957,7 +3950,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3974,7 +3966,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3985,16 +3977,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -4060,19 +4049,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -4117,9 +4100,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -4127,9 +4107,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4491,10 +4468,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="X115" sqref="X115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6061,15 +6038,15 @@
       </c>
       <c r="AG16" s="32">
         <f>AH102/Z3</f>
-        <v>37.085712167272185</v>
+        <v>41.210943871876623</v>
       </c>
       <c r="AH16" s="32">
         <f>AH102/Z28</f>
-        <v>229.01785714285714</v>
+        <v>254.49267399267399</v>
       </c>
       <c r="AI16" s="33">
         <f>AH102/Z107</f>
-        <v>262.6969537815126</v>
+        <v>291.91806722689074</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -6344,15 +6321,15 @@
       </c>
       <c r="AG19" s="32">
         <f>AH102/AA3</f>
-        <v>18.456982601155001</v>
+        <v>20.510046310817543</v>
       </c>
       <c r="AH19" s="32">
         <f>AH102/AA28</f>
-        <v>37.13665218843969</v>
+        <v>41.26755020974867</v>
       </c>
       <c r="AI19" s="34">
         <f>AH102/AA107</f>
-        <v>40.884011770475723</v>
+        <v>45.431747588687266</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,11 +6655,11 @@
       </c>
       <c r="AH22" s="68">
         <f>(-1*Z98)/AH102</f>
-        <v>3.978607487379417E-4</v>
+        <v>3.5803473116809284E-4</v>
       </c>
       <c r="AI22" s="36">
         <f>AA107/AH102</f>
-        <v>2.4459439196281303E-2</v>
+        <v>2.2011039704072598E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12800,7 +12777,7 @@
       </c>
       <c r="AH95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12887,7 +12864,7 @@
       </c>
       <c r="AH96" s="62" cm="1">
         <f t="array" ref="AH96">_FV(A1,"Beta")</f>
-        <v>1.6931</v>
+        <v>1.7096</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13060,7 +13037,7 @@
       </c>
       <c r="AH98" s="60">
         <f>(AH95)+((AH96)*(AH97-AH95))</f>
-        <v>0.108639705</v>
+        <v>0.10901340000000001</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13318,7 +13295,7 @@
       </c>
       <c r="AH101" s="60">
         <f>AH100/AH104</f>
-        <v>1.1712054376336808E-2</v>
+        <v>1.0552044141457028E-2</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13405,7 +13382,7 @@
       </c>
       <c r="AH102" s="53" cm="1">
         <f t="array" ref="AH102">_FV(A1,"Market cap",TRUE)</f>
-        <v>1000350000000</v>
+        <v>1111624000000</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13492,7 +13469,7 @@
       </c>
       <c r="AH103" s="60">
         <f>AH102/AH104</f>
-        <v>0.98828794562366318</v>
+        <v>0.98944795585854295</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13587,7 +13564,7 @@
       </c>
       <c r="AH104" s="63">
         <f>AH100+AH102</f>
-        <v>1012205000000</v>
+        <v>1123479000000</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13852,7 +13829,7 @@
       </c>
       <c r="AH106" s="64">
         <f>(AH101*AH93)+(AH103*AH98)</f>
-        <v>0.1076145747625504</v>
+        <v>0.10808585964880281</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13967,7 +13944,7 @@
       <c r="AD108" s="74"/>
       <c r="AE108" s="50">
         <f>AE107*(1+AH108)/(AH109-AH108)</f>
-        <v>839272309992.33325</v>
+        <v>834511736330.08289</v>
       </c>
       <c r="AF108" s="51" t="s">
         <v>141</v>
@@ -13998,7 +13975,7 @@
       </c>
       <c r="AE109" s="50">
         <f>AE108+AE107</f>
-        <v>906917309992.33325</v>
+        <v>902156736330.08289</v>
       </c>
       <c r="AF109" s="51" t="s">
         <v>137</v>
@@ -14008,7 +13985,7 @@
       </c>
       <c r="AH109" s="40">
         <f>AH106</f>
-        <v>0.1076145747625504</v>
+        <v>0.10808585964880281</v>
       </c>
     </row>
     <row r="110" spans="1:34" ht="19" x14ac:dyDescent="0.2">
@@ -14027,7 +14004,7 @@
       </c>
       <c r="AB111" s="53">
         <f>NPV(AH109,AA109,AB109,AC109,AD109,AE109)</f>
-        <v>668149810297.63672</v>
+        <v>664003339952.51367</v>
       </c>
       <c r="AC111" s="45"/>
       <c r="AD111" s="45"/>
@@ -14066,7 +14043,7 @@
       </c>
       <c r="AB114" s="53">
         <f>AB111+AB112-AB113</f>
-        <v>669590810297.63672</v>
+        <v>665444339952.51367</v>
       </c>
       <c r="AC114" s="45"/>
       <c r="AD114" s="45"/>
@@ -14092,7 +14069,7 @@
       </c>
       <c r="AB116" s="55">
         <f>AB114/AB115</f>
-        <v>270.24131693701111</v>
+        <v>268.56783577586998</v>
       </c>
       <c r="AC116" s="45"/>
       <c r="AD116" s="45"/>
@@ -14105,7 +14082,7 @@
       </c>
       <c r="AB117" s="56" cm="1">
         <f t="array" ref="AB117">_FV(A1,"Price")</f>
-        <v>405</v>
+        <v>450.05</v>
       </c>
       <c r="AC117" s="45"/>
       <c r="AD117" s="45"/>
@@ -14118,7 +14095,7 @@
       </c>
       <c r="AB118" s="57">
         <f>AB116/AB117-1</f>
-        <v>-0.33273748904441702</v>
+        <v>-0.40324889284330634</v>
       </c>
       <c r="AC118" s="45"/>
       <c r="AD118" s="45"/>

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF2C7C9-F7E3-CC4D-9D6A-ABFE8AA328FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD4BBB1-6216-124D-9E47-A4B4B56C2E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -3716,6 +3716,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -3733,7 +3734,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3744,6 +3745,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3871,9 +3873,11 @@
     <v>Powered by Refinitiv</v>
     <v>502.66</v>
     <v>137.59010000000001</v>
-    <v>1.7096</v>
-    <v>14.99</v>
-    <v>3.4455E-2</v>
+    <v>1.7155</v>
+    <v>3.8544</v>
+    <v>8.2760000000000004E-3</v>
+    <v>-1.84</v>
+    <v>-3.9190000000000006E-3</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -3881,24 +3885,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>453.0899</v>
+    <v>482.3</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45233.999986758594</v>
+    <v>45239.971752164063</v>
     <v>0</v>
-    <v>437.23</v>
-    <v>1111624000000</v>
+    <v>467.5</v>
+    <v>1159898168000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>440.2</v>
-    <v>108.7174</v>
-    <v>435.06</v>
-    <v>450.05</v>
+    <v>474.67</v>
+    <v>112.5076</v>
+    <v>465.74</v>
+    <v>469.59440000000001</v>
+    <v>467.66</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>72024</v>
-    <v>45548033</v>
+    <v>53971100</v>
+    <v>44953748</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -3930,6 +3935,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3950,6 +3957,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3966,7 +3974,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3977,13 +3985,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -4049,13 +4060,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -4100,6 +4117,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -4107,6 +4127,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4468,10 +4491,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X115" sqref="X115"/>
+      <selection pane="bottomRight" activeCell="AC94" sqref="AC94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6038,15 +6061,15 @@
       </c>
       <c r="AG16" s="32">
         <f>AH102/Z3</f>
-        <v>41.210943871876623</v>
+        <v>43.000599392007118</v>
       </c>
       <c r="AH16" s="32">
         <f>AH102/Z28</f>
-        <v>254.49267399267399</v>
+        <v>265.54445238095241</v>
       </c>
       <c r="AI16" s="33">
         <f>AH102/Z107</f>
-        <v>291.91806722689074</v>
+        <v>304.59510714285716</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -6321,15 +6344,15 @@
       </c>
       <c r="AG19" s="32">
         <f>AH102/AA3</f>
-        <v>20.510046310817543</v>
+        <v>21.400730050369933</v>
       </c>
       <c r="AH19" s="32">
         <f>AH102/AA28</f>
-        <v>41.26755020974867</v>
+        <v>43.059663956639568</v>
       </c>
       <c r="AI19" s="34">
         <f>AH102/AA107</f>
-        <v>45.431747588687266</v>
+        <v>47.404698708517245</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6655,11 +6678,11 @@
       </c>
       <c r="AH22" s="68">
         <f>(-1*Z98)/AH102</f>
-        <v>3.5803473116809284E-4</v>
+        <v>3.4313357067049011E-4</v>
       </c>
       <c r="AI22" s="36">
         <f>AA107/AH102</f>
-        <v>2.2011039704072598E-2</v>
+        <v>2.1094955294385809E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12777,7 +12800,7 @@
       </c>
       <c r="AH95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12864,7 +12887,7 @@
       </c>
       <c r="AH96" s="62" cm="1">
         <f t="array" ref="AH96">_FV(A1,"Beta")</f>
-        <v>1.7096</v>
+        <v>1.7155</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13037,7 +13060,7 @@
       </c>
       <c r="AH98" s="60">
         <f>(AH95)+((AH96)*(AH97-AH95))</f>
-        <v>0.10901340000000001</v>
+        <v>0.11139649500000001</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,7 +13318,7 @@
       </c>
       <c r="AH101" s="60">
         <f>AH100/AH104</f>
-        <v>1.0552044141457028E-2</v>
+        <v>1.0117318496552168E-2</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13382,7 +13405,7 @@
       </c>
       <c r="AH102" s="53" cm="1">
         <f t="array" ref="AH102">_FV(A1,"Market cap",TRUE)</f>
-        <v>1111624000000</v>
+        <v>1159898168000</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -13469,7 +13492,7 @@
       </c>
       <c r="AH103" s="60">
         <f>AH102/AH104</f>
-        <v>0.98944795585854295</v>
+        <v>0.98988268150344783</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13564,7 +13587,7 @@
       </c>
       <c r="AH104" s="63">
         <f>AH100+AH102</f>
-        <v>1123479000000</v>
+        <v>1171753168000</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13829,7 +13852,7 @@
       </c>
       <c r="AH106" s="64">
         <f>(AH101*AH93)+(AH103*AH98)</f>
-        <v>0.10808585964880281</v>
+        <v>0.11048305714749174</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13944,7 +13967,7 @@
       <c r="AD108" s="74"/>
       <c r="AE108" s="50">
         <f>AE107*(1+AH108)/(AH109-AH108)</f>
-        <v>834511736330.08289</v>
+        <v>811109561516.59436</v>
       </c>
       <c r="AF108" s="51" t="s">
         <v>141</v>
@@ -13975,7 +13998,7 @@
       </c>
       <c r="AE109" s="50">
         <f>AE108+AE107</f>
-        <v>902156736330.08289</v>
+        <v>878754561516.59436</v>
       </c>
       <c r="AF109" s="51" t="s">
         <v>137</v>
@@ -13985,7 +14008,7 @@
       </c>
       <c r="AH109" s="40">
         <f>AH106</f>
-        <v>0.10808585964880281</v>
+        <v>0.11048305714749174</v>
       </c>
     </row>
     <row r="110" spans="1:34" ht="19" x14ac:dyDescent="0.2">
@@ -14004,7 +14027,7 @@
       </c>
       <c r="AB111" s="53">
         <f>NPV(AH109,AA109,AB109,AC109,AD109,AE109)</f>
-        <v>664003339952.51367</v>
+        <v>643629027262.06189</v>
       </c>
       <c r="AC111" s="45"/>
       <c r="AD111" s="45"/>
@@ -14043,7 +14066,7 @@
       </c>
       <c r="AB114" s="53">
         <f>AB111+AB112-AB113</f>
-        <v>665444339952.51367</v>
+        <v>645070027262.06189</v>
       </c>
       <c r="AC114" s="45"/>
       <c r="AD114" s="45"/>
@@ -14069,7 +14092,7 @@
       </c>
       <c r="AB116" s="55">
         <f>AB114/AB115</f>
-        <v>268.56783577586998</v>
+        <v>260.34493156560052</v>
       </c>
       <c r="AC116" s="45"/>
       <c r="AD116" s="45"/>
@@ -14082,7 +14105,7 @@
       </c>
       <c r="AB117" s="56" cm="1">
         <f t="array" ref="AB117">_FV(A1,"Price")</f>
-        <v>450.05</v>
+        <v>469.59440000000001</v>
       </c>
       <c r="AC117" s="45"/>
       <c r="AD117" s="45"/>
@@ -14095,7 +14118,7 @@
       </c>
       <c r="AB118" s="57">
         <f>AB116/AB117-1</f>
-        <v>-0.40324889284330634</v>
+        <v>-0.44559617498504989</v>
       </c>
       <c r="AC118" s="45"/>
       <c r="AD118" s="45"/>

--- a/Technology/Hardware/Nvidia.xlsx
+++ b/Technology/Hardware/Nvidia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF49191-4F53-F841-B02F-87FA1CB49B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D280FD-9126-7C44-9F62-1C8B6BE714F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1797,8 +1797,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Charles Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1818,7 +1820,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1831,6 +1833,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1958,11 +1962,11 @@
     <v>Powered by Refinitiv</v>
     <v>505.48</v>
     <v>138.84</v>
-    <v>1.6536999999999999</v>
-    <v>-0.05</v>
-    <v>-1.069E-4</v>
-    <v>0.48</v>
-    <v>1.026E-3</v>
+    <v>1.6529</v>
+    <v>9.1</v>
+    <v>1.9530000000000002E-2</v>
+    <v>-0.09</v>
+    <v>-1.894E-4</v>
     <v>USD</v>
     <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
     <v>26196</v>
@@ -1970,25 +1974,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
-    <v>472</v>
+    <v>477.4085</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45262.041657488284</v>
+    <v>45269.041608437503</v>
     <v>0</v>
-    <v>461.87</v>
-    <v>1155095500000</v>
+    <v>465.5</v>
+    <v>1173398200000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>465.25</v>
-    <v>61.753900000000002</v>
-    <v>467.7</v>
-    <v>467.65</v>
-    <v>468.13</v>
+    <v>465.95</v>
+    <v>61.5242</v>
+    <v>465.96</v>
+    <v>475.06</v>
+    <v>474.97</v>
     <v>2470000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>36931701</v>
-    <v>44054131</v>
+    <v>35922370</v>
+    <v>42488590</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -14155,7 +14159,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1155095500000</v>
+        <v>1173398200000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14183,14 +14187,14 @@
       </c>
       <c r="I3" s="101">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>969694198737.21924</v>
+        <v>962855397429.29614</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="104">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>3.4282879640687718E-4</v>
+        <v>3.3748134265077276E-4</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>206</v>
@@ -14235,14 +14239,14 @@
       </c>
       <c r="I4" s="102">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>784906976728.32166</v>
+        <v>778927999631.16602</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="103" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.069E-4</v>
+        <v>1.9530000000000002E-2</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>213</v>
@@ -14287,14 +14291,14 @@
       </c>
       <c r="I5" s="102">
         <f>I4+G5-G6</f>
-        <v>790183976728.32166</v>
+        <v>784204999631.16602</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="105" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>467.65</v>
+        <v>475.06</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>220</v>
@@ -14314,7 +14318,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <f>O20/F10</f>
-        <v>21.215433640671492</v>
+        <v>21.551596076846785</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14342,14 +14346,14 @@
       </c>
       <c r="I6" s="103">
         <f>N25</f>
-        <v>9.6503083230045847E-2</v>
+        <v>9.7010942853016979E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="109">
         <f>I5/G4</f>
-        <v>323.89115440074005</v>
+        <v>321.44041147103479</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>226</v>
@@ -14369,14 +14373,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <f>O20/F12</f>
-        <v>40.227606742355647</v>
+        <v>40.865020547468134</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="99">
         <f>F15/A3</f>
-        <v>2.2422388451863937E-2</v>
+        <v>2.2072643370340945E-2</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>229</v>
@@ -14403,7 +14407,7 @@
       </c>
       <c r="K7" s="106">
         <f>K6/K5-1</f>
-        <v>-0.30740691884798443</v>
+        <v>-0.32336881347401425</v>
       </c>
       <c r="L7" s="58" t="s">
         <v>232</v>
@@ -14730,7 +14734,7 @@
       </c>
       <c r="O14" s="77">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14882,7 +14886,7 @@
       </c>
       <c r="O17" s="87">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14965,7 +14969,7 @@
       </c>
       <c r="O20" s="93">
         <f>A3</f>
-        <v>1155095500000</v>
+        <v>1173398200000</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -14995,7 +14999,7 @@
       </c>
       <c r="O21" s="93">
         <f>O19+O20</f>
-        <v>1165841500000</v>
+        <v>1184144200000</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -15023,7 +15027,7 @@
       </c>
       <c r="O22" s="95">
         <f>(O19/O21)</f>
-        <v>9.2173764615515914E-3</v>
+        <v>9.0749082755292813E-3</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -15048,7 +15052,7 @@
       </c>
       <c r="O23" s="96">
         <f>O20/O21</f>
-        <v>0.99078262353844837</v>
+        <v>0.99092509172447074</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15092,7 +15096,7 @@
       <c r="M25" s="60"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.6503083230045847E-2</v>
+        <v>9.7010942853016979E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="41"/>
